--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45784</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44512</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45299</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44623</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>44816</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,14 +1151,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 35741-2025</t>
+          <t>A 35742-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45860</v>
+        <v>45860.53805555555</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1176,16 +1176,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>6.1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1211,35 +1211,35 @@
       <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Knärot
-Vedskivlav</t>
+Mörk husmossa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35741-2025 artfynd.xlsx", "A 35741-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35742-2025 artfynd.xlsx", "A 35742-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35741-2025 karta.png", "A 35741-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35742-2025 karta.png", "A 35742-2025")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35741-2025 karta knärot.png", "A 35741-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35742-2025 karta knärot.png", "A 35742-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35741-2025 FSC-klagomål.docx", "A 35741-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35742-2025 FSC-klagomål.docx", "A 35742-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35741-2025 FSC-klagomål mail.docx", "A 35741-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35742-2025 FSC-klagomål mail.docx", "A 35742-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35741-2025 tillsynsbegäran.docx", "A 35741-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35742-2025 tillsynsbegäran.docx", "A 35742-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35741-2025 tillsynsbegäran mail.docx", "A 35741-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35742-2025 tillsynsbegäran mail.docx", "A 35742-2025")</f>
         <v/>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
         <v>45929</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,14 +1332,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 47483-2021</t>
+          <t>A 35741-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44447</v>
+        <v>45860</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,17 +1351,22 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>6.9</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1376,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1387,49 +1392,49 @@
       <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Knärot
-Mindre märgborre</t>
+Vedskivlav</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47483-2021 artfynd.xlsx", "A 47483-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35741-2025 artfynd.xlsx", "A 35741-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47483-2021 karta.png", "A 47483-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35741-2025 karta.png", "A 35741-2025")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 47483-2021 karta knärot.png", "A 47483-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35741-2025 karta knärot.png", "A 35741-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47483-2021 FSC-klagomål.docx", "A 47483-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35741-2025 FSC-klagomål.docx", "A 35741-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47483-2021 FSC-klagomål mail.docx", "A 47483-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35741-2025 FSC-klagomål mail.docx", "A 35741-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47483-2021 tillsynsbegäran.docx", "A 47483-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35741-2025 tillsynsbegäran.docx", "A 35741-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47483-2021 tillsynsbegäran mail.docx", "A 47483-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35741-2025 tillsynsbegäran mail.docx", "A 35741-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 35742-2025</t>
+          <t>A 47483-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45860.53805555555</v>
+        <v>44447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1441,13 +1446,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1482,35 +1482,35 @@
       <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Knärot
-Mörk husmossa</t>
+Mindre märgborre</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35742-2025 artfynd.xlsx", "A 35742-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47483-2021 artfynd.xlsx", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35742-2025 karta.png", "A 35742-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47483-2021 karta.png", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35742-2025 karta knärot.png", "A 35742-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 47483-2021 karta knärot.png", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35742-2025 FSC-klagomål.docx", "A 35742-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47483-2021 FSC-klagomål.docx", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35742-2025 FSC-klagomål mail.docx", "A 35742-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47483-2021 FSC-klagomål mail.docx", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35742-2025 tillsynsbegäran.docx", "A 35742-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47483-2021 tillsynsbegäran.docx", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35742-2025 tillsynsbegäran mail.docx", "A 35742-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47483-2021 tillsynsbegäran mail.docx", "A 47483-2021")</f>
         <v/>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
         <v>44511</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44559.54373842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,14 +1692,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 36606-2025</t>
+          <t>A 54828-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45870.54482638889</v>
+        <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,23 +1713,23 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>13.3</v>
+        <v>5.1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1744,52 +1744,56 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Brunklöver</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 36606-2025 artfynd.xlsx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 54828-2021 artfynd.xlsx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 36606-2025 karta.png", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 54828-2021 karta.png", "A 54828-2021")</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 54828-2021 karta knärot.png", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 36606-2025 FSC-klagomål.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 54828-2021 FSC-klagomål.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 36606-2025 FSC-klagomål mail.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 54828-2021 FSC-klagomål mail.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 36606-2025 tillsynsbegäran.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 54828-2021 tillsynsbegäran.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 36606-2025 tillsynsbegäran mail.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 54828-2021 tillsynsbegäran mail.docx", "A 54828-2021")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 46058-2025</t>
+          <t>A 28392-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45924</v>
+        <v>45477.60362268519</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,17 +1807,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1841,45 +1845,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28392-2024 artfynd.xlsx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28392-2024 karta.png", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28392-2024 FSC-klagomål.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28392-2024 FSC-klagomål mail.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28392-2024 tillsynsbegäran.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28392-2024 tillsynsbegäran mail.docx", "A 28392-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37011-2025</t>
+          <t>A 27434-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45874.70511574074</v>
+        <v>45813</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1897,7 +1901,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1909,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1921,59 +1925,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 27434-2025 artfynd.xlsx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
-        <v/>
-      </c>
-      <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 27434-2025 karta.png", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 27434-2025 FSC-klagomål.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 27434-2025 FSC-klagomål mail.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 27434-2025 tillsynsbegäran.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 27434-2025 tillsynsbegäran mail.docx", "A 27434-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 37012-2025</t>
+          <t>A 234-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45874.7066550926</v>
+        <v>44928.66260416667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,19 +1991,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2018,52 +2018,56 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
+        <v/>
+      </c>
+      <c r="U17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 41621-2025</t>
+          <t>A 28397-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45901.70506944445</v>
+        <v>45477.60549768519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2081,13 +2085,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2115,45 +2119,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41621-2025 artfynd.xlsx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41621-2025 karta.png", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41621-2025 FSC-klagomål.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41621-2025 FSC-klagomål mail.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41621-2025 tillsynsbegäran.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41621-2025 tillsynsbegäran mail.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 41568-2025</t>
+          <t>A 41621-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45901.6075462963</v>
+        <v>45901.70506944445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2171,7 +2175,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6.8</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2209,41 +2213,41 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41568-2025 artfynd.xlsx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41621-2025 artfynd.xlsx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41568-2025 karta.png", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41621-2025 karta.png", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41568-2025 FSC-klagomål.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41621-2025 FSC-klagomål.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41568-2025 FSC-klagomål mail.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41621-2025 FSC-klagomål mail.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41568-2025 tillsynsbegäran.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41621-2025 tillsynsbegäran.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41568-2025 tillsynsbegäran mail.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41621-2025 tillsynsbegäran mail.docx", "A 41621-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 186-2026</t>
+          <t>A 41568-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>46025.54315972222</v>
+        <v>45901.6075462963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2255,20 +2259,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2280,59 +2289,55 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 186-2026 artfynd.xlsx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41568-2025 artfynd.xlsx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 186-2026 karta.png", "A 186-2026")</f>
-        <v/>
-      </c>
-      <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 186-2026 karta knärot.png", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41568-2025 karta.png", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 186-2026 FSC-klagomål.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41568-2025 FSC-klagomål.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 186-2026 FSC-klagomål mail.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41568-2025 FSC-klagomål mail.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 186-2026 tillsynsbegäran.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41568-2025 tillsynsbegäran.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 186-2026 tillsynsbegäran mail.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41568-2025 tillsynsbegäran mail.docx", "A 41568-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 33298-2023</t>
+          <t>A 23354-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45127</v>
+        <v>45453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2350,13 +2355,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2384,45 +2389,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 33298-2023 artfynd.xlsx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 33298-2023 karta.png", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 33298-2023 FSC-klagomål.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 33298-2023 FSC-klagomål mail.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 33298-2023 tillsynsbegäran.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 33298-2023 tillsynsbegäran mail.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 687-2026</t>
+          <t>A 30008-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46029</v>
+        <v>45488.6040162037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,17 +2439,22 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>6.8</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2459,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2469,45 +2479,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Brunklöver</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 687-2026 artfynd.xlsx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 687-2026 karta.png", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 687-2026 FSC-klagomål.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 687-2026 FSC-klagomål mail.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 687-2026 tillsynsbegäran.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 687-2026 tillsynsbegäran mail.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 30008-2024</t>
+          <t>A 48709-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45488.6040162037</v>
+        <v>45936.63020833334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2519,26 +2529,21 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
@@ -2549,55 +2554,59 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
+        <v/>
+      </c>
+      <c r="U23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 48709-2025</t>
+          <t>A 43883-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45936.63020833334</v>
+        <v>45912.68892361111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2609,8 +2618,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>6.2</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2622,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2634,59 +2648,59 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
-        <v/>
-      </c>
-      <c r="U24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 43883-2025</t>
+          <t>A 48702-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45912.68892361111</v>
+        <v>45936.62197916667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2698,13 +2712,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2716,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2728,59 +2737,59 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
+        <v/>
+      </c>
+      <c r="U25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 48702-2025</t>
+          <t>A 7543-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45936.62197916667</v>
+        <v>45348</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2793,19 +2802,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2817,59 +2826,55 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 7543-2024 artfynd.xlsx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
-        <v/>
-      </c>
-      <c r="U26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 7543-2024 karta.png", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 7543-2024 FSC-klagomål.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 7543-2024 FSC-klagomål mail.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 7543-2024 tillsynsbegäran.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 7543-2024 tillsynsbegäran mail.docx", "A 7543-2024")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 23354-2024</t>
+          <t>A 35743-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45453</v>
+        <v>45860.54238425926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2887,7 +2892,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2921,45 +2926,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35743-2025 artfynd.xlsx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35743-2025 karta.png", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35743-2025 FSC-klagomål.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35743-2025 FSC-klagomål mail.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35743-2025 tillsynsbegäran.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35743-2025 tillsynsbegäran mail.docx", "A 35743-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 47219-2024</t>
+          <t>A 36606-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45586</v>
+        <v>45870.54482638889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2977,7 +2982,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8.300000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3011,45 +3016,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Brunklöver</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47219-2024 artfynd.xlsx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 36606-2025 artfynd.xlsx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47219-2024 karta.png", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 36606-2025 karta.png", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47219-2024 FSC-klagomål.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 36606-2025 FSC-klagomål.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47219-2024 FSC-klagomål mail.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 36606-2025 FSC-klagomål mail.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47219-2024 tillsynsbegäran.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 36606-2025 tillsynsbegäran.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47219-2024 tillsynsbegäran mail.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 36606-2025 tillsynsbegäran mail.docx", "A 36606-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 28397-2024</t>
+          <t>A 37012-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45477.60549768519</v>
+        <v>45874.7066550926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3067,17 +3072,17 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -3091,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3101,45 +3106,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35521-2024</t>
+          <t>A 37011-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45531.57493055556</v>
+        <v>45874.70511574074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3157,7 +3162,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -3169,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3181,55 +3186,59 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35521-2024 artfynd.xlsx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35521-2024 karta.png", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
+        <v/>
+      </c>
+      <c r="U30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35521-2024 FSC-klagomål.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35521-2024 FSC-klagomål mail.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35521-2024 tillsynsbegäran.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35521-2024 tillsynsbegäran mail.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 28392-2024</t>
+          <t>A 46058-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45477.60362268519</v>
+        <v>45924</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3243,17 +3252,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3281,45 +3290,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28392-2024 artfynd.xlsx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28392-2024 karta.png", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28392-2024 FSC-klagomål.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28392-2024 FSC-klagomål mail.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28392-2024 tillsynsbegäran.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28392-2024 tillsynsbegäran mail.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 47459-2023</t>
+          <t>A 186-2026</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45202.83313657407</v>
+        <v>46025.54315972222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3332,20 +3341,20 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>1</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
@@ -3356,55 +3365,59 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47459-2023 artfynd.xlsx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 186-2026 artfynd.xlsx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47459-2023 karta.png", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 186-2026 karta.png", "A 186-2026")</f>
+        <v/>
+      </c>
+      <c r="U32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 186-2026 karta knärot.png", "A 186-2026")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47459-2023 FSC-klagomål.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 186-2026 FSC-klagomål.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47459-2023 FSC-klagomål mail.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 186-2026 FSC-klagomål mail.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47459-2023 tillsynsbegäran.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 186-2026 tillsynsbegäran.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47459-2023 tillsynsbegäran mail.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 186-2026 tillsynsbegäran mail.docx", "A 186-2026")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 22096-2021</t>
+          <t>A 687-2026</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44323</v>
+        <v>46029</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3416,25 +3429,20 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>6.8</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3449,56 +3457,52 @@
         <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunklöver</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 22096-2021 artfynd.xlsx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 687-2026 artfynd.xlsx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 22096-2021 karta.png", "A 22096-2021")</f>
-        <v/>
-      </c>
-      <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 22096-2021 karta knärot.png", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 687-2026 karta.png", "A 687-2026")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 22096-2021 FSC-klagomål.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 687-2026 FSC-klagomål.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 22096-2021 FSC-klagomål mail.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 687-2026 FSC-klagomål mail.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 22096-2021 tillsynsbegäran.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 687-2026 tillsynsbegäran.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 22096-2021 tillsynsbegäran mail.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 687-2026 tillsynsbegäran mail.docx", "A 687-2026")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 54828-2021</t>
+          <t>A 47459-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44473</v>
+        <v>45202.83313657407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3510,25 +3514,20 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3540,59 +3539,55 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 54828-2021 artfynd.xlsx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47459-2023 artfynd.xlsx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 54828-2021 karta.png", "A 54828-2021")</f>
-        <v/>
-      </c>
-      <c r="U34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 54828-2021 karta knärot.png", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47459-2023 karta.png", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 54828-2021 FSC-klagomål.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47459-2023 FSC-klagomål.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 54828-2021 FSC-klagomål mail.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47459-2023 FSC-klagomål mail.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 54828-2021 tillsynsbegäran.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47459-2023 tillsynsbegäran.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 54828-2021 tillsynsbegäran mail.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47459-2023 tillsynsbegäran mail.docx", "A 47459-2023")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 234-2023</t>
+          <t>A 33298-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44928.66260416667</v>
+        <v>45127</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3610,19 +3605,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3634,59 +3629,55 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 33298-2023 artfynd.xlsx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
-        <v/>
-      </c>
-      <c r="U35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 33298-2023 karta.png", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 33298-2023 FSC-klagomål.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 33298-2023 FSC-klagomål mail.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 33298-2023 tillsynsbegäran.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 33298-2023 tillsynsbegäran mail.docx", "A 33298-2023")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 21029-2024</t>
+          <t>A 35521-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45439.6528125</v>
+        <v>45531.57493055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3704,16 +3695,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3728,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3738,49 +3729,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 21029-2024 artfynd.xlsx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35521-2024 artfynd.xlsx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 21029-2024 karta.png", "A 21029-2024")</f>
-        <v/>
-      </c>
-      <c r="U36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 21029-2024 karta knärot.png", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35521-2024 karta.png", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 21029-2024 FSC-klagomål.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35521-2024 FSC-klagomål.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 21029-2024 FSC-klagomål mail.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35521-2024 FSC-klagomål mail.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 21029-2024 tillsynsbegäran.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35521-2024 tillsynsbegäran.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 21029-2024 tillsynsbegäran mail.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35521-2024 tillsynsbegäran mail.docx", "A 35521-2024")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 27434-2025</t>
+          <t>A 22096-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45813</v>
+        <v>44323</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3798,7 +3785,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3810,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3822,55 +3809,59 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 27434-2025 artfynd.xlsx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 22096-2021 artfynd.xlsx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 27434-2025 karta.png", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 22096-2021 karta.png", "A 22096-2021")</f>
+        <v/>
+      </c>
+      <c r="U37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 22096-2021 karta knärot.png", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 27434-2025 FSC-klagomål.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 22096-2021 FSC-klagomål.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 27434-2025 FSC-klagomål mail.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 22096-2021 FSC-klagomål mail.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 27434-2025 tillsynsbegäran.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 22096-2021 tillsynsbegäran.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 27434-2025 tillsynsbegäran mail.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 22096-2021 tillsynsbegäran mail.docx", "A 22096-2021")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7543-2024</t>
+          <t>A 21029-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45348</v>
+        <v>45439.6528125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,18 +3873,23 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
@@ -3907,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3917,45 +3913,49 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 7543-2024 artfynd.xlsx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 21029-2024 artfynd.xlsx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 7543-2024 karta.png", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 21029-2024 karta.png", "A 21029-2024")</f>
+        <v/>
+      </c>
+      <c r="U38">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 21029-2024 karta knärot.png", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 7543-2024 FSC-klagomål.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 21029-2024 FSC-klagomål.docx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 7543-2024 FSC-klagomål mail.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 21029-2024 FSC-klagomål mail.docx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 7543-2024 tillsynsbegäran.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 21029-2024 tillsynsbegäran.docx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 7543-2024 tillsynsbegäran mail.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 21029-2024 tillsynsbegäran mail.docx", "A 21029-2024")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 35743-2025</t>
+          <t>A 47219-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45860.54238425926</v>
+        <v>45586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,17 +3973,17 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -4007,45 +4007,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35743-2025 artfynd.xlsx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47219-2024 artfynd.xlsx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35743-2025 karta.png", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47219-2024 karta.png", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35743-2025 FSC-klagomål.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47219-2024 FSC-klagomål.docx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35743-2025 FSC-klagomål mail.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47219-2024 FSC-klagomål mail.docx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35743-2025 tillsynsbegäran.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47219-2024 tillsynsbegäran.docx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35743-2025 tillsynsbegäran mail.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47219-2024 tillsynsbegäran mail.docx", "A 47219-2024")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 51205-2022</t>
+          <t>A 31205-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44868.61302083333</v>
+        <v>44770</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4100,14 +4100,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 31205-2022</t>
+          <t>A 51205-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44770</v>
+        <v>44868.61302083333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4169,7 +4169,7 @@
         <v>44314</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44582.37412037037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44501.57883101852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44447.66321759259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44504.60092592592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44512</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44456</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44295.6012962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44873</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4732,14 +4732,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 36180-2025</t>
+          <t>A 51202-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45867.41327546296</v>
+        <v>44868.60868055555</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4751,8 +4751,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4789,14 +4794,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 36349-2025</t>
+          <t>A 19292-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45868.48269675926</v>
+        <v>44692</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4809,7 +4814,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4846,14 +4851,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38486-2025</t>
+          <t>A 17179-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45884.34282407408</v>
+        <v>45755</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4865,8 +4870,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4903,14 +4913,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19292-2022</t>
+          <t>A 35498-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44692</v>
+        <v>45531.51796296296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4922,8 +4932,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4960,14 +4975,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 51202-2022</t>
+          <t>A 24851-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44868.60868055555</v>
+        <v>44340</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4985,7 +5000,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>11.3</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5022,14 +5037,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38741-2025</t>
+          <t>A 6929-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45887.37405092592</v>
+        <v>44967</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5041,13 +5056,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5084,14 +5094,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38746-2025</t>
+          <t>A 33979-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45887.37974537037</v>
+        <v>45523.51896990741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5103,13 +5113,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5146,14 +5151,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 37444-2025</t>
+          <t>A 33978-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45877.54305555556</v>
+        <v>45523.51716435186</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5165,13 +5170,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 47639-2021</t>
+          <t>A 33984-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44448.3966087963</v>
+        <v>45523.52378472222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 13473-2024</t>
+          <t>A 58369-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45387.5827662037</v>
+        <v>45250</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38744-2025</t>
+          <t>A 4032-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45887.37774305556</v>
+        <v>45684</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5341,13 +5341,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>8.199999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5384,14 +5379,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28133-2024</t>
+          <t>A 28391-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45476.69053240741</v>
+        <v>45477.60254629629</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5403,8 +5398,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5441,14 +5441,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 33978-2024</t>
+          <t>A 33296-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45523.51716435186</v>
+        <v>45127.69603009259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5460,8 +5460,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5498,14 +5503,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33984-2024</t>
+          <t>A 51337-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45523.52378472222</v>
+        <v>45219.59144675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5518,7 +5523,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5555,14 +5560,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 11813-2024</t>
+          <t>A 37743-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45376.30138888889</v>
+        <v>44810.58275462963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5575,7 +5580,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5612,14 +5617,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 37988-2025</t>
+          <t>A 54149-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45881.70454861111</v>
+        <v>45232.4528125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5631,13 +5636,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5674,14 +5674,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 36763-2024</t>
+          <t>A 11813-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45538.36181712963</v>
+        <v>45376.30138888889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5731,14 +5731,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 14119-2025</t>
+          <t>A 33981-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45740.4659837963</v>
+        <v>45523.52111111111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,13 +5750,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5793,14 +5788,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 22129-2023</t>
+          <t>A 59615-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45069</v>
+        <v>45254</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5818,7 +5813,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5855,14 +5850,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 10740-2025</t>
+          <t>A 53517-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45722.41008101852</v>
+        <v>45614.60436342593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5875,7 +5870,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5912,14 +5907,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 10161-2023</t>
+          <t>A 58240-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44986</v>
+        <v>44487.88978009259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5931,13 +5926,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5974,14 +5964,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35505-2024</t>
+          <t>A 38746-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45531.53869212963</v>
+        <v>45887.37974537037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5999,7 +5989,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6036,14 +6026,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 35514-2024</t>
+          <t>A 38741-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45531.56472222223</v>
+        <v>45887.37405092592</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6061,7 +6051,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6098,14 +6088,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 40407-2025</t>
+          <t>A 43730-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45895.57083333333</v>
+        <v>45187</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6123,7 +6113,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6160,14 +6150,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 23376-2024</t>
+          <t>A 38486-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45453</v>
+        <v>45884.34282407408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6179,13 +6169,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>10.8</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6222,14 +6207,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 22226-2024</t>
+          <t>A 38744-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45446.4203587963</v>
+        <v>45887.37774305556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6241,8 +6226,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6279,14 +6269,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 12057-2021</t>
+          <t>A 47524-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44266</v>
+        <v>45587.63166666667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6299,7 +6289,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6336,14 +6326,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 37744-2022</t>
+          <t>A 13471-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44810.58422453704</v>
+        <v>45387.57859953704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6356,7 +6346,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6393,14 +6383,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57593-2025</t>
+          <t>A 26753-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45980.96055555555</v>
+        <v>45810.55490740741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6413,7 +6403,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6450,14 +6440,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 57595-2025</t>
+          <t>A 11953-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45980.97019675926</v>
+        <v>45728.56366898148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6469,8 +6459,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>34.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6507,14 +6502,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57596-2025</t>
+          <t>A 27431-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45980.9716087963</v>
+        <v>45813</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6526,8 +6521,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6564,14 +6564,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25476-2024</t>
+          <t>A 27436-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45463.44922453703</v>
+        <v>45813</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6626,14 +6626,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 41569-2025</t>
+          <t>A 27438-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45901.60810185185</v>
+        <v>45813.3143287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6688,14 +6688,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 47531-2021</t>
+          <t>A 27432-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44447</v>
+        <v>45813</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6707,8 +6707,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>7.6</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6745,14 +6750,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 24851-2021</t>
+          <t>A 27441-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44340</v>
+        <v>45813.31630787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6807,14 +6812,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41620-2025</t>
+          <t>A 27738-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45901.70319444445</v>
+        <v>45475.45108796296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6828,11 +6833,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6869,14 +6874,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57594-2025</t>
+          <t>A 40407-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45980.96221064815</v>
+        <v>45895.57083333333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6888,8 +6893,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6926,14 +6936,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 58008-2025</t>
+          <t>A 37680-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45982.45744212963</v>
+        <v>44810</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6946,7 +6956,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6983,14 +6993,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 58633-2025</t>
+          <t>A 10740-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45986.48885416667</v>
+        <v>45722.41008101852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7003,7 +7013,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7040,14 +7050,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 58324-2025</t>
+          <t>A 59130-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45985.47690972222</v>
+        <v>45637</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7060,7 +7070,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7097,14 +7107,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 58240-2021</t>
+          <t>A 41569-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44487.88978009259</v>
+        <v>45901.60810185185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7116,8 +7126,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7154,14 +7169,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 58805-2025</t>
+          <t>A 57632-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45986.9652662037</v>
+        <v>44484.39166666667</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7174,7 +7189,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7211,14 +7226,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 30229-2024</t>
+          <t>A 41620-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45490.46946759259</v>
+        <v>45901.70319444445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7236,7 +7251,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7273,14 +7288,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 659-2026</t>
+          <t>A 58373-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46029.58206018519</v>
+        <v>45250.65805555556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7293,7 +7308,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>9.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7330,14 +7345,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21039-2024</t>
+          <t>A 41020-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45439</v>
+        <v>45173.59236111111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7355,7 +7370,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7392,14 +7407,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25465-2024</t>
+          <t>A 25476-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45463.43416666667</v>
+        <v>45463.44922453703</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7417,7 +7432,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7454,14 +7469,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 62596-2023</t>
+          <t>A 23545-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45271</v>
+        <v>45792</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7474,7 +7489,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7511,14 +7526,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 31611-2023</t>
+          <t>A 44356-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45117</v>
+        <v>45188.81979166667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7531,7 +7546,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7568,14 +7583,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 44694-2025</t>
+          <t>A 23355-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45917.59674768519</v>
+        <v>45453</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7593,7 +7608,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>12.1</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7630,14 +7645,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 44692-2025</t>
+          <t>A 13744-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45917.59540509259</v>
+        <v>45007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7651,11 +7666,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7692,14 +7707,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 681-2026</t>
+          <t>A 26302-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46029</v>
+        <v>45805</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7727,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7749,14 +7764,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 683-2026</t>
+          <t>A 8510-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46029</v>
+        <v>44977.56144675926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7784,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7806,14 +7821,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 2220-2026</t>
+          <t>A 44694-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46036.50115740741</v>
+        <v>45917.59674768519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7825,8 +7840,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>12.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7863,14 +7883,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 802-2026</t>
+          <t>A 44692-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46030</v>
+        <v>45917.59540509259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7882,8 +7902,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7920,14 +7945,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41020-2023</t>
+          <t>A 22129-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45173.59236111111</v>
+        <v>45069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7945,7 +7970,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7982,14 +8007,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 692-2026</t>
+          <t>A 25477-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46029</v>
+        <v>45463.45015046297</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8001,8 +8026,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8039,14 +8069,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 64036-2025</t>
+          <t>A 43282-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46021</v>
+        <v>44432.39119212963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8058,8 +8088,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8096,14 +8131,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 688-2026</t>
+          <t>A 31471-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46029</v>
+        <v>45833.56436342592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8151,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8153,14 +8188,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 40393-2025</t>
+          <t>A 47091-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45895.55646990741</v>
+        <v>45929.65052083333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8172,13 +8207,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8215,14 +8245,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61186-2025</t>
+          <t>A 47097-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46000.58625</v>
+        <v>45929.65541666667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8235,7 +8265,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8272,14 +8302,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 47249-2025</t>
+          <t>A 40393-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45930.43439814815</v>
+        <v>45895.55646990741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8291,8 +8321,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8329,14 +8364,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 30007-2024</t>
+          <t>A 47495-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45488.60150462963</v>
+        <v>45587.59559027778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8354,7 +8389,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>11.5</v>
+        <v>5.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8391,14 +8426,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 30009-2024</t>
+          <t>A 47249-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45488.60546296297</v>
+        <v>45930.43439814815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8410,13 +8445,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8453,14 +8483,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 47469-2025</t>
+          <t>A 32299-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45930.67037037037</v>
+        <v>45835</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8472,8 +8502,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>3.5</v>
+        <v>12.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8510,14 +8545,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 341-2026</t>
+          <t>A 40401-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46027</v>
+        <v>45895.56739583334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8529,8 +8564,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>12.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8567,14 +8607,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47091-2025</t>
+          <t>A 30007-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45929.65052083333</v>
+        <v>45488.60150462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8586,8 +8626,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>3.7</v>
+        <v>11.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8624,14 +8669,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 47097-2025</t>
+          <t>A 30009-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45929.65541666667</v>
+        <v>45488.60546296297</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8643,8 +8688,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8681,14 +8731,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 40401-2025</t>
+          <t>A 47469-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45895.56739583334</v>
+        <v>45930.67037037037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8700,13 +8750,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>12.6</v>
+        <v>3.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8743,14 +8788,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 13471-2024</t>
+          <t>A 54578-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45387.57859953704</v>
+        <v>45617.65644675926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8763,7 +8808,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8800,14 +8845,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 58787-2021</t>
+          <t>A 48232-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44489.56234953704</v>
+        <v>45933.53054398148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8819,8 +8864,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8857,14 +8907,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 3997-2026</t>
+          <t>A 49815-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46044.38896990741</v>
+        <v>45597.39709490741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8877,7 +8927,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8914,14 +8964,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 61642-2025</t>
+          <t>A 48242-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46002.43494212963</v>
+        <v>45933.53510416667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8933,8 +8983,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8971,14 +9026,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 3614-2026</t>
+          <t>A 37763-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46042.94263888889</v>
+        <v>45156</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8991,7 +9046,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9028,14 +9083,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 3870-2026</t>
+          <t>A 27959-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46043.64090277778</v>
+        <v>45816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9049,11 +9104,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>45.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9090,14 +9145,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 48232-2025</t>
+          <t>A 48240-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45933.53054398148</v>
+        <v>45933.53292824074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9115,7 +9170,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9152,14 +9207,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 48612-2025</t>
+          <t>A 48241-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45935</v>
+        <v>45933.53391203703</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,11 +9228,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9214,14 +9269,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 48231-2025</t>
+          <t>A 48252-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45933.52594907407</v>
+        <v>45933.55329861111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9233,13 +9288,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9276,14 +9326,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 27959-2025</t>
+          <t>A 35505-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45816</v>
+        <v>45531.53869212963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9297,11 +9347,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>45.6</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9338,14 +9388,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 13745-2023</t>
+          <t>A 35514-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45007</v>
+        <v>45531.56472222223</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9359,11 +9409,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9400,14 +9450,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 48242-2025</t>
+          <t>A 48231-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45933.53510416667</v>
+        <v>45933.52594907407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9425,7 +9475,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9462,14 +9512,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 48609-2025</t>
+          <t>A 48612-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
         <v>45935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9487,7 +9537,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9524,14 +9574,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 6963-2024</t>
+          <t>A 48609-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45343.4562037037</v>
+        <v>45935</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9543,8 +9593,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9581,14 +9636,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 48240-2025</t>
+          <t>A 30229-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45933.53292824074</v>
+        <v>45490.46946759259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9606,7 +9661,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9643,14 +9698,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 3615-2026</t>
+          <t>A 43885-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46042.94633101852</v>
+        <v>45912.69076388889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9662,8 +9717,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9700,14 +9760,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 4101-2026</t>
+          <t>A 43887-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46044.57539351852</v>
+        <v>45912.69278935185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9719,8 +9779,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9757,14 +9822,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 4104-2026</t>
+          <t>A 2612-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46044.58568287037</v>
+        <v>45674</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9777,7 +9842,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9814,14 +9879,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 31645-2024</t>
+          <t>A 45965-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45506.60777777778</v>
+        <v>45924.35655092593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9839,7 +9904,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>11.1</v>
+        <v>5.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9876,14 +9941,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 48241-2025</t>
+          <t>A 23376-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45933.53391203703</v>
+        <v>45453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9901,7 +9966,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>10.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9938,14 +10003,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 48252-2025</t>
+          <t>A 58955-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45933.55329861111</v>
+        <v>45252</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9958,7 +10023,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9995,14 +10060,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 4566-2026</t>
+          <t>A 6963-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46047.87172453704</v>
+        <v>45343.4562037037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10015,7 +10080,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10052,14 +10117,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 4419-2026</t>
+          <t>A 51225-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46045.60791666667</v>
+        <v>45947.65599537037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10071,8 +10136,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10109,14 +10179,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 43887-2025</t>
+          <t>A 35473-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45912.69278935185</v>
+        <v>45855.66804398148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10128,13 +10198,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10171,14 +10236,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 43885-2025</t>
+          <t>A 35475-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45912.69076388889</v>
+        <v>45855.67001157408</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10190,13 +10255,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10233,14 +10293,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 129-2026</t>
+          <t>A 10587-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46024.59600694444</v>
+        <v>44624</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10253,7 +10313,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10290,14 +10350,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 64000-2025</t>
+          <t>A 36180-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46021.39847222222</v>
+        <v>45867.41327546296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10310,7 +10370,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.8</v>
+        <v>11.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10347,14 +10407,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 45965-2025</t>
+          <t>A 31123-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45924.35655092593</v>
+        <v>44368</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10366,13 +10426,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10409,14 +10464,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 4541-2026</t>
+          <t>A 36349-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46046.94703703704</v>
+        <v>45868.48269675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10429,7 +10484,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10466,14 +10521,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 5482-2026</t>
+          <t>A 52693-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46050.60585648148</v>
+        <v>45956.58960648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10486,7 +10541,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10523,14 +10578,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 892-2026</t>
+          <t>A 36763-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46030.45260416667</v>
+        <v>45538.36181712963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10543,7 +10598,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10580,14 +10635,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 5177-2026</t>
+          <t>A 21027-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46049.65239583333</v>
+        <v>45439</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10599,8 +10654,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>6.7</v>
+        <v>1.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10637,14 +10697,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 54149-2023</t>
+          <t>A 21028-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45232.4528125</v>
+        <v>45439</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10656,8 +10716,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10694,14 +10759,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 837-2026</t>
+          <t>A 16371-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46030.3752662037</v>
+        <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10714,7 +10779,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10751,14 +10816,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 5549-2026</t>
+          <t>A 57751-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46050.71560185185</v>
+        <v>45630.82424768519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10771,7 +10836,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10808,14 +10873,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 5249-2026</t>
+          <t>A 37444-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46049.90417824074</v>
+        <v>45877.54305555556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10827,8 +10892,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10865,14 +10935,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 36283-2024</t>
+          <t>A 37988-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45534.58899305556</v>
+        <v>45881.70454861111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10890,7 +10960,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10927,14 +10997,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 51225-2025</t>
+          <t>A 54876-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45947.65599537037</v>
+        <v>45967.31611111111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10946,13 +11016,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10989,14 +11054,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 48063-2024</t>
+          <t>A 54877-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45589.55237268518</v>
+        <v>45967.31960648148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11009,7 +11074,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11046,14 +11111,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 33979-2024</t>
+          <t>A 54874-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45523.51896990741</v>
+        <v>45967.30939814815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11066,7 +11131,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11103,14 +11168,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 16371-2022</t>
+          <t>A 54827-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44671</v>
+        <v>45966.66925925926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11123,7 +11188,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11160,14 +11225,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 5872-2026</t>
+          <t>A 2915-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46052.3731712963</v>
+        <v>45677.96424768519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11180,7 +11245,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11217,14 +11282,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 47359-2024</t>
+          <t>A 55288-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45587.43547453704</v>
+        <v>45969.33444444444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11237,7 +11302,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11274,14 +11339,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 23355-2024</t>
+          <t>A 32980-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45453</v>
+        <v>45125.59980324074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11293,13 +11358,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11336,14 +11396,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 52693-2025</t>
+          <t>A 57400-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45956.58960648148</v>
+        <v>45629.71085648148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11356,7 +11416,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11393,14 +11453,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 7209-2026</t>
+          <t>A 55287-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46058.53673611111</v>
+        <v>45969.30730324074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11412,13 +11472,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11455,14 +11510,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 43730-2023</t>
+          <t>A 62596-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45187</v>
+        <v>45271</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11474,13 +11529,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11517,14 +11567,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 3391-2026</t>
+          <t>A 25474-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46042</v>
+        <v>45463.44631944445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11536,8 +11586,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11574,14 +11629,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 7207-2026</t>
+          <t>A 8448-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46058.53497685185</v>
+        <v>45709</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11593,13 +11648,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11636,14 +11686,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 7210-2026</t>
+          <t>A 47493-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46058.53807870371</v>
+        <v>45587.59410879629</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11661,7 +11711,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11698,14 +11748,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 2546-2026</t>
+          <t>A 57596-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46037.46833333333</v>
+        <v>45980.9716087963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11718,7 +11768,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11755,14 +11805,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 6929-2023</t>
+          <t>A 57593-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44967</v>
+        <v>45980.96055555555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11775,7 +11825,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11812,14 +11862,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 8510-2023</t>
+          <t>A 57595-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44977.56144675926</v>
+        <v>45980.97019675926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11832,7 +11882,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11869,14 +11919,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 27738-2024</t>
+          <t>A 10161-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45475.45108796296</v>
+        <v>44986</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11890,11 +11940,11 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11931,14 +11981,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 54827-2025</t>
+          <t>A 57594-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45966.66925925926</v>
+        <v>45980.96221064815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11951,7 +12001,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11988,14 +12038,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 31607-2023</t>
+          <t>A 58324-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45117</v>
+        <v>45985.47690972222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12008,7 +12058,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12045,14 +12095,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 13744-2023</t>
+          <t>A 58008-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45007</v>
+        <v>45982.45744212963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12062,11 +12112,6 @@
       <c r="E176" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -12107,14 +12152,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 54874-2025</t>
+          <t>A 659-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45967.30939814815</v>
+        <v>46029.58206018519</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12127,7 +12172,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12164,14 +12209,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 11607-2023</t>
+          <t>A 58633-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44994</v>
+        <v>45986.48885416667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12183,13 +12228,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12226,14 +12266,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 54876-2025</t>
+          <t>A 58805-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45967.31611111111</v>
+        <v>45986.9652662037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12246,7 +12286,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12283,14 +12323,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 54877-2025</t>
+          <t>A 34232-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45967.31960648148</v>
+        <v>45127</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12302,8 +12342,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12340,14 +12385,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 24988-2023</t>
+          <t>A 681-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45085.64087962963</v>
+        <v>46029</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12359,13 +12404,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12402,14 +12442,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 55287-2025</t>
+          <t>A 683-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45969.30730324074</v>
+        <v>46029</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12422,7 +12462,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12459,14 +12499,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 55288-2025</t>
+          <t>A 802-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45969.33444444444</v>
+        <v>46030</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12479,7 +12519,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12516,14 +12556,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 47524-2024</t>
+          <t>A 2220-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45587.63166666667</v>
+        <v>46036.50115740741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12536,7 +12576,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12573,14 +12613,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 35114-2023</t>
+          <t>A 64036-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45145</v>
+        <v>46021</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12593,7 +12633,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12630,14 +12670,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 35136-2023</t>
+          <t>A 688-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45145.52915509259</v>
+        <v>46029</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12650,7 +12690,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12687,14 +12727,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 11953-2025</t>
+          <t>A 22226-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45728.56366898148</v>
+        <v>45446.4203587963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12706,13 +12746,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>34.8</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12749,14 +12784,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 37743-2022</t>
+          <t>A 37693-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44810.58275462963</v>
+        <v>45159.57056712963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12769,7 +12804,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12806,14 +12841,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 51337-2023</t>
+          <t>A 341-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45219.59144675926</v>
+        <v>46027</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12826,7 +12861,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12863,14 +12898,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 36278-2024</t>
+          <t>A 692-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45534.58508101852</v>
+        <v>46029</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12882,13 +12917,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>8.699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12925,14 +12955,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 17185-2025</t>
+          <t>A 3614-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45755</v>
+        <v>46042.94263888889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12944,13 +12974,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>10.3</v>
+        <v>2.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12987,14 +13012,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 37693-2023</t>
+          <t>A 61186-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45159.57056712963</v>
+        <v>46000.58625</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13007,7 +13032,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13044,14 +13069,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 37763-2023</t>
+          <t>A 3870-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45156</v>
+        <v>46043.64090277778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13063,8 +13088,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13101,14 +13131,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 37680-2022</t>
+          <t>A 3615-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44810</v>
+        <v>46042.94633101852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13121,7 +13151,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>6.6</v>
+        <v>2.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13158,14 +13188,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 49815-2024</t>
+          <t>A 4419-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45597.39709490741</v>
+        <v>46045.60791666667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13208,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13215,14 +13245,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 54578-2024</t>
+          <t>A 64000-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45617.65644675926</v>
+        <v>46021.39847222222</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13235,7 +13265,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13272,14 +13302,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 18347-2025</t>
+          <t>A 129-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45762.52913194444</v>
+        <v>46024.59600694444</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13292,7 +13322,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13329,14 +13359,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 10184-2022</t>
+          <t>A 3997-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44622</v>
+        <v>46044.38896990741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13349,7 +13379,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13386,14 +13416,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 10587-2022</t>
+          <t>A 61642-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44624</v>
+        <v>46002.43494212963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13406,7 +13436,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13443,14 +13473,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 59130-2024</t>
+          <t>A 4104-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45637</v>
+        <v>46044.58568287037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13463,7 +13493,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13500,14 +13530,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 35498-2024</t>
+          <t>A 4101-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45531.51796296296</v>
+        <v>46044.57539351852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13519,13 +13549,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13562,14 +13587,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 8448-2025</t>
+          <t>A 48063-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45709</v>
+        <v>45589.55237268518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13582,7 +13607,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13619,14 +13644,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 17762-2022</t>
+          <t>A 4541-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44680</v>
+        <v>46046.94703703704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13664,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13676,14 +13701,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 33296-2023</t>
+          <t>A 17762-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45127.69603009259</v>
+        <v>44680</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13695,13 +13720,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13738,14 +13758,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 58369-2023</t>
+          <t>A 5177-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45250</v>
+        <v>46049.65239583333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13758,7 +13778,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.1</v>
+        <v>6.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13795,14 +13815,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 25477-2024</t>
+          <t>A 4566-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45463.45015046297</v>
+        <v>46047.87172453704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13814,13 +13834,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13857,14 +13872,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 43726-2023</t>
+          <t>A 51277-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45187</v>
+        <v>44868.7127662037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13876,13 +13891,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13919,14 +13929,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 17179-2025</t>
+          <t>A 5482-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45755</v>
+        <v>46050.60585648148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13938,13 +13948,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13981,14 +13986,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 58955-2023</t>
+          <t>A 5549-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45252</v>
+        <v>46050.71560185185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14001,7 +14006,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14038,14 +14043,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 64359-2023</t>
+          <t>A 5249-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45280</v>
+        <v>46049.90417824074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14058,7 +14063,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14095,14 +14100,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 58373-2023</t>
+          <t>A 892-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45250.65805555556</v>
+        <v>46030.45260416667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14115,7 +14120,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14152,14 +14157,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 38251-2022</t>
+          <t>A 837-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44812.4874537037</v>
+        <v>46030.3752662037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14172,7 +14177,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14209,14 +14214,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 43282-2021</t>
+          <t>A 13745-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44432.39119212963</v>
+        <v>45007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14230,11 +14235,11 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14271,14 +14276,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 68079-2021</t>
+          <t>A 5872-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44526.31943287037</v>
+        <v>46052.3731712963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14291,7 +14296,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14328,14 +14333,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 54826-2021</t>
+          <t>A 14119-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44473</v>
+        <v>45740.4659837963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14349,11 +14354,11 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14390,14 +14395,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 1149-2024</t>
+          <t>A 2546-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45302.49834490741</v>
+        <v>46037.46833333333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14410,7 +14415,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14447,14 +14452,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 44356-2023</t>
+          <t>A 25465-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45188.81979166667</v>
+        <v>45463.43416666667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14466,8 +14471,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14504,14 +14514,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 47495-2024</t>
+          <t>A 7209-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45587.59559027778</v>
+        <v>46058.53673611111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14529,7 +14539,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14566,14 +14576,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 10602-2022</t>
+          <t>A 3391-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44624</v>
+        <v>46042</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14586,7 +14596,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14623,14 +14633,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 33495-2023</t>
+          <t>A 7210-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45118</v>
+        <v>46058.53807870371</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14644,11 +14654,11 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14685,14 +14695,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 31613-2023</t>
+          <t>A 7207-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45117</v>
+        <v>46058.53497685185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14704,8 +14714,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14742,14 +14757,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 6958-2024</t>
+          <t>A 35114-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45343</v>
+        <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14762,7 +14777,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14799,14 +14814,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 57632-2021</t>
+          <t>A 35136-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44484.39166666667</v>
+        <v>45145.52915509259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14819,7 +14834,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14856,14 +14871,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 33734-2024</t>
+          <t>A 38251-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45520</v>
+        <v>44812.4874537037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14873,11 +14888,6 @@
       <c r="E224" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G224" t="n">
@@ -14918,14 +14928,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 51277-2022</t>
+          <t>A 31607-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44868.7127662037</v>
+        <v>45117</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14938,7 +14948,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14975,14 +14985,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 47493-2024</t>
+          <t>A 31611-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45587.59410879629</v>
+        <v>45117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14994,13 +15004,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15037,14 +15042,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 34232-2023</t>
+          <t>A 36278-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45127</v>
+        <v>45534.58508101852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15058,11 +15063,11 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15099,14 +15104,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 25474-2024</t>
+          <t>A 33495-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45463.44631944445</v>
+        <v>45118</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15120,11 +15125,11 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15161,14 +15166,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 21027-2024</t>
+          <t>A 43143-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45439</v>
+        <v>45567.62359953704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15180,13 +15185,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15223,14 +15223,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 21028-2024</t>
+          <t>A 47359-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45439</v>
+        <v>45587.43547453704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15242,13 +15242,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15285,14 +15280,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 2612-2025</t>
+          <t>A 31645-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45674</v>
+        <v>45506.60777777778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15304,8 +15299,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>3.8</v>
+        <v>11.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15342,14 +15342,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 32980-2023</t>
+          <t>A 64359-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45125.59980324074</v>
+        <v>45280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15399,14 +15399,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 33710-2024</t>
+          <t>A 58787-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45520</v>
+        <v>44489.56234953704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15418,13 +15418,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15461,14 +15456,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 43143-2024</t>
+          <t>A 24988-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45567.62359953704</v>
+        <v>45085.64087962963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15480,8 +15475,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15518,14 +15518,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 31123-2021</t>
+          <t>A 13473-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44368</v>
+        <v>45387.5827662037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15575,14 +15575,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 57751-2024</t>
+          <t>A 28133-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45630.82424768519</v>
+        <v>45476.69053240741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15632,14 +15632,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 35504-2024</t>
+          <t>A 12057-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45531.53686342593</v>
+        <v>44266</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15651,13 +15651,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15694,14 +15689,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 32827-2024</t>
+          <t>A 37744-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45516.59273148148</v>
+        <v>44810.58422453704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15713,13 +15708,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>8.5</v>
+        <v>1.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15756,14 +15746,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 2915-2025</t>
+          <t>A 10184-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45677.96424768519</v>
+        <v>44622</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15776,7 +15766,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15813,14 +15803,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 4032-2025</t>
+          <t>A 10602-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45684</v>
+        <v>44624</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15833,7 +15823,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15870,14 +15860,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 57400-2024</t>
+          <t>A 47531-2021</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45629.71085648148</v>
+        <v>44447</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15890,7 +15880,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.7</v>
+        <v>7.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15927,14 +15917,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 28391-2024</t>
+          <t>A 33734-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45477.60254629629</v>
+        <v>45520</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15952,7 +15942,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15989,14 +15979,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 20972-2025</t>
+          <t>A 11607-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45777.45725694444</v>
+        <v>44994</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16010,11 +16000,11 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16051,14 +16041,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 21340-2025</t>
+          <t>A 43726-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45782.38909722222</v>
+        <v>45187</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16070,8 +16060,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16108,14 +16103,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 1144-2024</t>
+          <t>A 35504-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45302.49138888889</v>
+        <v>45531.53686342593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16127,8 +16122,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16165,14 +16165,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 5554-2024</t>
+          <t>A 68079-2021</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45334</v>
+        <v>44526.31943287037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16222,14 +16222,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 22844-2025</t>
+          <t>A 6958-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45790.32160879629</v>
+        <v>45343</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16279,14 +16279,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 23666-2025</t>
+          <t>A 54826-2021</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45792.84364583333</v>
+        <v>44473</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16298,8 +16298,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16336,14 +16341,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 53517-2024</t>
+          <t>A 33710-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45614.60436342593</v>
+        <v>45520</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16355,8 +16360,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16393,14 +16403,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 59615-2023</t>
+          <t>A 17185-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45254</v>
+        <v>45755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16414,11 +16424,11 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>3.4</v>
+        <v>10.3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16455,14 +16465,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 24395-2025</t>
+          <t>A 47639-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45797.63881944444</v>
+        <v>44448.3966087963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16475,7 +16485,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16512,14 +16522,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 33981-2024</t>
+          <t>A 32827-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45523.52111111111</v>
+        <v>45516.59273148148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16531,8 +16541,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16569,14 +16584,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 26753-2025</t>
+          <t>A 1149-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45810.55490740741</v>
+        <v>45302.49834490741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16589,7 +16604,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16626,14 +16641,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 27438-2025</t>
+          <t>A 18347-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45813.3143287037</v>
+        <v>45762.52913194444</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16645,13 +16660,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16688,14 +16698,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 27432-2025</t>
+          <t>A 31613-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45813</v>
+        <v>45117</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16707,13 +16717,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16750,14 +16755,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 27441-2025</t>
+          <t>A 21039-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45813.31630787037</v>
+        <v>45439</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16775,7 +16780,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16812,14 +16817,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 27431-2025</t>
+          <t>A 36283-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45813</v>
+        <v>45534.58899305556</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16837,7 +16842,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>3.4</v>
+        <v>6.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16874,14 +16879,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 27436-2025</t>
+          <t>A 20972-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45813</v>
+        <v>45777.45725694444</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16899,7 +16904,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16936,14 +16941,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 23545-2025</t>
+          <t>A 1144-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45792</v>
+        <v>45302.49138888889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16956,7 +16961,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16993,14 +16998,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 26302-2025</t>
+          <t>A 21340-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45805</v>
+        <v>45782.38909722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17013,7 +17018,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -17050,14 +17055,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 31471-2025</t>
+          <t>A 5554-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45833.56436342592</v>
+        <v>45334</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17070,7 +17075,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17107,14 +17112,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 32299-2025</t>
+          <t>A 22844-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45835</v>
+        <v>45790.32160879629</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17126,13 +17131,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>12.8</v>
+        <v>3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17169,14 +17169,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 35475-2025</t>
+          <t>A 23666-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45855.67001157408</v>
+        <v>45792.84364583333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17226,14 +17226,14 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 35473-2025</t>
+          <t>A 24395-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45855.66804398148</v>
+        <v>45797.63881944444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45784</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44512</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45299</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44623</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>44816</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45860.53805555555</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>45929</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45860</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>44511</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44559.54373842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>45477.60362268519</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45813</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44928.66260416667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45477.60549768519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45901.70506944445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45901.6075462963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>45488.6040162037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>45936.63020833334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>45912.68892361111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>45936.62197916667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>45348</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>45860.54238425926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>45870.54482638889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>45874.7066550926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>45874.70511574074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45924</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>46025.54315972222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>46029</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45202.83313657407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>45127</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>45531.57493055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44323</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45439.6528125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44770</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44868.61302083333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44314</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44582.37412037037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44501.57883101852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44447.66321759259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44504.60092592592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44512</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44456</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44295.6012962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44873</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44868.60868055555</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>44692</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>45755</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>45531.51796296296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44340</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44967</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45523.51896990741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45523.51716435186</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45523.52378472222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45250</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45684</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45477.60254629629</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45127.69603009259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45219.59144675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44810.58275462963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>45232.4528125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>45376.30138888889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>45523.52111111111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>45254</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>45614.60436342593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>44487.88978009259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45887.37974537037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45887.37405092592</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45187</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>45884.34282407408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>45887.37774305556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>45587.63166666667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>45387.57859953704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45810.55490740741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45728.56366898148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>45813</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>45813</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>45813.3143287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>45813</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>45813.31630787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>45475.45108796296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>45895.57083333333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>44810</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>45722.41008101852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>45637</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>45901.60810185185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>44484.39166666667</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>45901.70319444445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>45250.65805555556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>45173.59236111111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>45463.44922453703</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45792</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45188.81979166667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45453</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>45007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45805</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44977.56144675926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45917.59674768519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>45917.59540509259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>45069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>45463.45015046297</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>44432.39119212963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>45833.56436342592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>45929.65052083333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45929.65541666667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45895.55646990741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>45587.59559027778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         <v>45930.43439814815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45835</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>45895.56739583334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>45488.60150462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>45488.60546296297</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45930.67037037037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45617.65644675926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45933.53054398148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45597.39709490741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45933.53510416667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45156</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>45933.53292824074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>45933.53391203703</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45933.55329861111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>45531.53869212963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>45531.56472222223</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>45933.52594907407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>45935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45935</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>45490.46946759259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>45912.69076388889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>45912.69278935185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>45674</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>45924.35655092593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>45453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>45252</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>45343.4562037037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>45947.65599537037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>45855.66804398148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>45855.67001157408</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44624</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>45867.41327546296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44368</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>45868.48269675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>45956.58960648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>45538.36181712963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>45439</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>45439</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>45630.82424768519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45877.54305555556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>45881.70454861111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>45967.31611111111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>45967.31960648148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>45967.30939814815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>45966.66925925926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>45677.96424768519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>45969.33444444444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>45125.59980324074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>45629.71085648148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>45969.30730324074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>45271</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>45463.44631944445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>45709</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>45587.59410879629</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>45980.9716087963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45980.96055555555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>45980.97019675926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44986</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45980.96221064815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45985.47690972222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45982.45744212963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>46029.58206018519</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45986.48885416667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45986.9652662037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45127</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>46029</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>46029</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>46030</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>46036.50115740741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>46021</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>46029</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>45446.4203587963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>45159.57056712963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>46027</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>46029</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>46042.94263888889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>46000.58625</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>46043.64090277778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>46042.94633101852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>46045.60791666667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>46021.39847222222</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>46024.59600694444</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>46044.38896990741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>46002.43494212963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>46044.58568287037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>46044.57539351852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>45589.55237268518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>46046.94703703704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44680</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>46049.65239583333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>46047.87172453704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44868.7127662037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>46050.60585648148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>46050.71560185185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>46049.90417824074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>46030.45260416667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>46030.3752662037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>45007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>46052.3731712963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>45740.4659837963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>46037.46833333333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45463.43416666667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>46058.53673611111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>46042</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>46058.53807870371</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>46058.53497685185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>45145.52915509259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44812.4874537037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>45117</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>45117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>45534.58508101852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>45118</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45567.62359953704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45587.43547453704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45506.60777777778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>45280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44489.56234953704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>45085.64087962963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45387.5827662037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>45476.69053240741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>44266</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>44810.58422453704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44622</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44624</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44447</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45520</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44994</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>45187</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16110,7 +16110,7 @@
         <v>45531.53686342593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44526.31943287037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>45343</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44473</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>45520</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>45755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44448.3966087963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>45516.59273148148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45302.49834490741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45762.52913194444</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45117</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45439</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>45534.58899305556</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>45777.45725694444</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>45302.49138888889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>45782.38909722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>45334</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>45790.32160879629</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>45792.84364583333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>45797.63881944444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45784</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44512</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45299</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44623</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>44816</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45860.53805555555</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>45929</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45860</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>44511</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44559.54373842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>45477.60362268519</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45813</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44928.66260416667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45477.60549768519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45901.70506944445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45901.6075462963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>45488.6040162037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>45936.63020833334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>45912.68892361111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>45936.62197916667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>45348</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>45860.54238425926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>45870.54482638889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>45874.7066550926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>45874.70511574074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45924</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>46025.54315972222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>46029</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45202.83313657407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>45127</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>45531.57493055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44323</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45439.6528125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45586</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44770</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44868.61302083333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44314</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44582.37412037037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44501.57883101852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44447.66321759259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44504.60092592592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44512</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44456</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44295.6012962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44873</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44868.60868055555</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>44692</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>45755</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>45531.51796296296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44340</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44967</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45523.51896990741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45523.51716435186</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45523.52378472222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45250</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45684</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45477.60254629629</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45127.69603009259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45219.59144675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44810.58275462963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>45232.4528125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>45376.30138888889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>45523.52111111111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>45254</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>45614.60436342593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>44487.88978009259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45887.37974537037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45887.37405092592</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45187</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>45884.34282407408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>45887.37774305556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>45587.63166666667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>45387.57859953704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45810.55490740741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45728.56366898148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>45813</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>45813</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>45813.3143287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>45813</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>45813.31630787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>45475.45108796296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>45895.57083333333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>44810</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>45722.41008101852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>45637</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>45901.60810185185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>44484.39166666667</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>45901.70319444445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>45250.65805555556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>45173.59236111111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>45463.44922453703</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45792</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45188.81979166667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45453</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>45007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45805</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44977.56144675926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45917.59674768519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>45917.59540509259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>45069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>45463.45015046297</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>44432.39119212963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>45833.56436342592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>45929.65052083333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45929.65541666667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45895.55646990741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>45587.59559027778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         <v>45930.43439814815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45835</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>45895.56739583334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>45488.60150462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>45488.60546296297</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45930.67037037037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45617.65644675926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45933.53054398148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45597.39709490741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45933.53510416667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45156</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45816</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>45933.53292824074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>45933.53391203703</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45933.55329861111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>45531.53869212963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>45531.56472222223</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>45933.52594907407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>45935</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45935</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>45490.46946759259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>45912.69076388889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>45912.69278935185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>45674</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>45924.35655092593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>45453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>45252</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>45343.4562037037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>45947.65599537037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>45855.66804398148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>45855.67001157408</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44624</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>45867.41327546296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44368</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>45868.48269675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>45956.58960648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>45538.36181712963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>45439</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>45439</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>45630.82424768519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45877.54305555556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>45881.70454861111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>45967.31611111111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>45967.31960648148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>45967.30939814815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>45966.66925925926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>45677.96424768519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>45969.33444444444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>45125.59980324074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>45629.71085648148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>45969.30730324074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>45271</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>45463.44631944445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>45709</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>45587.59410879629</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>45980.9716087963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45980.96055555555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>45980.97019675926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44986</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45980.96221064815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45985.47690972222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45982.45744212963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>46029.58206018519</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45986.48885416667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45986.9652662037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45127</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>46029</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>46029</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>46030</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>46036.50115740741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>46021</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>46029</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>45446.4203587963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>45159.57056712963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>46027</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>46029</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>46042.94263888889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>46000.58625</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>46043.64090277778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>46042.94633101852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>46045.60791666667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>46021.39847222222</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>46024.59600694444</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>46044.38896990741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>46002.43494212963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>46044.58568287037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>46044.57539351852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>45589.55237268518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>46046.94703703704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44680</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>46049.65239583333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>46047.87172453704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44868.7127662037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>46050.60585648148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>46050.71560185185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>46049.90417824074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>46030.45260416667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>46030.3752662037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>45007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>46052.3731712963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>45740.4659837963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>46037.46833333333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45463.43416666667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>46058.53673611111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>46042</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>46058.53807870371</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>46058.53497685185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>45145</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>45145.52915509259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44812.4874537037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>45117</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>45117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>45534.58508101852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>45118</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45567.62359953704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45587.43547453704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45506.60777777778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>45280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44489.56234953704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>45085.64087962963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45387.5827662037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>45476.69053240741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>44266</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>44810.58422453704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44622</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44624</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44447</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45520</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44994</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>45187</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16110,7 +16110,7 @@
         <v>45531.53686342593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44526.31943287037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>45343</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44473</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>45520</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>45755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44448.3966087963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>45516.59273148148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45302.49834490741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45762.52913194444</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45117</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45439</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>45534.58899305556</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>45777.45725694444</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>45302.49138888889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>45782.38909722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>45334</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>45790.32160879629</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>45792.84364583333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>45797.63881944444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z264"/>
+  <dimension ref="A1:Z266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45784</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44512</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45299</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44623</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>44816</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45860.53805555555</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>45929</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45860</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>44511</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44559.54373842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,14 +1692,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 54828-2021</t>
+          <t>A 33298-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44473</v>
+        <v>45127</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,23 +1713,23 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1741,59 +1741,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 54828-2021 artfynd.xlsx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 33298-2023 artfynd.xlsx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 54828-2021 karta.png", "A 54828-2021")</f>
-        <v/>
-      </c>
-      <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 54828-2021 karta knärot.png", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 33298-2023 karta.png", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 54828-2021 FSC-klagomål.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 33298-2023 FSC-klagomål.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 54828-2021 FSC-klagomål mail.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 33298-2023 FSC-klagomål mail.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 54828-2021 tillsynsbegäran.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 33298-2023 tillsynsbegäran.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 54828-2021 tillsynsbegäran mail.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 33298-2023 tillsynsbegäran mail.docx", "A 33298-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28392-2024</t>
+          <t>A 30008-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45477.60362268519</v>
+        <v>45488.6040162037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,13 +1807,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1845,45 +1841,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28392-2024 artfynd.xlsx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28392-2024 karta.png", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28392-2024 FSC-klagomål.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28392-2024 FSC-klagomål mail.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28392-2024 tillsynsbegäran.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28392-2024 tillsynsbegäran mail.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 27434-2025</t>
+          <t>A 46058-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45813</v>
+        <v>45924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1897,17 +1893,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1935,45 +1931,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 27434-2025 artfynd.xlsx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 27434-2025 karta.png", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 27434-2025 FSC-klagomål.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 27434-2025 FSC-klagomål mail.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 27434-2025 tillsynsbegäran.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 27434-2025 tillsynsbegäran mail.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 234-2023</t>
+          <t>A 23354-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44928.66260416667</v>
+        <v>45453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1987,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -2003,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2015,59 +2011,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
-        <v/>
-      </c>
-      <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 28397-2024</t>
+          <t>A 47219-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45477.60549768519</v>
+        <v>45586</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2085,17 +2077,17 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2109,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2119,31 +2111,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47219-2024 artfynd.xlsx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47219-2024 karta.png", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47219-2024 FSC-klagomål.docx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47219-2024 FSC-klagomål mail.docx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47219-2024 tillsynsbegäran.docx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47219-2024 tillsynsbegäran mail.docx", "A 47219-2024")</f>
         <v/>
       </c>
     </row>
@@ -2157,7 +2149,7 @@
         <v>45901.70506944445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2247,7 +2239,7 @@
         <v>45901.6075462963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,14 +2322,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 23354-2024</t>
+          <t>A 7543-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45453</v>
+        <v>45348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,19 +2341,14 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2389,45 +2376,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 7543-2024 artfynd.xlsx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 7543-2024 karta.png", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 7543-2024 FSC-klagomål.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 7543-2024 FSC-klagomål mail.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 7543-2024 tillsynsbegäran.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 7543-2024 tillsynsbegäran mail.docx", "A 7543-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 30008-2024</t>
+          <t>A 35743-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45488.6040162037</v>
+        <v>45860.54238425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,13 +2432,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2479,45 +2466,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35743-2025 artfynd.xlsx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35743-2025 karta.png", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35743-2025 FSC-klagomål.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35743-2025 FSC-klagomål mail.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35743-2025 tillsynsbegäran.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35743-2025 tillsynsbegäran mail.docx", "A 35743-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 48709-2025</t>
+          <t>A 36606-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45936.63020833334</v>
+        <v>45870.54482638889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2529,20 +2516,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>13.3</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2557,56 +2549,52 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunklöver</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 36606-2025 artfynd.xlsx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
-        <v/>
-      </c>
-      <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 36606-2025 karta.png", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 36606-2025 FSC-klagomål.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 36606-2025 FSC-klagomål mail.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 36606-2025 tillsynsbegäran.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 36606-2025 tillsynsbegäran mail.docx", "A 36606-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 43883-2025</t>
+          <t>A 37011-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45912.68892361111</v>
+        <v>45874.70511574074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2612,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2636,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2648,59 +2636,59 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
+        <v/>
+      </c>
+      <c r="U24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 48702-2025</t>
+          <t>A 37012-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45936.62197916667</v>
+        <v>45874.7066550926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2712,20 +2700,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2740,56 +2733,52 @@
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
-        <v/>
-      </c>
-      <c r="U25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 7543-2024</t>
+          <t>A 28397-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45348</v>
+        <v>45477.60549768519</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2801,14 +2790,19 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2836,45 +2830,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 7543-2024 artfynd.xlsx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 7543-2024 karta.png", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 7543-2024 FSC-klagomål.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 7543-2024 FSC-klagomål mail.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 7543-2024 tillsynsbegäran.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 7543-2024 tillsynsbegäran mail.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 35743-2025</t>
+          <t>A 48709-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45860.54238425926</v>
+        <v>45936.63020833334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2886,13 +2880,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2904,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2916,55 +2905,59 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35743-2025 artfynd.xlsx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35743-2025 karta.png", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
+        <v/>
+      </c>
+      <c r="U27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35743-2025 FSC-klagomål.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35743-2025 FSC-klagomål mail.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35743-2025 tillsynsbegäran.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35743-2025 tillsynsbegäran mail.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 36606-2025</t>
+          <t>A 43883-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45870.54482638889</v>
+        <v>45912.68892361111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2982,16 +2975,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>13.3</v>
+        <v>6.2</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -3006,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3016,45 +3009,49 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Brunklöver</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 36606-2025 artfynd.xlsx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 36606-2025 karta.png", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 36606-2025 FSC-klagomål.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 36606-2025 FSC-klagomål mail.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 36606-2025 tillsynsbegäran.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 36606-2025 tillsynsbegäran mail.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37012-2025</t>
+          <t>A 48702-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45874.7066550926</v>
+        <v>45936.62197916667</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3066,25 +3063,20 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3099,52 +3091,56 @@
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
+        <v/>
+      </c>
+      <c r="U29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 37011-2025</t>
+          <t>A 186-2026</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45874.70511574074</v>
+        <v>46025.54315972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,13 +3152,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>6.7</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -3200,45 +3191,45 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 186-2026 artfynd.xlsx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 186-2026 karta.png", "A 186-2026")</f>
         <v/>
       </c>
       <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 186-2026 karta knärot.png", "A 186-2026")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 186-2026 FSC-klagomål.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 186-2026 FSC-klagomål mail.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 186-2026 tillsynsbegäran.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 186-2026 tillsynsbegäran mail.docx", "A 186-2026")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 46058-2025</t>
+          <t>A 35521-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45924</v>
+        <v>45531.57493055556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3252,17 +3243,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3290,45 +3281,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35521-2024 artfynd.xlsx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35521-2024 karta.png", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35521-2024 FSC-klagomål.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35521-2024 FSC-klagomål mail.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35521-2024 tillsynsbegäran.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35521-2024 tillsynsbegäran mail.docx", "A 35521-2024")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 186-2026</t>
+          <t>A 687-2026</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46025.54315972222</v>
+        <v>46029</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3341,19 +3332,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3368,56 +3359,52 @@
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunklöver</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 186-2026 artfynd.xlsx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 687-2026 artfynd.xlsx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 186-2026 karta.png", "A 186-2026")</f>
-        <v/>
-      </c>
-      <c r="U32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 186-2026 karta knärot.png", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 687-2026 karta.png", "A 687-2026")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 186-2026 FSC-klagomål.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 687-2026 FSC-klagomål.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 186-2026 FSC-klagomål mail.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 687-2026 FSC-klagomål mail.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 186-2026 tillsynsbegäran.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 687-2026 tillsynsbegäran.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 186-2026 tillsynsbegäran mail.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 687-2026 tillsynsbegäran mail.docx", "A 687-2026")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 687-2026</t>
+          <t>A 28392-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46029</v>
+        <v>45477.60362268519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3429,17 +3416,22 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>6.8</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3454,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3464,31 +3456,31 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Brunklöver</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 687-2026 artfynd.xlsx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28392-2024 artfynd.xlsx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 687-2026 karta.png", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28392-2024 karta.png", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 687-2026 FSC-klagomål.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28392-2024 FSC-klagomål.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 687-2026 FSC-klagomål mail.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28392-2024 FSC-klagomål mail.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 687-2026 tillsynsbegäran.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28392-2024 tillsynsbegäran.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 687-2026 tillsynsbegäran mail.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28392-2024 tillsynsbegäran mail.docx", "A 28392-2024")</f>
         <v/>
       </c>
     </row>
@@ -3502,7 +3494,7 @@
         <v>45202.83313657407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3580,14 +3572,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 33298-2023</t>
+          <t>A 22096-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45127</v>
+        <v>44323</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,20 +3597,20 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
@@ -3629,55 +3621,59 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 33298-2023 artfynd.xlsx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 22096-2021 artfynd.xlsx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 33298-2023 karta.png", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 22096-2021 karta.png", "A 22096-2021")</f>
+        <v/>
+      </c>
+      <c r="U35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 22096-2021 karta knärot.png", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 33298-2023 FSC-klagomål.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 22096-2021 FSC-klagomål.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 33298-2023 FSC-klagomål mail.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 22096-2021 FSC-klagomål mail.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 33298-2023 tillsynsbegäran.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 22096-2021 tillsynsbegäran.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 33298-2023 tillsynsbegäran mail.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 22096-2021 tillsynsbegäran mail.docx", "A 22096-2021")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 35521-2024</t>
+          <t>A 54828-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45531.57493055556</v>
+        <v>44473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3691,11 +3687,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3707,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3719,55 +3715,59 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35521-2024 artfynd.xlsx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 54828-2021 artfynd.xlsx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35521-2024 karta.png", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 54828-2021 karta.png", "A 54828-2021")</f>
+        <v/>
+      </c>
+      <c r="U36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 54828-2021 karta knärot.png", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35521-2024 FSC-klagomål.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 54828-2021 FSC-klagomål.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35521-2024 FSC-klagomål mail.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 54828-2021 FSC-klagomål mail.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35521-2024 tillsynsbegäran.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 54828-2021 tillsynsbegäran.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35521-2024 tillsynsbegäran mail.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 54828-2021 tillsynsbegäran mail.docx", "A 54828-2021")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 22096-2021</t>
+          <t>A 234-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44323</v>
+        <v>44928.66260416667</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3823,31 +3823,31 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 22096-2021 artfynd.xlsx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 22096-2021 karta.png", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
         <v/>
       </c>
       <c r="U37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 22096-2021 karta knärot.png", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 22096-2021 FSC-klagomål.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 22096-2021 FSC-klagomål mail.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 22096-2021 tillsynsbegäran.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 22096-2021 tillsynsbegäran mail.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
         <v/>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
         <v>45439.6528125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3948,14 +3948,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 47219-2024</t>
+          <t>A 27434-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45586</v>
+        <v>45813</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,16 +3973,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>8.300000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -4007,45 +4007,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47219-2024 artfynd.xlsx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 27434-2025 artfynd.xlsx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47219-2024 karta.png", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 27434-2025 karta.png", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47219-2024 FSC-klagomål.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 27434-2025 FSC-klagomål.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47219-2024 FSC-klagomål mail.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 27434-2025 FSC-klagomål mail.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47219-2024 tillsynsbegäran.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 27434-2025 tillsynsbegäran.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47219-2024 tillsynsbegäran mail.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 27434-2025 tillsynsbegäran mail.docx", "A 27434-2025")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31205-2022</t>
+          <t>A 51205-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44770</v>
+        <v>44868.61302083333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4100,14 +4100,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 51205-2022</t>
+          <t>A 31205-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44868.61302083333</v>
+        <v>44770</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4169,7 +4169,7 @@
         <v>44314</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44582.37412037037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44501.57883101852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44447.66321759259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44504.60092592592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44512</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44456</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44295.6012962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44873</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44868.60868055555</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>44692</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4851,14 +4851,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 17179-2025</t>
+          <t>A 13473-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45755</v>
+        <v>45387.5827662037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4870,13 +4870,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4913,14 +4908,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 35498-2024</t>
+          <t>A 22129-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45531.51796296296</v>
+        <v>45069</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4933,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4975,14 +4970,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 24851-2021</t>
+          <t>A 35505-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44340</v>
+        <v>45531.53869212963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5000,7 +4995,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5037,14 +5032,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6929-2023</t>
+          <t>A 35514-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44967</v>
+        <v>45531.56472222223</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5056,8 +5051,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 33979-2024</t>
+          <t>A 22226-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45523.51896990741</v>
+        <v>45446.4203587963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 33978-2024</t>
+          <t>A 37744-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45523.51716435186</v>
+        <v>44810.58422453704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 33984-2024</t>
+          <t>A 23376-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45523.52378472222</v>
+        <v>45453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5227,8 +5227,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>10.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5265,14 +5270,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 58369-2023</t>
+          <t>A 47531-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45250</v>
+        <v>44447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5285,7 +5290,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>7.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5322,14 +5327,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 4032-2025</t>
+          <t>A 24851-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45684</v>
+        <v>44340</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5341,8 +5346,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5379,14 +5389,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28391-2024</t>
+          <t>A 30229-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45477.60254629629</v>
+        <v>45490.46946759259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5404,7 +5414,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5441,14 +5451,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 33296-2023</t>
+          <t>A 58240-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45127.69603009259</v>
+        <v>44487.88978009259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5460,13 +5470,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5503,14 +5508,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 51337-2023</t>
+          <t>A 21039-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45219.59144675926</v>
+        <v>45439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,8 +5527,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5560,14 +5570,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 37743-2022</t>
+          <t>A 25465-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44810.58275462963</v>
+        <v>45463.43416666667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5577,6 +5587,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -5617,14 +5632,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 54149-2023</t>
+          <t>A 62596-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45232.4528125</v>
+        <v>45271</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5637,7 +5652,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5674,14 +5689,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11813-2024</t>
+          <t>A 41020-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45376.30138888889</v>
+        <v>45173.59236111111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5693,8 +5708,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5731,14 +5751,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 33981-2024</t>
+          <t>A 30007-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45523.52111111111</v>
+        <v>45488.60150462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5750,8 +5770,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>11.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5788,14 +5813,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59615-2023</t>
+          <t>A 30009-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45254</v>
+        <v>45488.60546296297</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5813,7 +5838,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5850,14 +5875,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 53517-2024</t>
+          <t>A 13471-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45614.60436342593</v>
+        <v>45387.57859953704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5870,7 +5895,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5907,14 +5932,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58240-2021</t>
+          <t>A 58787-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44487.88978009259</v>
+        <v>44489.56234953704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5964,14 +5989,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 38746-2025</t>
+          <t>A 6963-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45887.37974537037</v>
+        <v>45343.4562037037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5983,13 +6008,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6026,14 +6046,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38741-2025</t>
+          <t>A 31645-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45887.37405092592</v>
+        <v>45506.60777777778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6051,7 +6071,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>11.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6088,14 +6108,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 43730-2023</t>
+          <t>A 13745-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45187</v>
+        <v>45007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6109,11 +6129,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6150,14 +6170,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 38486-2025</t>
+          <t>A 23545-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45884.34282407408</v>
+        <v>45792</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6170,7 +6190,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6207,14 +6227,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 38744-2025</t>
+          <t>A 38486-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45887.37774305556</v>
+        <v>45884.34282407408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6226,13 +6246,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>8.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6269,14 +6284,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 47524-2024</t>
+          <t>A 54149-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45587.63166666667</v>
+        <v>45232.4528125</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6289,7 +6304,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6326,14 +6341,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 13471-2024</t>
+          <t>A 26302-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45387.57859953704</v>
+        <v>45805</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6346,7 +6361,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6383,14 +6398,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26753-2025</t>
+          <t>A 36283-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45810.55490740741</v>
+        <v>45534.58899305556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6402,8 +6417,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>6.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6440,14 +6460,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 11953-2025</t>
+          <t>A 48063-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45728.56366898148</v>
+        <v>45589.55237268518</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6459,13 +6479,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>34.8</v>
+        <v>3.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6502,14 +6517,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 27431-2025</t>
+          <t>A 33979-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45813</v>
+        <v>45523.51896990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6521,13 +6536,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6564,14 +6574,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 27436-2025</t>
+          <t>A 16371-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45813</v>
+        <v>44671</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6583,13 +6593,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6626,14 +6631,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 27438-2025</t>
+          <t>A 38741-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45813.3143287037</v>
+        <v>45887.37405092592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6651,7 +6656,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6688,14 +6693,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 27432-2025</t>
+          <t>A 38746-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45813</v>
+        <v>45887.37974537037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6750,14 +6755,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 27441-2025</t>
+          <t>A 47359-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45813.31630787037</v>
+        <v>45587.43547453704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6767,11 +6772,6 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -6812,14 +6812,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 27738-2024</t>
+          <t>A 23355-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45475.45108796296</v>
+        <v>45453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6833,11 +6833,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6874,14 +6874,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 40407-2025</t>
+          <t>A 31471-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45895.57083333333</v>
+        <v>45833.56436342592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6893,13 +6893,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6936,14 +6931,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 37680-2022</t>
+          <t>A 38744-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44810</v>
+        <v>45887.37774305556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6955,8 +6950,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6993,14 +6993,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 10740-2025</t>
+          <t>A 11813-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45722.41008101852</v>
+        <v>45376.30138888889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7050,14 +7050,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 59130-2024</t>
+          <t>A 32299-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45637</v>
+        <v>45835</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7069,8 +7069,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>12.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7107,14 +7112,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 41569-2025</t>
+          <t>A 43730-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45901.60810185185</v>
+        <v>45187</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7132,7 +7137,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7169,14 +7174,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 57632-2021</t>
+          <t>A 10740-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44484.39166666667</v>
+        <v>45722.41008101852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7189,7 +7194,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7226,14 +7231,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41620-2025</t>
+          <t>A 40407-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45901.70319444445</v>
+        <v>45895.57083333333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7251,7 +7256,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7288,14 +7293,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 58373-2023</t>
+          <t>A 6929-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45250.65805555556</v>
+        <v>44967</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7308,7 +7313,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7345,14 +7350,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41020-2023</t>
+          <t>A 25476-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45173.59236111111</v>
+        <v>45463.44922453703</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7375,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7407,14 +7412,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25476-2024</t>
+          <t>A 41569-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45463.44922453703</v>
+        <v>45901.60810185185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7432,7 +7437,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7469,14 +7474,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 23545-2025</t>
+          <t>A 41620-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45792</v>
+        <v>45901.70319444445</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7488,8 +7493,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7526,14 +7536,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44356-2023</t>
+          <t>A 11607-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45188.81979166667</v>
+        <v>44994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7545,8 +7555,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7583,14 +7598,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 23355-2024</t>
+          <t>A 35475-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45453</v>
+        <v>45855.67001157408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7602,13 +7617,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7645,14 +7655,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 13744-2023</t>
+          <t>A 35473-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45007</v>
+        <v>45855.66804398148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7664,13 +7674,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7707,14 +7712,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26302-2025</t>
+          <t>A 36180-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45805</v>
+        <v>45867.41327546296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7727,7 +7732,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.3</v>
+        <v>11.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7764,14 +7769,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 8510-2023</t>
+          <t>A 36349-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44977.56144675926</v>
+        <v>45868.48269675926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7784,7 +7789,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7828,7 +7833,7 @@
         <v>45917.59674768519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7883,14 +7888,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 44692-2025</t>
+          <t>A 11953-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45917.59540509259</v>
+        <v>45728.56366898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7908,7 +7913,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.4</v>
+        <v>34.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7945,14 +7950,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 22129-2023</t>
+          <t>A 37444-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45069</v>
+        <v>45877.54305555556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7970,7 +7975,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8007,14 +8012,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 25477-2024</t>
+          <t>A 37743-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45463.45015046297</v>
+        <v>44810.58275462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8026,13 +8031,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8069,14 +8069,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 43282-2021</t>
+          <t>A 44692-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44432.39119212963</v>
+        <v>45917.59540509259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.4</v>
+        <v>5.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8131,14 +8131,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 31471-2025</t>
+          <t>A 37988-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45833.56436342592</v>
+        <v>45881.70454861111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8150,8 +8150,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8188,14 +8193,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 47091-2025</t>
+          <t>A 51337-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45929.65052083333</v>
+        <v>45219.59144675926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8208,7 +8213,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8245,14 +8250,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47097-2025</t>
+          <t>A 36278-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45929.65541666667</v>
+        <v>45534.58508101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8264,8 +8269,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>3.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8302,14 +8312,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 40393-2025</t>
+          <t>A 17185-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45895.55646990741</v>
+        <v>45755</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8323,11 +8333,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.9</v>
+        <v>10.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8364,14 +8374,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 47495-2024</t>
+          <t>A 37680-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45587.59559027778</v>
+        <v>44810</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8383,13 +8393,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8426,14 +8431,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 47249-2025</t>
+          <t>A 40393-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45930.43439814815</v>
+        <v>45895.55646990741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8445,8 +8450,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8483,14 +8493,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 32299-2025</t>
+          <t>A 47249-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45835</v>
+        <v>45930.43439814815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8502,13 +8512,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>12.8</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8545,14 +8550,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 40401-2025</t>
+          <t>A 47469-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45895.56739583334</v>
+        <v>45930.67037037037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8564,13 +8569,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>12.6</v>
+        <v>3.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8607,14 +8607,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 30007-2024</t>
+          <t>A 47091-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45488.60150462963</v>
+        <v>45929.65052083333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8626,13 +8626,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>11.5</v>
+        <v>3.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8669,14 +8664,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 30009-2024</t>
+          <t>A 47097-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45488.60546296297</v>
+        <v>45929.65541666667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8688,13 +8683,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8731,14 +8721,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 47469-2025</t>
+          <t>A 40401-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45930.67037037037</v>
+        <v>45895.56739583334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8750,8 +8740,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>3.5</v>
+        <v>12.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8788,14 +8783,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 54578-2024</t>
+          <t>A 48232-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45617.65644675926</v>
+        <v>45933.53054398148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8807,8 +8802,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8845,14 +8845,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 48232-2025</t>
+          <t>A 48612-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45933.53054398148</v>
+        <v>45935</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8866,11 +8866,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8907,14 +8907,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 49815-2024</t>
+          <t>A 48231-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45597.39709490741</v>
+        <v>45933.52594907407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8926,8 +8926,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8964,14 +8969,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 48242-2025</t>
+          <t>A 27959-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45933.53510416667</v>
+        <v>45816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8985,11 +8990,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.2</v>
+        <v>45.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9026,14 +9031,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 37763-2023</t>
+          <t>A 48242-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45156</v>
+        <v>45933.53510416667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9045,8 +9050,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9083,14 +9093,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 27959-2025</t>
+          <t>A 48609-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45816</v>
+        <v>45935</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9108,7 +9118,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>45.6</v>
+        <v>5.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9152,7 +9162,7 @@
         <v>45933.53292824074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9207,14 +9217,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 48241-2025</t>
+          <t>A 47639-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45933.53391203703</v>
+        <v>44448.3966087963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9226,13 +9236,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9269,14 +9274,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 48252-2025</t>
+          <t>A 48241-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45933.55329861111</v>
+        <v>45933.53391203703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9288,8 +9293,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9326,14 +9336,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 35505-2024</t>
+          <t>A 48252-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45531.53869212963</v>
+        <v>45933.55329861111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9345,13 +9355,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9388,14 +9393,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 35514-2024</t>
+          <t>A 28133-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45531.56472222223</v>
+        <v>45476.69053240741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9407,13 +9412,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9450,14 +9450,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 48231-2025</t>
+          <t>A 43887-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45933.52594907407</v>
+        <v>45912.69278935185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9512,14 +9512,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 48612-2025</t>
+          <t>A 43885-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45935</v>
+        <v>45912.69076388889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9533,11 +9533,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9574,14 +9574,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 48609-2025</t>
+          <t>A 33978-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45935</v>
+        <v>45523.51716435186</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9593,13 +9593,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9636,14 +9631,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 30229-2024</t>
+          <t>A 33984-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45490.46946759259</v>
+        <v>45523.52378472222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9655,13 +9650,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9698,14 +9688,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 43885-2025</t>
+          <t>A 45965-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45912.69076388889</v>
+        <v>45924.35655092593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9723,7 +9713,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9760,14 +9750,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 43887-2025</t>
+          <t>A 36763-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45912.69278935185</v>
+        <v>45538.36181712963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9779,13 +9769,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9822,14 +9807,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 2612-2025</t>
+          <t>A 51225-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45674</v>
+        <v>45947.65599537037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9841,8 +9826,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9879,14 +9869,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 45965-2025</t>
+          <t>A 14119-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45924.35655092593</v>
+        <v>45740.4659837963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9900,11 +9890,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9941,14 +9931,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 23376-2024</t>
+          <t>A 10161-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45453</v>
+        <v>44986</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9962,11 +9952,11 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>10.8</v>
+        <v>0.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10003,14 +9993,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58955-2023</t>
+          <t>A 52693-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45252</v>
+        <v>45956.58960648148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10060,14 +10050,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 6963-2024</t>
+          <t>A 12057-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45343.4562037037</v>
+        <v>44266</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10080,7 +10070,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10117,14 +10107,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 51225-2025</t>
+          <t>A 31611-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45947.65599537037</v>
+        <v>45117</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10136,13 +10126,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10179,14 +10164,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 35473-2025</t>
+          <t>A 54827-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45855.66804398148</v>
+        <v>45966.66925925926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10199,7 +10184,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10236,14 +10221,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35475-2025</t>
+          <t>A 54874-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45855.67001157408</v>
+        <v>45967.30939814815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10256,7 +10241,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10293,14 +10278,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 10587-2022</t>
+          <t>A 54876-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44624</v>
+        <v>45967.31611111111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10313,7 +10298,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10350,14 +10335,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 36180-2025</t>
+          <t>A 54877-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45867.41327546296</v>
+        <v>45967.31960648148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10370,7 +10355,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>11.7</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10407,14 +10392,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 31123-2021</t>
+          <t>A 55287-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44368</v>
+        <v>45969.30730324074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10427,7 +10412,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10464,14 +10449,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 36349-2025</t>
+          <t>A 55288-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45868.48269675926</v>
+        <v>45969.33444444444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10484,7 +10469,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10521,14 +10506,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 52693-2025</t>
+          <t>A 8510-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45956.58960648148</v>
+        <v>44977.56144675926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10541,7 +10526,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10578,14 +10563,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 36763-2024</t>
+          <t>A 27738-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45538.36181712963</v>
+        <v>45475.45108796296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10597,8 +10582,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10635,14 +10625,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 21027-2024</t>
+          <t>A 31607-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45439</v>
+        <v>45117</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10654,13 +10644,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10697,14 +10682,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 21028-2024</t>
+          <t>A 13744-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45439</v>
+        <v>45007</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10718,11 +10703,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10759,14 +10744,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 16371-2022</t>
+          <t>A 24988-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44671</v>
+        <v>45085.64087962963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10778,8 +10763,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10816,14 +10806,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 57751-2024</t>
+          <t>A 47524-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45630.82424768519</v>
+        <v>45587.63166666667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10826,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10873,14 +10863,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 37444-2025</t>
+          <t>A 35114-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45877.54305555556</v>
+        <v>45145</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10892,13 +10882,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10935,14 +10920,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 37988-2025</t>
+          <t>A 35136-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45881.70454861111</v>
+        <v>45145.52915509259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10954,13 +10939,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10997,14 +10977,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 54876-2025</t>
+          <t>A 57593-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45967.31611111111</v>
+        <v>45980.96055555555</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11017,7 +10997,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11054,14 +11034,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 54877-2025</t>
+          <t>A 57595-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45967.31960648148</v>
+        <v>45980.97019675926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11074,7 +11054,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11111,14 +11091,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 54874-2025</t>
+          <t>A 57596-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45967.30939814815</v>
+        <v>45980.9716087963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11131,7 +11111,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11168,14 +11148,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 54827-2025</t>
+          <t>A 57594-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45966.66925925926</v>
+        <v>45980.96221064815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11188,7 +11168,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11225,14 +11205,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 2915-2025</t>
+          <t>A 58008-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45677.96424768519</v>
+        <v>45982.45744212963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11245,7 +11225,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11282,14 +11262,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 55288-2025</t>
+          <t>A 58633-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45969.33444444444</v>
+        <v>45986.48885416667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11302,7 +11282,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11339,14 +11319,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 32980-2023</t>
+          <t>A 58324-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45125.59980324074</v>
+        <v>45985.47690972222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11359,7 +11339,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11396,14 +11376,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 57400-2024</t>
+          <t>A 58805-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45629.71085648148</v>
+        <v>45986.9652662037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11416,7 +11396,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11453,14 +11433,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 55287-2025</t>
+          <t>A 659-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45969.30730324074</v>
+        <v>46029.58206018519</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11473,7 +11453,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11510,14 +11490,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 62596-2023</t>
+          <t>A 37693-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45271</v>
+        <v>45159.57056712963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11530,7 +11510,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11567,14 +11547,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 25474-2024</t>
+          <t>A 37763-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45463.44631944445</v>
+        <v>45156</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11586,13 +11566,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11629,14 +11604,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 8448-2025</t>
+          <t>A 49815-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45709</v>
+        <v>45597.39709490741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11649,7 +11624,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11686,14 +11661,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 47493-2024</t>
+          <t>A 681-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45587.59410879629</v>
+        <v>46029</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11705,13 +11680,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11748,14 +11718,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 57596-2025</t>
+          <t>A 683-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45980.9716087963</v>
+        <v>46029</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11768,7 +11738,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11805,14 +11775,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 57593-2025</t>
+          <t>A 54578-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45980.96055555555</v>
+        <v>45617.65644675926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11825,7 +11795,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11862,14 +11832,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 57595-2025</t>
+          <t>A 802-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45980.97019675926</v>
+        <v>46030</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11882,7 +11852,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11919,14 +11889,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 10161-2023</t>
+          <t>A 692-2026</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44986</v>
+        <v>46029</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11938,13 +11908,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11981,14 +11946,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 57594-2025</t>
+          <t>A 64036-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45980.96221064815</v>
+        <v>46021</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12001,7 +11966,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12038,14 +12003,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 58324-2025</t>
+          <t>A 688-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45985.47690972222</v>
+        <v>46029</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12058,7 +12023,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12095,14 +12060,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 58008-2025</t>
+          <t>A 61186-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45982.45744212963</v>
+        <v>46000.58625</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12115,7 +12080,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12152,14 +12117,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 659-2026</t>
+          <t>A 18347-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46029.58206018519</v>
+        <v>45762.52913194444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12172,7 +12137,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>9.199999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12209,14 +12174,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 58633-2025</t>
+          <t>A 10184-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45986.48885416667</v>
+        <v>44622</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12229,7 +12194,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12266,14 +12231,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 58805-2025</t>
+          <t>A 10587-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45986.9652662037</v>
+        <v>44624</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12286,7 +12251,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12323,14 +12288,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 34232-2023</t>
+          <t>A 59130-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45127</v>
+        <v>45637</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12342,13 +12307,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12385,14 +12345,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 681-2026</t>
+          <t>A 35498-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46029</v>
+        <v>45531.51796296296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12402,6 +12362,11 @@
       <c r="E181" t="inlineStr">
         <is>
           <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G181" t="n">
@@ -12442,14 +12407,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 683-2026</t>
+          <t>A 341-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46029</v>
+        <v>46027</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12499,14 +12464,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 802-2026</t>
+          <t>A 3997-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46030</v>
+        <v>46044.38896990741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12519,7 +12484,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12556,14 +12521,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 2220-2026</t>
+          <t>A 8448-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46036.50115740741</v>
+        <v>45709</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12576,7 +12541,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12613,14 +12578,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 64036-2025</t>
+          <t>A 61642-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46021</v>
+        <v>46002.43494212963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12633,7 +12598,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12670,14 +12635,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 688-2026</t>
+          <t>A 17762-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46029</v>
+        <v>44680</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12690,7 +12655,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12727,14 +12692,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 22226-2024</t>
+          <t>A 3614-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45446.4203587963</v>
+        <v>46042.94263888889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12747,7 +12712,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12784,14 +12749,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 37693-2023</t>
+          <t>A 3870-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45159.57056712963</v>
+        <v>46043.64090277778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12803,8 +12768,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12841,14 +12811,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 341-2026</t>
+          <t>A 3615-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46027</v>
+        <v>46042.94633101852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12861,7 +12831,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12898,14 +12868,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 692-2026</t>
+          <t>A 4101-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46029</v>
+        <v>46044.57539351852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12918,7 +12888,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12955,14 +12925,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 3614-2026</t>
+          <t>A 4104-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46042.94263888889</v>
+        <v>46044.58568287037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12975,7 +12945,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -13012,14 +12982,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 61186-2025</t>
+          <t>A 4566-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46000.58625</v>
+        <v>46047.87172453704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13032,7 +13002,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13069,14 +13039,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 3870-2026</t>
+          <t>A 4419-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46043.64090277778</v>
+        <v>46045.60791666667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13088,13 +13058,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13131,14 +13096,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 3615-2026</t>
+          <t>A 129-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46042.94633101852</v>
+        <v>46024.59600694444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13151,7 +13116,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13188,14 +13153,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 4419-2026</t>
+          <t>A 64000-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46045.60791666667</v>
+        <v>46021.39847222222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13208,7 +13173,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13245,14 +13210,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 64000-2025</t>
+          <t>A 33296-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46021.39847222222</v>
+        <v>45127.69603009259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13264,8 +13229,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13302,14 +13272,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 129-2026</t>
+          <t>A 58369-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46024.59600694444</v>
+        <v>45250</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13322,7 +13292,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13359,14 +13329,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 3997-2026</t>
+          <t>A 25477-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46044.38896990741</v>
+        <v>45463.45015046297</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13378,8 +13348,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13416,14 +13391,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 61642-2025</t>
+          <t>A 43726-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46002.43494212963</v>
+        <v>45187</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13435,8 +13410,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13473,14 +13453,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 4104-2026</t>
+          <t>A 4541-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46044.58568287037</v>
+        <v>46046.94703703704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13493,7 +13473,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13530,14 +13510,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 4101-2026</t>
+          <t>A 5482-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46044.57539351852</v>
+        <v>46050.60585648148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13550,7 +13530,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13587,14 +13567,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 48063-2024</t>
+          <t>A 892-2026</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45589.55237268518</v>
+        <v>46030.45260416667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13607,7 +13587,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13644,14 +13624,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 4541-2026</t>
+          <t>A 5177-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46046.94703703704</v>
+        <v>46049.65239583333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13664,7 +13644,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.1</v>
+        <v>6.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13701,14 +13681,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 17762-2022</t>
+          <t>A 837-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44680</v>
+        <v>46030.3752662037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13721,7 +13701,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13758,14 +13738,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 5177-2026</t>
+          <t>A 5549-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46049.65239583333</v>
+        <v>46050.71560185185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13778,7 +13758,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>6.7</v>
+        <v>2.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13815,14 +13795,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 4566-2026</t>
+          <t>A 5249-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46047.87172453704</v>
+        <v>46049.90417824074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13835,7 +13815,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13872,14 +13852,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 51277-2022</t>
+          <t>A 17179-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44868.7127662037</v>
+        <v>45755</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13891,8 +13871,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13929,14 +13914,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 5482-2026</t>
+          <t>A 58955-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46050.60585648148</v>
+        <v>45252</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13949,7 +13934,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13986,14 +13971,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 5549-2026</t>
+          <t>A 64359-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46050.71560185185</v>
+        <v>45280</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14006,7 +13991,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14043,14 +14028,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 5249-2026</t>
+          <t>A 5872-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46049.90417824074</v>
+        <v>46052.3731712963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14063,7 +14048,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14100,14 +14085,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 892-2026</t>
+          <t>A 58373-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46030.45260416667</v>
+        <v>45250.65805555556</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14120,7 +14105,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14157,14 +14142,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 837-2026</t>
+          <t>A 38251-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46030.3752662037</v>
+        <v>44812.4874537037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14177,7 +14162,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14214,14 +14199,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 13745-2023</t>
+          <t>A 7209-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45007</v>
+        <v>46058.53673611111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14235,11 +14220,11 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14276,14 +14261,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 5872-2026</t>
+          <t>A 7207-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46052.3731712963</v>
+        <v>46058.53497685185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14295,8 +14280,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14333,14 +14323,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 14119-2025</t>
+          <t>A 7210-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45740.4659837963</v>
+        <v>46058.53807870371</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14354,11 +14344,11 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14395,14 +14385,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 2546-2026</t>
+          <t>A 43282-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46037.46833333333</v>
+        <v>44432.39119212963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14414,8 +14404,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14452,14 +14447,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 25465-2024</t>
+          <t>A 2546-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45463.43416666667</v>
+        <v>46037.46833333333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14471,13 +14466,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14514,14 +14504,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 7209-2026</t>
+          <t>A 3391-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46058.53673611111</v>
+        <v>46042</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14533,13 +14523,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14576,14 +14561,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 3391-2026</t>
+          <t>A 7580-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46042</v>
+        <v>46061.63731481481</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14596,7 +14581,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14633,14 +14618,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 7210-2026</t>
+          <t>A 68079-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46058.53807870371</v>
+        <v>44526.31943287037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14652,13 +14637,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14695,14 +14675,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7207-2026</t>
+          <t>A 7581-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46058.53497685185</v>
+        <v>46061.63856481481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14714,13 +14694,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14757,14 +14732,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 35114-2023</t>
+          <t>A 2220-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45145</v>
+        <v>46036.50115740741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14777,7 +14752,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14814,14 +14789,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 35136-2023</t>
+          <t>A 54826-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45145.52915509259</v>
+        <v>44473</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14833,8 +14808,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14871,14 +14851,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 38251-2022</t>
+          <t>A 1149-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44812.4874537037</v>
+        <v>45302.49834490741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14891,7 +14871,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14928,14 +14908,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 31607-2023</t>
+          <t>A 44356-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45117</v>
+        <v>45188.81979166667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14948,7 +14928,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14985,14 +14965,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 31611-2023</t>
+          <t>A 47495-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45117</v>
+        <v>45587.59559027778</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15004,8 +14984,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15042,14 +15027,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 36278-2024</t>
+          <t>A 10602-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45534.58508101852</v>
+        <v>44624</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15061,13 +15046,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15111,7 +15091,7 @@
         <v>45118</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15166,14 +15146,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 43143-2024</t>
+          <t>A 31613-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45567.62359953704</v>
+        <v>45117</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15186,7 +15166,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15223,14 +15203,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 47359-2024</t>
+          <t>A 6958-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45587.43547453704</v>
+        <v>45343</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15243,7 +15223,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15280,14 +15260,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 31645-2024</t>
+          <t>A 57632-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45506.60777777778</v>
+        <v>44484.39166666667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15299,13 +15279,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>11.1</v>
+        <v>4.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15342,14 +15317,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 64359-2023</t>
+          <t>A 33734-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45280</v>
+        <v>45520</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15361,8 +15336,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15399,14 +15379,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 58787-2021</t>
+          <t>A 51277-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44489.56234953704</v>
+        <v>44868.7127662037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15419,7 +15399,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15456,14 +15436,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 24988-2023</t>
+          <t>A 47493-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45085.64087962963</v>
+        <v>45587.59410879629</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15481,7 +15461,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15518,14 +15498,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 13473-2024</t>
+          <t>A 34232-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45387.5827662037</v>
+        <v>45127</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15537,8 +15517,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15575,14 +15560,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 28133-2024</t>
+          <t>A 25474-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45476.69053240741</v>
+        <v>45463.44631944445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15594,8 +15579,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15632,14 +15622,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 12057-2021</t>
+          <t>A 21027-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44266</v>
+        <v>45439</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15651,8 +15641,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15689,14 +15684,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 37744-2022</t>
+          <t>A 21028-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44810.58422453704</v>
+        <v>45439</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15708,8 +15703,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15746,14 +15746,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 10184-2022</t>
+          <t>A 2612-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44622</v>
+        <v>45674</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15803,14 +15803,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 10602-2022</t>
+          <t>A 32980-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44624</v>
+        <v>45125.59980324074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15860,14 +15860,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 47531-2021</t>
+          <t>A 33710-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44447</v>
+        <v>45520</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15879,8 +15879,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>7.6</v>
+        <v>0.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15917,14 +15922,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 33734-2024</t>
+          <t>A 43143-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45520</v>
+        <v>45567.62359953704</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15936,13 +15941,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15979,14 +15979,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 11607-2023</t>
+          <t>A 31123-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44994</v>
+        <v>44368</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15998,13 +15998,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16041,14 +16036,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 43726-2023</t>
+          <t>A 57751-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45187</v>
+        <v>45630.82424768519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16060,13 +16055,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16110,7 +16100,7 @@
         <v>45531.53686342593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16165,14 +16155,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 68079-2021</t>
+          <t>A 32827-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44526.31943287037</v>
+        <v>45516.59273148148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16184,8 +16174,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16222,14 +16217,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 6958-2024</t>
+          <t>A 2915-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45343</v>
+        <v>45677.96424768519</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16242,7 +16237,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16279,14 +16274,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 54826-2021</t>
+          <t>A 4032-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44473</v>
+        <v>45684</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16298,13 +16293,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16341,14 +16331,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 33710-2024</t>
+          <t>A 57400-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45520</v>
+        <v>45629.71085648148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16360,13 +16350,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16403,14 +16388,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 17185-2025</t>
+          <t>A 28391-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45755</v>
+        <v>45477.60254629629</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16424,11 +16409,11 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>10.3</v>
+        <v>2.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16465,14 +16450,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 47639-2021</t>
+          <t>A 20972-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44448.3966087963</v>
+        <v>45777.45725694444</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16484,8 +16469,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16522,14 +16512,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 32827-2024</t>
+          <t>A 21340-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45516.59273148148</v>
+        <v>45782.38909722222</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16541,13 +16531,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16584,14 +16569,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 1149-2024</t>
+          <t>A 1144-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45302.49834490741</v>
+        <v>45302.49138888889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16604,7 +16589,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16641,14 +16626,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 18347-2025</t>
+          <t>A 5554-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45762.52913194444</v>
+        <v>45334</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16661,7 +16646,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16698,14 +16683,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 31613-2023</t>
+          <t>A 22844-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45117</v>
+        <v>45790.32160879629</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16718,7 +16703,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16755,14 +16740,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 21039-2024</t>
+          <t>A 23666-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45439</v>
+        <v>45792.84364583333</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16774,13 +16759,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16817,14 +16797,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 36283-2024</t>
+          <t>A 53517-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45534.58899305556</v>
+        <v>45614.60436342593</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16836,13 +16816,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16879,14 +16854,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 20972-2025</t>
+          <t>A 59615-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45777.45725694444</v>
+        <v>45254</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16904,7 +16879,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16941,14 +16916,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 1144-2024</t>
+          <t>A 24395-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45302.49138888889</v>
+        <v>45797.63881944444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16961,7 +16936,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16998,14 +16973,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 21340-2025</t>
+          <t>A 33981-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45782.38909722222</v>
+        <v>45523.52111111111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17018,7 +16993,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -17055,14 +17030,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 5554-2024</t>
+          <t>A 26753-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45334</v>
+        <v>45810.55490740741</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17075,7 +17050,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17112,14 +17087,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 22844-2025</t>
+          <t>A 27438-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45790.32160879629</v>
+        <v>45813.3143287037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17131,8 +17106,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17169,14 +17149,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 23666-2025</t>
+          <t>A 27432-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45792.84364583333</v>
+        <v>45813</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17188,8 +17168,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17223,17 +17208,17 @@
       </c>
       <c r="R263" s="2" t="inlineStr"/>
     </row>
-    <row r="264">
+    <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 24395-2025</t>
+          <t>A 27441-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45797.63881944444</v>
+        <v>45813.31630787037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17245,8 +17230,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G264" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17279,6 +17269,130 @@
         <v>0</v>
       </c>
       <c r="R264" s="2" t="inlineStr"/>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>A 27431-2025</t>
+        </is>
+      </c>
+      <c r="B265" s="1" t="n">
+        <v>45813</v>
+      </c>
+      <c r="C265" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R265" s="2" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>A 27436-2025</t>
+        </is>
+      </c>
+      <c r="B266" s="1" t="n">
+        <v>45813</v>
+      </c>
+      <c r="C266" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45784</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44512</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45299</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44623</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>44816</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,14 +1151,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 35742-2025</t>
+          <t>A 47483-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45860.53805555555</v>
+        <v>44447</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1170,13 +1170,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1211,49 +1206,49 @@
       <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Knärot
-Mörk husmossa</t>
+Mindre märgborre</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35742-2025 artfynd.xlsx", "A 35742-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47483-2021 artfynd.xlsx", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35742-2025 karta.png", "A 35742-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47483-2021 karta.png", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35742-2025 karta knärot.png", "A 35742-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 47483-2021 karta knärot.png", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35742-2025 FSC-klagomål.docx", "A 35742-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47483-2021 FSC-klagomål.docx", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35742-2025 FSC-klagomål mail.docx", "A 35742-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47483-2021 FSC-klagomål mail.docx", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35742-2025 tillsynsbegäran.docx", "A 35742-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47483-2021 tillsynsbegäran.docx", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35742-2025 tillsynsbegäran mail.docx", "A 35742-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47483-2021 tillsynsbegäran mail.docx", "A 47483-2021")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 47084-2025</t>
+          <t>A 35742-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45929</v>
+        <v>45860.53805555555</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,20 +1260,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>6.1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1293,224 +1293,224 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Knärot
+Mörk husmossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35742-2025 artfynd.xlsx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35742-2025 karta.png", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35742-2025 karta knärot.png", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35742-2025 FSC-klagomål.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35742-2025 FSC-klagomål mail.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35742-2025 tillsynsbegäran.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35742-2025 tillsynsbegäran mail.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 47084-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45929</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Ullticka
 Revlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47084-2025 artfynd.xlsx", "A 47084-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47084-2025 karta.png", "A 47084-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47084-2025 FSC-klagomål.docx", "A 47084-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47084-2025 FSC-klagomål mail.docx", "A 47084-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47084-2025 tillsynsbegäran.docx", "A 47084-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47084-2025 tillsynsbegäran mail.docx", "A 47084-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 35741-2025</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45860</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="C11" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>3.9</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Vedskivlav</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35741-2025 artfynd.xlsx", "A 35741-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35741-2025 karta.png", "A 35741-2025")</f>
         <v/>
       </c>
-      <c r="U10">
+      <c r="U11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35741-2025 karta knärot.png", "A 35741-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35741-2025 FSC-klagomål.docx", "A 35741-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35741-2025 FSC-klagomål mail.docx", "A 35741-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35741-2025 tillsynsbegäran.docx", "A 35741-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35741-2025 tillsynsbegäran mail.docx", "A 35741-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 47483-2021</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44447</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47483-2021 artfynd.xlsx", "A 47483-2021")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47483-2021 karta.png", "A 47483-2021")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 47483-2021 karta knärot.png", "A 47483-2021")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47483-2021 FSC-klagomål.docx", "A 47483-2021")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47483-2021 FSC-klagomål mail.docx", "A 47483-2021")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47483-2021 tillsynsbegäran.docx", "A 47483-2021")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47483-2021 tillsynsbegäran mail.docx", "A 47483-2021")</f>
         <v/>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
         <v>44511</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44559.54373842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,14 +1692,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 33298-2023</t>
+          <t>A 22096-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45127</v>
+        <v>44323</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,20 +1717,20 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
@@ -1741,55 +1741,59 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 33298-2023 artfynd.xlsx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 22096-2021 artfynd.xlsx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 33298-2023 karta.png", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 22096-2021 karta.png", "A 22096-2021")</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 22096-2021 karta knärot.png", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 33298-2023 FSC-klagomål.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 22096-2021 FSC-klagomål.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 33298-2023 FSC-klagomål mail.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 22096-2021 FSC-klagomål mail.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 33298-2023 tillsynsbegäran.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 22096-2021 tillsynsbegäran.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 33298-2023 tillsynsbegäran mail.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 22096-2021 tillsynsbegäran mail.docx", "A 22096-2021")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 30008-2024</t>
+          <t>A 21029-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45488.6040162037</v>
+        <v>45439.6528125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1807,17 +1811,17 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1831,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1841,45 +1845,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 21029-2024 artfynd.xlsx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 21029-2024 karta.png", "A 21029-2024")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 21029-2024 karta knärot.png", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 21029-2024 FSC-klagomål.docx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 21029-2024 FSC-klagomål mail.docx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 21029-2024 tillsynsbegäran.docx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 21029-2024 tillsynsbegäran mail.docx", "A 21029-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 46058-2025</t>
+          <t>A 41621-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45924</v>
+        <v>45901.70506944445</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1893,14 +1901,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1931,45 +1939,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41621-2025 artfynd.xlsx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41621-2025 karta.png", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41621-2025 FSC-klagomål.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41621-2025 FSC-klagomål mail.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41621-2025 tillsynsbegäran.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41621-2025 tillsynsbegäran mail.docx", "A 41621-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 23354-2024</t>
+          <t>A 41568-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45453</v>
+        <v>45901.6075462963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1987,13 +1995,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2021,31 +2029,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41568-2025 artfynd.xlsx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41568-2025 karta.png", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41568-2025 FSC-klagomål.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41568-2025 FSC-klagomål mail.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41568-2025 tillsynsbegäran.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41568-2025 tillsynsbegäran mail.docx", "A 41568-2025")</f>
         <v/>
       </c>
     </row>
@@ -2059,7 +2067,7 @@
         <v>45586</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,14 +2150,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 41621-2025</t>
+          <t>A 54828-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45901.70506944445</v>
+        <v>44473</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,24 +2171,24 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
@@ -2191,55 +2199,59 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41621-2025 artfynd.xlsx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 54828-2021 artfynd.xlsx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41621-2025 karta.png", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 54828-2021 karta.png", "A 54828-2021")</f>
+        <v/>
+      </c>
+      <c r="U19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 54828-2021 karta knärot.png", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41621-2025 FSC-klagomål.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 54828-2021 FSC-klagomål.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41621-2025 FSC-klagomål mail.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 54828-2021 FSC-klagomål mail.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41621-2025 tillsynsbegäran.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 54828-2021 tillsynsbegäran.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41621-2025 tillsynsbegäran mail.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 54828-2021 tillsynsbegäran mail.docx", "A 54828-2021")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 41568-2025</t>
+          <t>A 28392-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45901.6075462963</v>
+        <v>45477.60362268519</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2257,13 +2269,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.8</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2291,45 +2303,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41568-2025 artfynd.xlsx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28392-2024 artfynd.xlsx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41568-2025 karta.png", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28392-2024 karta.png", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41568-2025 FSC-klagomål.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28392-2024 FSC-klagomål.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41568-2025 FSC-klagomål mail.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28392-2024 FSC-klagomål mail.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41568-2025 tillsynsbegäran.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28392-2024 tillsynsbegäran.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41568-2025 tillsynsbegäran mail.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28392-2024 tillsynsbegäran mail.docx", "A 28392-2024")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 7543-2024</t>
+          <t>A 234-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45348</v>
+        <v>44928.66260416667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,21 +2353,26 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
@@ -2366,55 +2383,59 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 7543-2024 artfynd.xlsx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 7543-2024 karta.png", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
+        <v/>
+      </c>
+      <c r="U21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 7543-2024 FSC-klagomål.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 7543-2024 FSC-klagomål mail.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 7543-2024 tillsynsbegäran.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 7543-2024 tillsynsbegäran mail.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 35743-2025</t>
+          <t>A 28397-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45860.54238425926</v>
+        <v>45477.60549768519</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2432,7 +2453,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2466,45 +2487,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35743-2025 artfynd.xlsx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35743-2025 karta.png", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35743-2025 FSC-klagomål.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35743-2025 FSC-klagomål mail.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35743-2025 tillsynsbegäran.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35743-2025 tillsynsbegäran mail.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 36606-2025</t>
+          <t>A 27434-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45870.54482638889</v>
+        <v>45813</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2522,16 +2543,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>13.3</v>
+        <v>4.2</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2546,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2556,45 +2577,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Brunklöver</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 36606-2025 artfynd.xlsx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 27434-2025 artfynd.xlsx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 36606-2025 karta.png", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 27434-2025 karta.png", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 36606-2025 FSC-klagomål.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 27434-2025 FSC-klagomål.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 36606-2025 FSC-klagomål mail.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 27434-2025 FSC-klagomål mail.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 36606-2025 tillsynsbegäran.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 27434-2025 tillsynsbegäran.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 36606-2025 tillsynsbegäran mail.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 27434-2025 tillsynsbegäran mail.docx", "A 27434-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 37011-2025</t>
+          <t>A 23354-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45874.70511574074</v>
+        <v>45453</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2612,7 +2633,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2624,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2636,59 +2657,55 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
-        <v/>
-      </c>
-      <c r="U24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 37012-2025</t>
+          <t>A 48709-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45874.7066550926</v>
+        <v>45936.63020833334</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2700,25 +2717,20 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2733,52 +2745,56 @@
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
+        <v/>
+      </c>
+      <c r="U25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 28397-2024</t>
+          <t>A 30008-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45477.60549768519</v>
+        <v>45488.6040162037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2796,13 +2812,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2830,45 +2846,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 48709-2025</t>
+          <t>A 43883-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45936.63020833334</v>
+        <v>45912.68892361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2880,8 +2896,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>6.2</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2893,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2905,59 +2926,59 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
-        <v/>
-      </c>
-      <c r="U27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 43883-2025</t>
+          <t>A 7543-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45912.68892361111</v>
+        <v>45348</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2969,19 +2990,14 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3009,49 +3025,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 7543-2024 artfynd.xlsx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 7543-2024 karta.png", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 7543-2024 FSC-klagomål.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 7543-2024 FSC-klagomål mail.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 7543-2024 tillsynsbegäran.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 7543-2024 tillsynsbegäran mail.docx", "A 7543-2024")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48702-2025</t>
+          <t>A 35743-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45936.62197916667</v>
+        <v>45860.54238425926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3063,8 +3075,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -3076,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3088,59 +3105,55 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35743-2025 artfynd.xlsx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
-        <v/>
-      </c>
-      <c r="U29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35743-2025 karta.png", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35743-2025 FSC-klagomål.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35743-2025 FSC-klagomål mail.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35743-2025 tillsynsbegäran.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35743-2025 tillsynsbegäran mail.docx", "A 35743-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 186-2026</t>
+          <t>A 36606-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>46025.54315972222</v>
+        <v>45870.54482638889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3152,20 +3165,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>6.7</v>
+        <v>13.3</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3180,56 +3198,52 @@
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunklöver</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 186-2026 artfynd.xlsx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 36606-2025 artfynd.xlsx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 186-2026 karta.png", "A 186-2026")</f>
-        <v/>
-      </c>
-      <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 186-2026 karta knärot.png", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 36606-2025 karta.png", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 186-2026 FSC-klagomål.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 36606-2025 FSC-klagomål.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 186-2026 FSC-klagomål mail.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 36606-2025 FSC-klagomål mail.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 186-2026 tillsynsbegäran.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 36606-2025 tillsynsbegäran.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 186-2026 tillsynsbegäran mail.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 36606-2025 tillsynsbegäran mail.docx", "A 36606-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 35521-2024</t>
+          <t>A 37012-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45531.57493055556</v>
+        <v>45874.7066550926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3247,17 +3261,17 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
@@ -3271,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3281,45 +3295,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35521-2024 artfynd.xlsx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35521-2024 karta.png", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35521-2024 FSC-klagomål.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35521-2024 FSC-klagomål mail.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35521-2024 tillsynsbegäran.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35521-2024 tillsynsbegäran mail.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 687-2026</t>
+          <t>A 37011-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46029</v>
+        <v>45874.70511574074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3331,20 +3345,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3359,52 +3378,56 @@
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Brunklöver</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 687-2026 artfynd.xlsx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 687-2026 karta.png", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
+        <v/>
+      </c>
+      <c r="U32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 687-2026 FSC-klagomål.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 687-2026 FSC-klagomål mail.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 687-2026 tillsynsbegäran.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 687-2026 tillsynsbegäran mail.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 28392-2024</t>
+          <t>A 48702-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45477.60362268519</v>
+        <v>45936.62197916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3416,13 +3439,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -3434,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3446,55 +3464,59 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28392-2024 artfynd.xlsx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28392-2024 karta.png", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
+        <v/>
+      </c>
+      <c r="U33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28392-2024 FSC-klagomål.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28392-2024 FSC-klagomål mail.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28392-2024 tillsynsbegäran.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28392-2024 tillsynsbegäran mail.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47459-2023</t>
+          <t>A 46058-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45202.83313657407</v>
+        <v>45924</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3506,8 +3528,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3541,45 +3568,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47459-2023 artfynd.xlsx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47459-2023 karta.png", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47459-2023 FSC-klagomål.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47459-2023 FSC-klagomål mail.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47459-2023 tillsynsbegäran.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47459-2023 tillsynsbegäran mail.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 22096-2021</t>
+          <t>A 186-2026</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44323</v>
+        <v>46025.54315972222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3591,13 +3618,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>6.7</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3635,45 +3657,45 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 22096-2021 artfynd.xlsx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 186-2026 artfynd.xlsx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 22096-2021 karta.png", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 186-2026 karta.png", "A 186-2026")</f>
         <v/>
       </c>
       <c r="U35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 22096-2021 karta knärot.png", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 186-2026 karta knärot.png", "A 186-2026")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 22096-2021 FSC-klagomål.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 186-2026 FSC-klagomål.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 22096-2021 FSC-klagomål mail.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 186-2026 FSC-klagomål mail.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 22096-2021 tillsynsbegäran.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 186-2026 tillsynsbegäran.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 22096-2021 tillsynsbegäran mail.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 186-2026 tillsynsbegäran mail.docx", "A 186-2026")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 54828-2021</t>
+          <t>A 687-2026</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44473</v>
+        <v>46029</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3685,25 +3707,20 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3718,56 +3735,52 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunklöver</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 54828-2021 artfynd.xlsx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 687-2026 artfynd.xlsx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 54828-2021 karta.png", "A 54828-2021")</f>
-        <v/>
-      </c>
-      <c r="U36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 54828-2021 karta knärot.png", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 687-2026 karta.png", "A 687-2026")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 54828-2021 FSC-klagomål.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 687-2026 FSC-klagomål.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 54828-2021 FSC-klagomål mail.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 687-2026 FSC-klagomål mail.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 54828-2021 tillsynsbegäran.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 687-2026 tillsynsbegäran.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 54828-2021 tillsynsbegäran mail.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 687-2026 tillsynsbegäran mail.docx", "A 687-2026")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 234-2023</t>
+          <t>A 47459-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44928.66260416667</v>
+        <v>45202.83313657407</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3779,25 +3792,20 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3809,59 +3817,55 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47459-2023 artfynd.xlsx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
-        <v/>
-      </c>
-      <c r="U37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47459-2023 karta.png", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47459-2023 FSC-klagomål.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47459-2023 FSC-klagomål mail.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47459-2023 tillsynsbegäran.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47459-2023 tillsynsbegäran mail.docx", "A 47459-2023")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 21029-2024</t>
+          <t>A 33298-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45439.6528125</v>
+        <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3879,16 +3883,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3903,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3913,49 +3917,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 21029-2024 artfynd.xlsx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 33298-2023 artfynd.xlsx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 21029-2024 karta.png", "A 21029-2024")</f>
-        <v/>
-      </c>
-      <c r="U38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 21029-2024 karta knärot.png", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 33298-2023 karta.png", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 21029-2024 FSC-klagomål.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 33298-2023 FSC-klagomål.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 21029-2024 FSC-klagomål mail.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 33298-2023 FSC-klagomål mail.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 21029-2024 tillsynsbegäran.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 33298-2023 tillsynsbegäran.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 21029-2024 tillsynsbegäran mail.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 33298-2023 tillsynsbegäran mail.docx", "A 33298-2023")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 27434-2025</t>
+          <t>A 35521-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45813</v>
+        <v>45531.57493055556</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -4011,27 +4011,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 27434-2025 artfynd.xlsx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35521-2024 artfynd.xlsx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 27434-2025 karta.png", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35521-2024 karta.png", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 27434-2025 FSC-klagomål.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35521-2024 FSC-klagomål.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 27434-2025 FSC-klagomål mail.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35521-2024 FSC-klagomål mail.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 27434-2025 tillsynsbegäran.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35521-2024 tillsynsbegäran.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 27434-2025 tillsynsbegäran mail.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35521-2024 tillsynsbegäran mail.docx", "A 35521-2024")</f>
         <v/>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
         <v>44868.61302083333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44770</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44314</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44582.37412037037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44501.57883101852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44447.66321759259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44504.60092592592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44512</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44456</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44295.6012962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44873</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4732,14 +4732,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 51202-2022</t>
+          <t>A 19292-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44868.60868055555</v>
+        <v>44692</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4751,13 +4751,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>11.3</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4794,14 +4789,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 19292-2022</t>
+          <t>A 51202-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44692</v>
+        <v>44868.60868055555</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4813,8 +4808,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>11.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4851,14 +4851,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 13473-2024</t>
+          <t>A 40407-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45387.5827662037</v>
+        <v>45895.57083333333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4870,8 +4870,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4908,14 +4913,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 22129-2023</t>
+          <t>A 10740-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45069</v>
+        <v>45722.41008101852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4927,13 +4932,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4970,14 +4970,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 35505-2024</t>
+          <t>A 54826-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45531.53869212963</v>
+        <v>44473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4991,11 +4991,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5032,14 +5032,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35514-2024</t>
+          <t>A 33710-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45531.56472222223</v>
+        <v>45520</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 22226-2024</t>
+          <t>A 11813-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45446.4203587963</v>
+        <v>45376.30138888889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 37744-2022</t>
+          <t>A 17179-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44810.58422453704</v>
+        <v>45755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5170,8 +5170,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5208,14 +5213,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 23376-2024</t>
+          <t>A 35498-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45453</v>
+        <v>45531.51796296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5233,7 +5238,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>10.8</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5270,14 +5275,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 47531-2021</t>
+          <t>A 24851-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44447</v>
+        <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5289,8 +5294,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5327,14 +5337,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24851-2021</t>
+          <t>A 17185-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44340</v>
+        <v>45755</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5348,11 +5358,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>10.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5389,14 +5399,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 30229-2024</t>
+          <t>A 38746-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45490.46946759259</v>
+        <v>45887.37974537037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5414,7 +5424,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5451,14 +5461,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 58240-2021</t>
+          <t>A 38741-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44487.88978009259</v>
+        <v>45887.37405092592</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5470,8 +5480,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5508,14 +5523,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 21039-2024</t>
+          <t>A 47639-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45439</v>
+        <v>44448.3966087963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5527,13 +5542,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5570,14 +5580,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25465-2024</t>
+          <t>A 38486-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45463.43416666667</v>
+        <v>45884.34282407408</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5589,13 +5599,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5632,14 +5637,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 62596-2023</t>
+          <t>A 38744-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45271</v>
+        <v>45887.37774305556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5651,8 +5656,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5689,14 +5699,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 41020-2023</t>
+          <t>A 6929-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45173.59236111111</v>
+        <v>44967</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5708,13 +5718,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5751,14 +5756,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 30007-2024</t>
+          <t>A 33979-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45488.60150462963</v>
+        <v>45523.51896990741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5770,13 +5775,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>11.5</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5813,14 +5813,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 30009-2024</t>
+          <t>A 41569-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45488.60546296297</v>
+        <v>45901.60810185185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5875,14 +5875,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 13471-2024</t>
+          <t>A 32827-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45387.57859953704</v>
+        <v>45516.59273148148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5894,8 +5894,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5932,14 +5937,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58787-2021</t>
+          <t>A 41620-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44489.56234953704</v>
+        <v>45901.70319444445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5951,8 +5956,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5989,14 +5999,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 6963-2024</t>
+          <t>A 33978-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45343.4562037037</v>
+        <v>45523.51716435186</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6009,7 +6019,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6046,14 +6056,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 31645-2024</t>
+          <t>A 33984-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45506.60777777778</v>
+        <v>45523.52378472222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6065,13 +6075,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>11.1</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6108,14 +6113,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13745-2023</t>
+          <t>A 1149-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45007</v>
+        <v>45302.49834490741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6127,13 +6132,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6170,14 +6170,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 23545-2025</t>
+          <t>A 25476-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45792</v>
+        <v>45463.44922453703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6189,8 +6189,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6227,14 +6232,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 38486-2025</t>
+          <t>A 18347-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45884.34282407408</v>
+        <v>45762.52913194444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6247,7 +6252,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6284,14 +6289,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 54149-2023</t>
+          <t>A 31613-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45232.4528125</v>
+        <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6304,7 +6309,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6341,14 +6346,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26302-2025</t>
+          <t>A 21039-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45805</v>
+        <v>45439</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6360,8 +6365,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6405,7 +6415,7 @@
         <v>45534.58899305556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6460,14 +6470,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 48063-2024</t>
+          <t>A 28391-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45589.55237268518</v>
+        <v>45477.60254629629</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6479,8 +6489,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6517,14 +6532,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 33979-2024</t>
+          <t>A 20972-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45523.51896990741</v>
+        <v>45777.45725694444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6536,8 +6551,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6574,14 +6594,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 16371-2022</t>
+          <t>A 58369-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44671</v>
+        <v>45250</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6594,7 +6614,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6631,14 +6651,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 38741-2025</t>
+          <t>A 4032-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45887.37405092592</v>
+        <v>45684</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6650,13 +6670,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6693,14 +6708,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 38746-2025</t>
+          <t>A 33296-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45887.37974537037</v>
+        <v>45127.69603009259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6718,7 +6733,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6755,14 +6770,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 47359-2024</t>
+          <t>A 1144-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45587.43547453704</v>
+        <v>45302.49138888889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6775,7 +6790,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6812,14 +6827,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 23355-2024</t>
+          <t>A 21340-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45453</v>
+        <v>45782.38909722222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6831,13 +6846,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6874,14 +6884,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 31471-2025</t>
+          <t>A 51337-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45833.56436342592</v>
+        <v>45219.59144675926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6894,7 +6904,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6931,14 +6941,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 38744-2025</t>
+          <t>A 5554-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45887.37774305556</v>
+        <v>45334</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6950,13 +6960,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>8.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6993,14 +6998,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 11813-2024</t>
+          <t>A 54149-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45376.30138888889</v>
+        <v>45232.4528125</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7013,7 +7018,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7050,14 +7055,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32299-2025</t>
+          <t>A 37743-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45835</v>
+        <v>44810.58275462963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7069,13 +7074,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>12.8</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7112,14 +7112,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 43730-2023</t>
+          <t>A 22844-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45187</v>
+        <v>45790.32160879629</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7131,13 +7131,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7174,14 +7169,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10740-2025</t>
+          <t>A 23666-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45722.41008101852</v>
+        <v>45792.84364583333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7194,7 +7189,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7231,14 +7226,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 40407-2025</t>
+          <t>A 58240-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45895.57083333333</v>
+        <v>44487.88978009259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7250,13 +7245,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7293,14 +7283,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 6929-2023</t>
+          <t>A 43730-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44967</v>
+        <v>45187</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7310,6 +7300,11 @@
       <c r="E95" t="inlineStr">
         <is>
           <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -7350,14 +7345,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25476-2024</t>
+          <t>A 44694-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45463.44922453703</v>
+        <v>45917.59674768519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7375,7 +7370,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>12.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7412,14 +7407,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 41569-2025</t>
+          <t>A 47524-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45901.60810185185</v>
+        <v>45587.63166666667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7431,13 +7426,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7474,14 +7464,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 41620-2025</t>
+          <t>A 13471-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45901.70319444445</v>
+        <v>45387.57859953704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7493,13 +7483,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7536,14 +7521,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 11607-2023</t>
+          <t>A 44692-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44994</v>
+        <v>45917.59540509259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7557,11 +7542,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7598,14 +7583,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 35475-2025</t>
+          <t>A 24395-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45855.67001157408</v>
+        <v>45797.63881944444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7618,7 +7603,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7655,14 +7640,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 35473-2025</t>
+          <t>A 33981-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45855.66804398148</v>
+        <v>45523.52111111111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7675,7 +7660,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7712,14 +7697,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 36180-2025</t>
+          <t>A 59615-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45867.41327546296</v>
+        <v>45254</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7731,8 +7716,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>11.7</v>
+        <v>3.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7769,14 +7759,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 36349-2025</t>
+          <t>A 53517-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45868.48269675926</v>
+        <v>45614.60436342593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7789,7 +7779,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7826,14 +7816,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 44694-2025</t>
+          <t>A 11953-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45917.59674768519</v>
+        <v>45728.56366898148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7851,7 +7841,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>12.1</v>
+        <v>34.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7888,14 +7878,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 11953-2025</t>
+          <t>A 27738-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45728.56366898148</v>
+        <v>45475.45108796296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7909,11 +7899,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>34.8</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7950,14 +7940,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 37444-2025</t>
+          <t>A 37680-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45877.54305555556</v>
+        <v>44810</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7969,13 +7959,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8012,14 +7997,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 37743-2022</t>
+          <t>A 59130-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44810.58275462963</v>
+        <v>45637</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8032,7 +8017,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8069,14 +8054,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 44692-2025</t>
+          <t>A 26753-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45917.59540509259</v>
+        <v>45810.55490740741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8088,13 +8073,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8131,14 +8111,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 37988-2025</t>
+          <t>A 57632-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45881.70454861111</v>
+        <v>44484.39166666667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8150,13 +8130,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8193,14 +8168,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 51337-2023</t>
+          <t>A 58373-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45219.59144675926</v>
+        <v>45250.65805555556</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8213,7 +8188,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8250,14 +8225,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 36278-2024</t>
+          <t>A 41020-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45534.58508101852</v>
+        <v>45173.59236111111</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8275,7 +8250,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>8.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8312,14 +8287,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 17185-2025</t>
+          <t>A 27431-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45755</v>
+        <v>45813</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8333,11 +8308,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>10.3</v>
+        <v>3.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8374,14 +8349,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 37680-2022</t>
+          <t>A 27436-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44810</v>
+        <v>45813</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8393,8 +8368,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8431,14 +8411,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40393-2025</t>
+          <t>A 27438-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45895.55646990741</v>
+        <v>45813.3143287037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8456,7 +8436,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8493,14 +8473,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 47249-2025</t>
+          <t>A 27432-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45930.43439814815</v>
+        <v>45813</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8512,8 +8492,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8550,14 +8535,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47469-2025</t>
+          <t>A 27441-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45930.67037037037</v>
+        <v>45813.31630787037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8569,8 +8554,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8607,14 +8597,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47091-2025</t>
+          <t>A 44356-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45929.65052083333</v>
+        <v>45188.81979166667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8627,7 +8617,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8664,14 +8654,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 47097-2025</t>
+          <t>A 23355-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45929.65541666667</v>
+        <v>45453</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8683,8 +8673,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8721,14 +8716,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 40401-2025</t>
+          <t>A 13744-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45895.56739583334</v>
+        <v>45007</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8742,11 +8737,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>12.6</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8783,14 +8778,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 48232-2025</t>
+          <t>A 47091-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45933.53054398148</v>
+        <v>45929.65052083333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8802,13 +8797,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8845,14 +8835,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 48612-2025</t>
+          <t>A 47097-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45935</v>
+        <v>45929.65541666667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8864,13 +8854,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8907,14 +8892,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 48231-2025</t>
+          <t>A 40393-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45933.52594907407</v>
+        <v>45895.55646990741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8932,7 +8917,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8969,14 +8954,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 27959-2025</t>
+          <t>A 23545-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45816</v>
+        <v>45792</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8988,13 +8973,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>45.6</v>
+        <v>3.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9031,14 +9011,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 48242-2025</t>
+          <t>A 8510-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45933.53510416667</v>
+        <v>44977.56144675926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9050,13 +9030,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9093,14 +9068,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 48609-2025</t>
+          <t>A 26302-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45935</v>
+        <v>45805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9112,13 +9087,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9155,14 +9125,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 48240-2025</t>
+          <t>A 22129-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45933.53292824074</v>
+        <v>45069</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9180,7 +9150,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9217,14 +9187,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47639-2021</t>
+          <t>A 47249-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44448.3966087963</v>
+        <v>45930.43439814815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9237,7 +9207,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9274,14 +9244,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 48241-2025</t>
+          <t>A 40401-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45933.53391203703</v>
+        <v>45895.56739583334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9299,7 +9269,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>12.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9336,14 +9306,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 48252-2025</t>
+          <t>A 25477-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45933.55329861111</v>
+        <v>45463.45015046297</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9353,6 +9323,11 @@
       <c r="E129" t="inlineStr">
         <is>
           <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -9393,14 +9368,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 28133-2024</t>
+          <t>A 43282-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45476.69053240741</v>
+        <v>44432.39119212963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9412,8 +9387,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9450,14 +9430,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 43887-2025</t>
+          <t>A 47469-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45912.69278935185</v>
+        <v>45930.67037037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9469,13 +9449,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9512,14 +9487,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 43885-2025</t>
+          <t>A 31471-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45912.69076388889</v>
+        <v>45833.56436342592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9529,11 +9504,6 @@
       <c r="E132" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -9574,14 +9544,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 33978-2024</t>
+          <t>A 48232-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45523.51716435186</v>
+        <v>45933.53054398148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9593,8 +9563,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9631,14 +9606,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 33984-2024</t>
+          <t>A 48242-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45523.52378472222</v>
+        <v>45933.53510416667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9650,8 +9625,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9688,14 +9668,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 45965-2025</t>
+          <t>A 27959-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45924.35655092593</v>
+        <v>45816</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9709,11 +9689,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>5.8</v>
+        <v>45.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9750,14 +9730,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 36763-2024</t>
+          <t>A 48240-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45538.36181712963</v>
+        <v>45933.53292824074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9769,8 +9749,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9807,14 +9792,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 51225-2025</t>
+          <t>A 48241-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45947.65599537037</v>
+        <v>45933.53391203703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9832,7 +9817,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9869,14 +9854,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 14119-2025</t>
+          <t>A 48252-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45740.4659837963</v>
+        <v>45933.55329861111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9888,13 +9873,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9931,14 +9911,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 10161-2023</t>
+          <t>A 32299-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44986</v>
+        <v>45835</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9952,11 +9932,11 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.6</v>
+        <v>12.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9993,14 +9973,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 52693-2025</t>
+          <t>A 48231-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45956.58960648148</v>
+        <v>45933.52594907407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10012,8 +9992,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10050,14 +10035,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 12057-2021</t>
+          <t>A 48612-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44266</v>
+        <v>45935</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10069,8 +10054,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10107,14 +10097,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 31611-2023</t>
+          <t>A 47495-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45117</v>
+        <v>45587.59559027778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10126,8 +10116,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10164,14 +10159,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 54827-2025</t>
+          <t>A 30007-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45966.66925925926</v>
+        <v>45488.60150462963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10183,8 +10178,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>11.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10221,14 +10221,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54874-2025</t>
+          <t>A 30009-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45967.30939814815</v>
+        <v>45488.60546296297</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10240,8 +10240,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10278,14 +10283,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 54876-2025</t>
+          <t>A 54578-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45967.31611111111</v>
+        <v>45617.65644675926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10298,7 +10303,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10335,14 +10340,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 54877-2025</t>
+          <t>A 48609-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45967.31960648148</v>
+        <v>45935</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10354,8 +10359,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10392,14 +10402,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 55287-2025</t>
+          <t>A 49815-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45969.30730324074</v>
+        <v>45597.39709490741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10412,7 +10422,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10449,14 +10459,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 55288-2025</t>
+          <t>A 37763-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45969.33444444444</v>
+        <v>45156</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10469,7 +10479,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10506,14 +10516,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 8510-2023</t>
+          <t>A 35505-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44977.56144675926</v>
+        <v>45531.53869212963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10525,8 +10535,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10563,14 +10578,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 27738-2024</t>
+          <t>A 43885-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45475.45108796296</v>
+        <v>45912.69076388889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10584,11 +10599,11 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10625,14 +10640,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 31607-2023</t>
+          <t>A 43887-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45117</v>
+        <v>45912.69278935185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10644,8 +10659,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10682,14 +10702,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 13744-2023</t>
+          <t>A 35514-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45007</v>
+        <v>45531.56472222223</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10703,11 +10723,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10744,14 +10764,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 24988-2023</t>
+          <t>A 30229-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45085.64087962963</v>
+        <v>45490.46946759259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10769,7 +10789,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10806,14 +10826,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 47524-2024</t>
+          <t>A 45965-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45587.63166666667</v>
+        <v>45924.35655092593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10825,8 +10845,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10863,14 +10888,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 35114-2023</t>
+          <t>A 2612-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45145</v>
+        <v>45674</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10883,7 +10908,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10920,14 +10945,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 35136-2023</t>
+          <t>A 35473-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45145.52915509259</v>
+        <v>45855.66804398148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10940,7 +10965,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10977,14 +11002,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 57593-2025</t>
+          <t>A 35475-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45980.96055555555</v>
+        <v>45855.67001157408</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10997,7 +11022,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11034,14 +11059,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 57595-2025</t>
+          <t>A 23376-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45980.97019675926</v>
+        <v>45453</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11053,8 +11078,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.6</v>
+        <v>10.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11091,14 +11121,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 57596-2025</t>
+          <t>A 58955-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45980.9716087963</v>
+        <v>45252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11111,7 +11141,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11148,14 +11178,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 57594-2025</t>
+          <t>A 6963-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45980.96221064815</v>
+        <v>45343.4562037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11168,7 +11198,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11205,14 +11235,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 58008-2025</t>
+          <t>A 36180-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45982.45744212963</v>
+        <v>45867.41327546296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11225,7 +11255,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>11.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11262,14 +11292,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 58633-2025</t>
+          <t>A 36349-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45986.48885416667</v>
+        <v>45868.48269675926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11282,7 +11312,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11319,14 +11349,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 58324-2025</t>
+          <t>A 10587-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45985.47690972222</v>
+        <v>44624</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11339,7 +11369,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11376,14 +11406,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 58805-2025</t>
+          <t>A 51225-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45986.9652662037</v>
+        <v>45947.65599537037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11395,8 +11425,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11433,14 +11468,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 659-2026</t>
+          <t>A 31123-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46029.58206018519</v>
+        <v>44368</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11453,7 +11488,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>9.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11490,14 +11525,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 37693-2023</t>
+          <t>A 36763-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45159.57056712963</v>
+        <v>45538.36181712963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11510,7 +11545,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11547,14 +11582,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 37763-2023</t>
+          <t>A 37444-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45156</v>
+        <v>45877.54305555556</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11566,8 +11601,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11604,14 +11644,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49815-2024</t>
+          <t>A 21027-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45597.39709490741</v>
+        <v>45439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11623,8 +11663,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11661,14 +11706,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 681-2026</t>
+          <t>A 21028-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46029</v>
+        <v>45439</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11680,8 +11725,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11718,14 +11768,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 683-2026</t>
+          <t>A 37988-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46029</v>
+        <v>45881.70454861111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11737,8 +11787,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11775,14 +11830,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 54578-2024</t>
+          <t>A 16371-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45617.65644675926</v>
+        <v>44671</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11795,7 +11850,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11832,14 +11887,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 802-2026</t>
+          <t>A 57751-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46030</v>
+        <v>45630.82424768519</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11852,7 +11907,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11889,14 +11944,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 692-2026</t>
+          <t>A 52693-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46029</v>
+        <v>45956.58960648148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11909,7 +11964,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11946,14 +12001,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 64036-2025</t>
+          <t>A 2915-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46021</v>
+        <v>45677.96424768519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11966,7 +12021,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12003,14 +12058,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 688-2026</t>
+          <t>A 32980-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46029</v>
+        <v>45125.59980324074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12060,14 +12115,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 61186-2025</t>
+          <t>A 57400-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46000.58625</v>
+        <v>45629.71085648148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12080,7 +12135,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12117,14 +12172,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 18347-2025</t>
+          <t>A 62596-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45762.52913194444</v>
+        <v>45271</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12137,7 +12192,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12174,14 +12229,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 10184-2022</t>
+          <t>A 25474-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44622</v>
+        <v>45463.44631944445</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12193,8 +12248,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12231,14 +12291,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 10587-2022</t>
+          <t>A 8448-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44624</v>
+        <v>45709</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12251,7 +12311,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12288,14 +12348,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 59130-2024</t>
+          <t>A 47493-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45637</v>
+        <v>45587.59410879629</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12307,8 +12367,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12345,14 +12410,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 35498-2024</t>
+          <t>A 54876-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45531.51796296296</v>
+        <v>45967.31611111111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12364,13 +12429,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12407,14 +12467,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 341-2026</t>
+          <t>A 54877-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46027</v>
+        <v>45967.31960648148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12427,7 +12487,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12464,14 +12524,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 3997-2026</t>
+          <t>A 54874-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46044.38896990741</v>
+        <v>45967.30939814815</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12484,7 +12544,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12521,14 +12581,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 8448-2025</t>
+          <t>A 54827-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45709</v>
+        <v>45966.66925925926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12541,7 +12601,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12578,14 +12638,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61642-2025</t>
+          <t>A 10161-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46002.43494212963</v>
+        <v>44986</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12597,8 +12657,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12635,14 +12700,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 17762-2022</t>
+          <t>A 55288-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44680</v>
+        <v>45969.33444444444</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12655,7 +12720,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12692,14 +12757,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 3614-2026</t>
+          <t>A 55287-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46042.94263888889</v>
+        <v>45969.30730324074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12712,7 +12777,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12749,14 +12814,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 3870-2026</t>
+          <t>A 57596-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46043.64090277778</v>
+        <v>45980.9716087963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12768,13 +12833,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12811,14 +12871,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 3615-2026</t>
+          <t>A 57593-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46042.94633101852</v>
+        <v>45980.96055555555</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12831,7 +12891,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12868,14 +12928,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 4101-2026</t>
+          <t>A 57595-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46044.57539351852</v>
+        <v>45980.97019675926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12888,7 +12948,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12925,14 +12985,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 4104-2026</t>
+          <t>A 57594-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46044.58568287037</v>
+        <v>45980.96221064815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12945,7 +13005,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12982,14 +13042,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 4566-2026</t>
+          <t>A 58324-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46047.87172453704</v>
+        <v>45985.47690972222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13002,7 +13062,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13039,14 +13099,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 4419-2026</t>
+          <t>A 58008-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46045.60791666667</v>
+        <v>45982.45744212963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13059,7 +13119,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13096,14 +13156,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 129-2026</t>
+          <t>A 659-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46024.59600694444</v>
+        <v>46029.58206018519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13116,7 +13176,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13153,14 +13213,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 64000-2025</t>
+          <t>A 58633-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46021.39847222222</v>
+        <v>45986.48885416667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13173,7 +13233,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13210,14 +13270,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 33296-2023</t>
+          <t>A 58805-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45127.69603009259</v>
+        <v>45986.9652662037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13229,13 +13289,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>6.4</v>
+        <v>1.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13272,14 +13327,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 58369-2023</t>
+          <t>A 34232-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45250</v>
+        <v>45127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13291,8 +13346,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13329,14 +13389,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 25477-2024</t>
+          <t>A 681-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45463.45015046297</v>
+        <v>46029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13348,13 +13408,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13391,14 +13446,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 43726-2023</t>
+          <t>A 683-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45187</v>
+        <v>46029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13410,13 +13465,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13453,14 +13503,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 4541-2026</t>
+          <t>A 802-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46046.94703703704</v>
+        <v>46030</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13473,7 +13523,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13510,14 +13560,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 5482-2026</t>
+          <t>A 22226-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46050.60585648148</v>
+        <v>45446.4203587963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13530,7 +13580,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13567,14 +13617,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 892-2026</t>
+          <t>A 37693-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46030.45260416667</v>
+        <v>45159.57056712963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13587,7 +13637,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13624,14 +13674,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 5177-2026</t>
+          <t>A 688-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46049.65239583333</v>
+        <v>46029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13644,7 +13694,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>6.7</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13681,14 +13731,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 837-2026</t>
+          <t>A 341-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46030.3752662037</v>
+        <v>46027</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13701,7 +13751,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13738,14 +13788,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 5549-2026</t>
+          <t>A 692-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46050.71560185185</v>
+        <v>46029</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13758,7 +13808,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13795,14 +13845,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 5249-2026</t>
+          <t>A 3614-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46049.90417824074</v>
+        <v>46042.94263888889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13815,7 +13865,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13852,14 +13902,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 17179-2025</t>
+          <t>A 61186-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45755</v>
+        <v>46000.58625</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13871,13 +13921,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13914,14 +13959,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 58955-2023</t>
+          <t>A 3870-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45252</v>
+        <v>46043.64090277778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13933,8 +13978,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13971,14 +14021,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 64359-2023</t>
+          <t>A 3615-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45280</v>
+        <v>46042.94633101852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13991,7 +14041,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14028,14 +14078,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 5872-2026</t>
+          <t>A 4419-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46052.3731712963</v>
+        <v>46045.60791666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14048,7 +14098,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14085,14 +14135,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 58373-2023</t>
+          <t>A 48063-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45250.65805555556</v>
+        <v>45589.55237268518</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14105,7 +14155,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14142,14 +14192,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 38251-2022</t>
+          <t>A 129-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44812.4874537037</v>
+        <v>46024.59600694444</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14162,7 +14212,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14199,14 +14249,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 7209-2026</t>
+          <t>A 3997-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46058.53673611111</v>
+        <v>46044.38896990741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14218,13 +14268,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14261,14 +14306,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 7207-2026</t>
+          <t>A 17762-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46058.53497685185</v>
+        <v>44680</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14280,13 +14325,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14323,14 +14363,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 7210-2026</t>
+          <t>A 61642-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46058.53807870371</v>
+        <v>46002.43494212963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14342,13 +14382,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14385,14 +14420,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 43282-2021</t>
+          <t>A 4104-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44432.39119212963</v>
+        <v>46044.58568287037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14404,13 +14439,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14447,14 +14477,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 2546-2026</t>
+          <t>A 4101-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46037.46833333333</v>
+        <v>46044.57539351852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14467,7 +14497,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14504,14 +14534,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 3391-2026</t>
+          <t>A 51277-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46042</v>
+        <v>44868.7127662037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14524,7 +14554,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14561,14 +14591,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 7580-2026</t>
+          <t>A 4541-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46061.63731481481</v>
+        <v>46046.94703703704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14581,7 +14611,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14618,14 +14648,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 68079-2021</t>
+          <t>A 5177-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44526.31943287037</v>
+        <v>46049.65239583333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14638,7 +14668,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.3</v>
+        <v>6.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14675,14 +14705,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7581-2026</t>
+          <t>A 4566-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46061.63856481481</v>
+        <v>46047.87172453704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14695,7 +14725,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14732,14 +14762,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 2220-2026</t>
+          <t>A 13745-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46036.50115740741</v>
+        <v>45007</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14751,8 +14781,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14789,14 +14824,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 54826-2021</t>
+          <t>A 5482-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44473</v>
+        <v>46050.60585648148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14808,13 +14843,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14851,14 +14881,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 1149-2024</t>
+          <t>A 5549-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45302.49834490741</v>
+        <v>46050.71560185185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14871,7 +14901,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14908,14 +14938,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 44356-2023</t>
+          <t>A 14119-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45188.81979166667</v>
+        <v>45740.4659837963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14927,8 +14957,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14965,14 +15000,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 47495-2024</t>
+          <t>A 5249-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45587.59559027778</v>
+        <v>46049.90417824074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14984,13 +15019,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15027,14 +15057,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 10602-2022</t>
+          <t>A 892-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44624</v>
+        <v>46030.45260416667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15047,7 +15077,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15084,14 +15114,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 33495-2023</t>
+          <t>A 837-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45118</v>
+        <v>46030.3752662037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15103,13 +15133,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15146,14 +15171,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 31613-2023</t>
+          <t>A 25465-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45117</v>
+        <v>45463.43416666667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15165,8 +15190,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15203,14 +15233,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 6958-2024</t>
+          <t>A 5872-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45343</v>
+        <v>46052.3731712963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15223,7 +15253,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15260,14 +15290,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 57632-2021</t>
+          <t>A 35114-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44484.39166666667</v>
+        <v>45145</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15280,7 +15310,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15317,14 +15347,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 33734-2024</t>
+          <t>A 35136-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45520</v>
+        <v>45145.52915509259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15336,13 +15366,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15379,14 +15404,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 51277-2022</t>
+          <t>A 2546-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44868.7127662037</v>
+        <v>46037.46833333333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15399,7 +15424,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15436,14 +15461,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 47493-2024</t>
+          <t>A 38251-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45587.59410879629</v>
+        <v>44812.4874537037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15455,13 +15480,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15498,14 +15518,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 34232-2023</t>
+          <t>A 7209-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45127</v>
+        <v>46058.53673611111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15519,11 +15539,11 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15560,14 +15580,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 25474-2024</t>
+          <t>A 7210-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45463.44631944445</v>
+        <v>46058.53807870371</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15585,7 +15605,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15622,14 +15642,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 21027-2024</t>
+          <t>A 7207-2026</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45439</v>
+        <v>46058.53497685185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15647,7 +15667,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15684,14 +15704,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 21028-2024</t>
+          <t>A 31607-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45439</v>
+        <v>45117</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15703,13 +15723,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15746,14 +15761,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 2612-2025</t>
+          <t>A 31611-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45674</v>
+        <v>45117</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15766,7 +15781,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15803,14 +15818,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 32980-2023</t>
+          <t>A 64000-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45125.59980324074</v>
+        <v>46021.39847222222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15823,7 +15838,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15860,14 +15875,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 33710-2024</t>
+          <t>A 64036-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45520</v>
+        <v>46021</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15879,13 +15894,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15922,14 +15932,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 43143-2024</t>
+          <t>A 2220-2026</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45567.62359953704</v>
+        <v>46036.50115740741</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15942,7 +15952,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15979,14 +15989,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 31123-2021</t>
+          <t>A 7580-2026</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44368</v>
+        <v>46061.63731481481</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15999,7 +16009,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16036,14 +16046,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 57751-2024</t>
+          <t>A 36278-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45630.82424768519</v>
+        <v>45534.58508101852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16055,8 +16065,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>1.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16093,14 +16108,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 35504-2024</t>
+          <t>A 7581-2026</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45531.53686342593</v>
+        <v>46061.63856481481</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16112,13 +16127,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16155,14 +16165,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 32827-2024</t>
+          <t>A 3391-2026</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45516.59273148148</v>
+        <v>46042</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16174,13 +16184,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>8.5</v>
+        <v>0.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16217,14 +16222,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 2915-2025</t>
+          <t>A 33495-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45677.96424768519</v>
+        <v>45118</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16236,8 +16241,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16274,14 +16284,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 4032-2025</t>
+          <t>A 43143-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45684</v>
+        <v>45567.62359953704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16294,7 +16304,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16331,14 +16341,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 57400-2024</t>
+          <t>A 47359-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45629.71085648148</v>
+        <v>45587.43547453704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16351,7 +16361,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16388,14 +16398,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 28391-2024</t>
+          <t>A 31645-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45477.60254629629</v>
+        <v>45506.60777777778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16413,7 +16423,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.7</v>
+        <v>11.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16450,14 +16460,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 20972-2025</t>
+          <t>A 64359-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45777.45725694444</v>
+        <v>45280</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16469,13 +16479,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16512,14 +16517,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 21340-2025</t>
+          <t>A 58787-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45782.38909722222</v>
+        <v>44489.56234953704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16532,7 +16537,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16569,14 +16574,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 1144-2024</t>
+          <t>A 24988-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45302.49138888889</v>
+        <v>45085.64087962963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16588,8 +16593,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16626,14 +16636,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 5554-2024</t>
+          <t>A 13473-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45334</v>
+        <v>45387.5827662037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16646,7 +16656,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16683,14 +16693,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 22844-2025</t>
+          <t>A 28133-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45790.32160879629</v>
+        <v>45476.69053240741</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16703,7 +16713,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16740,14 +16750,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 23666-2025</t>
+          <t>A 12057-2021</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45792.84364583333</v>
+        <v>44266</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16760,7 +16770,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16797,14 +16807,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 53517-2024</t>
+          <t>A 37744-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45614.60436342593</v>
+        <v>44810.58422453704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16817,7 +16827,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16854,14 +16864,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 59615-2023</t>
+          <t>A 10184-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45254</v>
+        <v>44622</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16873,13 +16883,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16916,14 +16921,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 24395-2025</t>
+          <t>A 10602-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45797.63881944444</v>
+        <v>44624</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16936,7 +16941,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16973,14 +16978,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 33981-2024</t>
+          <t>A 47531-2021</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45523.52111111111</v>
+        <v>44447</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16993,7 +16998,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.3</v>
+        <v>7.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -17030,14 +17035,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 26753-2025</t>
+          <t>A 33734-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45810.55490740741</v>
+        <v>45520</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17049,8 +17054,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17087,14 +17097,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 27438-2025</t>
+          <t>A 11607-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45813.3143287037</v>
+        <v>44994</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17108,11 +17118,11 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17149,14 +17159,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 27432-2025</t>
+          <t>A 43726-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45813</v>
+        <v>45187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17174,7 +17184,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17211,14 +17221,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 27441-2025</t>
+          <t>A 35504-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45813.31630787037</v>
+        <v>45531.53686342593</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17236,7 +17246,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17273,14 +17283,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 27431-2025</t>
+          <t>A 68079-2021</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45813</v>
+        <v>44526.31943287037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17292,13 +17302,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G265" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17335,14 +17340,14 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 27436-2025</t>
+          <t>A 6958-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45813</v>
+        <v>45343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17354,13 +17359,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45784</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44512</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,14 +780,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 528-2024</t>
+          <t>A 8217-2026</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45299</v>
+        <v>46064.46010416667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,39 +800,136 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>4</v>
       </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5</v>
-      </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
         <v>9</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Bitter taggsvamp
+Knärot
+Orange taggsvamp
+Vedtrappmossa
+Dropptaggsvamp
+Fjällig taggsvamp s.str.
+Olivspindling
+Rödgul trumpetsvamp
+Svavelriska</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 8217-2026 artfynd.xlsx", "A 8217-2026")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 8217-2026 karta.png", "A 8217-2026")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 8217-2026 karta knärot.png", "A 8217-2026")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 8217-2026 FSC-klagomål.docx", "A 8217-2026")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 8217-2026 FSC-klagomål mail.docx", "A 8217-2026")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 8217-2026 tillsynsbegäran.docx", "A 8217-2026")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 8217-2026 tillsynsbegäran mail.docx", "A 8217-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 528-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Koppartaggsvamp
 Flattoppad klubbsvamp
@@ -845,125 +942,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 528-2024 artfynd.xlsx", "A 528-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 528-2024 karta.png", "A 528-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 528-2024 FSC-klagomål.docx", "A 528-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 528-2024 FSC-klagomål mail.docx", "A 528-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 528-2024 tillsynsbegäran.docx", "A 528-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 528-2024 tillsynsbegäran mail.docx", "A 528-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 8217-2026</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46064.46010416667</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Bitter taggsvamp
-Knärot
-Orange taggsvamp
-Vedtrappmossa
-Dropptaggsvamp
-Fjällig taggsvamp s.str.
-Olivspindling
-Rödgul trumpetsvamp
-Svavelriska</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 8217-2026 artfynd.xlsx", "A 8217-2026")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 8217-2026 karta.png", "A 8217-2026")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 8217-2026 karta knärot.png", "A 8217-2026")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 8217-2026 FSC-klagomål.docx", "A 8217-2026")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 8217-2026 FSC-klagomål mail.docx", "A 8217-2026")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 8217-2026 tillsynsbegäran.docx", "A 8217-2026")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 8217-2026 tillsynsbegäran mail.docx", "A 8217-2026")</f>
         <v/>
       </c>
     </row>
@@ -977,7 +977,7 @@
         <v>45163</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>44623</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>44816</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,14 +1248,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 47483-2021</t>
+          <t>A 8347-2026</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44447</v>
+        <v>46064.64020833333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,19 +1268,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.9</v>
+        <v>0.9</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1292,408 +1292,408 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Sotriska
+Trådticka</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 8347-2026 artfynd.xlsx", "A 8347-2026")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 8347-2026 karta.png", "A 8347-2026")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 8347-2026 FSC-klagomål.docx", "A 8347-2026")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 8347-2026 FSC-klagomål mail.docx", "A 8347-2026")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 8347-2026 tillsynsbegäran.docx", "A 8347-2026")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 8347-2026 tillsynsbegäran mail.docx", "A 8347-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 35742-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45860.53805555555</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Mörk husmossa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35742-2025 artfynd.xlsx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35742-2025 karta.png", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35742-2025 karta knärot.png", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35742-2025 FSC-klagomål.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35742-2025 FSC-klagomål mail.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35742-2025 tillsynsbegäran.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35742-2025 tillsynsbegäran mail.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 47084-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45929</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>12</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Ullticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47084-2025 artfynd.xlsx", "A 47084-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47084-2025 karta.png", "A 47084-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47084-2025 FSC-klagomål.docx", "A 47084-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47084-2025 FSC-klagomål mail.docx", "A 47084-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47084-2025 tillsynsbegäran.docx", "A 47084-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47084-2025 tillsynsbegäran mail.docx", "A 47084-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 35741-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Vedskivlav</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35741-2025 artfynd.xlsx", "A 35741-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35741-2025 karta.png", "A 35741-2025")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35741-2025 karta knärot.png", "A 35741-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35741-2025 FSC-klagomål.docx", "A 35741-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35741-2025 FSC-klagomål mail.docx", "A 35741-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35741-2025 tillsynsbegäran.docx", "A 35741-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35741-2025 tillsynsbegäran mail.docx", "A 35741-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 47483-2021</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44447</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Knärot
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47483-2021 artfynd.xlsx", "A 47483-2021")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47483-2021 karta.png", "A 47483-2021")</f>
         <v/>
       </c>
-      <c r="U9">
+      <c r="U13">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 47483-2021 karta knärot.png", "A 47483-2021")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47483-2021 FSC-klagomål.docx", "A 47483-2021")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47483-2021 FSC-klagomål mail.docx", "A 47483-2021")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47483-2021 tillsynsbegäran.docx", "A 47483-2021")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47483-2021 tillsynsbegäran mail.docx", "A 47483-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 35742-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45860.53805555555</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Mörk husmossa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35742-2025 artfynd.xlsx", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35742-2025 karta.png", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35742-2025 karta knärot.png", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35742-2025 FSC-klagomål.docx", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35742-2025 FSC-klagomål mail.docx", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35742-2025 tillsynsbegäran.docx", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35742-2025 tillsynsbegäran mail.docx", "A 35742-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 47084-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45929</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>12</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Ullticka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47084-2025 artfynd.xlsx", "A 47084-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47084-2025 karta.png", "A 47084-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47084-2025 FSC-klagomål.docx", "A 47084-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47084-2025 FSC-klagomål mail.docx", "A 47084-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47084-2025 tillsynsbegäran.docx", "A 47084-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47084-2025 tillsynsbegäran mail.docx", "A 47084-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 35741-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Vedskivlav</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35741-2025 artfynd.xlsx", "A 35741-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35741-2025 karta.png", "A 35741-2025")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35741-2025 karta knärot.png", "A 35741-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35741-2025 FSC-klagomål.docx", "A 35741-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35741-2025 FSC-klagomål mail.docx", "A 35741-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35741-2025 tillsynsbegäran.docx", "A 35741-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35741-2025 tillsynsbegäran mail.docx", "A 35741-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 8347-2026</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>46064.64020833333</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Sotriska
-Trådticka</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 8347-2026 artfynd.xlsx", "A 8347-2026")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 8347-2026 karta.png", "A 8347-2026")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 8347-2026 FSC-klagomål.docx", "A 8347-2026")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 8347-2026 FSC-klagomål mail.docx", "A 8347-2026")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 8347-2026 tillsynsbegäran.docx", "A 8347-2026")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 8347-2026 tillsynsbegäran mail.docx", "A 8347-2026")</f>
         <v/>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
         <v>44511</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44559.54373842593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1875,14 +1875,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 33298-2023</t>
+          <t>A 54828-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45127</v>
+        <v>44473</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
@@ -1924,55 +1924,59 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 33298-2023 artfynd.xlsx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 54828-2021 artfynd.xlsx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 33298-2023 karta.png", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 54828-2021 karta.png", "A 54828-2021")</f>
+        <v/>
+      </c>
+      <c r="U16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 54828-2021 karta knärot.png", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 33298-2023 FSC-klagomål.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 54828-2021 FSC-klagomål.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 33298-2023 FSC-klagomål mail.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 54828-2021 FSC-klagomål mail.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 33298-2023 tillsynsbegäran.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 54828-2021 tillsynsbegäran.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 33298-2023 tillsynsbegäran mail.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 54828-2021 tillsynsbegäran mail.docx", "A 54828-2021")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 30008-2024</t>
+          <t>A 28392-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45488.6040162037</v>
+        <v>45477.60362268519</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,13 +1994,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2024,31 +2028,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28392-2024 artfynd.xlsx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28392-2024 karta.png", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28392-2024 FSC-klagomål.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28392-2024 FSC-klagomål mail.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28392-2024 tillsynsbegäran.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28392-2024 tillsynsbegäran mail.docx", "A 28392-2024")</f>
         <v/>
       </c>
     </row>
@@ -2062,7 +2066,7 @@
         <v>45813</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2145,14 +2149,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 23354-2024</t>
+          <t>A 234-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45453</v>
+        <v>44928.66260416667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2170,7 +2174,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2182,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2194,55 +2198,59 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
+        <v/>
+      </c>
+      <c r="U19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 47219-2024</t>
+          <t>A 28397-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45586</v>
+        <v>45477.60549768519</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2260,16 +2268,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2284,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2294,45 +2302,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47219-2024 artfynd.xlsx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47219-2024 karta.png", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47219-2024 FSC-klagomål.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47219-2024 FSC-klagomål mail.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47219-2024 tillsynsbegäran.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47219-2024 tillsynsbegäran mail.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 35521-2024</t>
+          <t>A 23354-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45531.57493055556</v>
+        <v>45453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2350,7 +2358,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2384,45 +2392,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35521-2024 artfynd.xlsx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35521-2024 karta.png", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35521-2024 FSC-klagomål.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35521-2024 FSC-klagomål mail.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35521-2024 tillsynsbegäran.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35521-2024 tillsynsbegäran mail.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 234-2023</t>
+          <t>A 41621-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44928.66260416667</v>
+        <v>45901.70506944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,19 +2448,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2464,59 +2472,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41621-2025 artfynd.xlsx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
-        <v/>
-      </c>
-      <c r="U22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41621-2025 karta.png", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41621-2025 FSC-klagomål.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41621-2025 FSC-klagomål mail.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41621-2025 tillsynsbegäran.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41621-2025 tillsynsbegäran mail.docx", "A 41621-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 21029-2024</t>
+          <t>A 41568-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45439.6528125</v>
+        <v>45901.6075462963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,16 +2538,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>6.8</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2558,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2568,35 +2572,31 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 21029-2024 artfynd.xlsx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41568-2025 artfynd.xlsx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 21029-2024 karta.png", "A 21029-2024")</f>
-        <v/>
-      </c>
-      <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 21029-2024 karta knärot.png", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41568-2025 karta.png", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 21029-2024 FSC-klagomål.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41568-2025 FSC-klagomål.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 21029-2024 FSC-klagomål mail.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41568-2025 FSC-klagomål mail.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 21029-2024 tillsynsbegäran.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41568-2025 tillsynsbegäran.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 21029-2024 tillsynsbegäran mail.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41568-2025 tillsynsbegäran mail.docx", "A 41568-2025")</f>
         <v/>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
         <v>45348</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45860.54238425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,14 +2778,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 28397-2024</t>
+          <t>A 30008-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45477.60549768519</v>
+        <v>45488.6040162037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2837,31 +2837,31 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
         <v>45870.54482638889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2958,14 +2958,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 37011-2025</t>
+          <t>A 37012-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45874.70511574074</v>
+        <v>45874.7066550926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,19 +2983,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3010,56 +3010,52 @@
         <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
-        <v/>
-      </c>
-      <c r="U28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37012-2025</t>
+          <t>A 37011-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45874.7066550926</v>
+        <v>45874.70511574074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3077,19 +3073,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3104,52 +3100,56 @@
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
+        <v/>
+      </c>
+      <c r="U29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 28392-2024</t>
+          <t>A 46058-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45477.60362268519</v>
+        <v>45924</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3163,17 +3163,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3201,45 +3201,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28392-2024 artfynd.xlsx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28392-2024 karta.png", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28392-2024 FSC-klagomål.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28392-2024 FSC-klagomål mail.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28392-2024 tillsynsbegäran.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28392-2024 tillsynsbegäran mail.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 47459-2023</t>
+          <t>A 48709-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45202.83313657407</v>
+        <v>45936.63020833334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3252,20 +3252,20 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>1</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
@@ -3276,55 +3276,59 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47459-2023 artfynd.xlsx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47459-2023 karta.png", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
+        <v/>
+      </c>
+      <c r="U31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47459-2023 FSC-klagomål.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47459-2023 FSC-klagomål mail.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47459-2023 tillsynsbegäran.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47459-2023 tillsynsbegäran mail.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 46058-2025</t>
+          <t>A 43883-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45924</v>
+        <v>45912.68892361111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3338,17 +3342,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>6.2</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3376,45 +3380,49 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
+        <v/>
+      </c>
+      <c r="Z32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 22096-2021</t>
+          <t>A 48702-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44323</v>
+        <v>45936.62197916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3426,13 +3434,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -3470,45 +3473,45 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 22096-2021 artfynd.xlsx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 22096-2021 karta.png", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 22096-2021 karta knärot.png", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 22096-2021 FSC-klagomål.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 22096-2021 FSC-klagomål mail.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 22096-2021 tillsynsbegäran.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 22096-2021 tillsynsbegäran mail.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 54828-2021</t>
+          <t>A 186-2026</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44473</v>
+        <v>46025.54315972222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,13 +3523,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>5.1</v>
+        <v>6.7</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3564,45 +3562,45 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 54828-2021 artfynd.xlsx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 186-2026 artfynd.xlsx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 54828-2021 karta.png", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 186-2026 karta.png", "A 186-2026")</f>
         <v/>
       </c>
       <c r="U34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 54828-2021 karta knärot.png", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 186-2026 karta knärot.png", "A 186-2026")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 54828-2021 FSC-klagomål.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 186-2026 FSC-klagomål.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 54828-2021 FSC-klagomål mail.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 186-2026 FSC-klagomål mail.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 54828-2021 tillsynsbegäran.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 186-2026 tillsynsbegäran.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 54828-2021 tillsynsbegäran mail.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 186-2026 tillsynsbegäran mail.docx", "A 186-2026")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 41621-2025</t>
+          <t>A 47459-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45901.70506944445</v>
+        <v>45202.83313657407</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3614,16 +3612,11 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3654,45 +3647,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41621-2025 artfynd.xlsx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47459-2023 artfynd.xlsx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41621-2025 karta.png", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47459-2023 karta.png", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41621-2025 FSC-klagomål.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47459-2023 FSC-klagomål.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41621-2025 FSC-klagomål mail.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47459-2023 FSC-klagomål mail.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41621-2025 tillsynsbegäran.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47459-2023 tillsynsbegäran.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41621-2025 tillsynsbegäran mail.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47459-2023 tillsynsbegäran mail.docx", "A 47459-2023")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 41568-2025</t>
+          <t>A 687-2026</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45901.6075462963</v>
+        <v>46029</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3702,39 +3695,34 @@
       <c r="E36" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v>6.8</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3744,45 +3732,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Brunklöver</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41568-2025 artfynd.xlsx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 687-2026 artfynd.xlsx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41568-2025 karta.png", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 687-2026 karta.png", "A 687-2026")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41568-2025 FSC-klagomål.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 687-2026 FSC-klagomål.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41568-2025 FSC-klagomål mail.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 687-2026 FSC-klagomål mail.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41568-2025 tillsynsbegäran.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 687-2026 tillsynsbegäran.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41568-2025 tillsynsbegäran mail.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 687-2026 tillsynsbegäran mail.docx", "A 687-2026")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 48709-2025</t>
+          <t>A 33298-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45936.63020833334</v>
+        <v>45127</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,20 +3782,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>5.6</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3819,59 +3812,55 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 33298-2023 artfynd.xlsx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
-        <v/>
-      </c>
-      <c r="U37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 33298-2023 karta.png", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 33298-2023 FSC-klagomål.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 33298-2023 FSC-klagomål mail.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 33298-2023 tillsynsbegäran.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 33298-2023 tillsynsbegäran mail.docx", "A 33298-2023")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 43883-2025</t>
+          <t>A 35521-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45912.68892361111</v>
+        <v>45531.57493055556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3889,7 +3878,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.2</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -3923,49 +3912,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35521-2024 artfynd.xlsx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35521-2024 karta.png", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35521-2024 FSC-klagomål.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35521-2024 FSC-klagomål mail.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35521-2024 tillsynsbegäran.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
-        <v/>
-      </c>
-      <c r="Z38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35521-2024 tillsynsbegäran mail.docx", "A 35521-2024")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 48702-2025</t>
+          <t>A 22096-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45936.62197916667</v>
+        <v>44323</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3977,8 +3962,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -4016,45 +4006,45 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 22096-2021 artfynd.xlsx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 22096-2021 karta.png", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="U39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 22096-2021 karta knärot.png", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 22096-2021 FSC-klagomål.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 22096-2021 FSC-klagomål mail.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 22096-2021 tillsynsbegäran.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 22096-2021 tillsynsbegäran mail.docx", "A 22096-2021")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 186-2026</t>
+          <t>A 21029-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46025.54315972222</v>
+        <v>45439.6528125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4066,20 +4056,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4094,56 +4089,56 @@
         <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 186-2026 artfynd.xlsx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 21029-2024 artfynd.xlsx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 186-2026 karta.png", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 21029-2024 karta.png", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="U40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 186-2026 karta knärot.png", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 21029-2024 karta knärot.png", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 186-2026 FSC-klagomål.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 21029-2024 FSC-klagomål.docx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 186-2026 FSC-klagomål mail.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 21029-2024 FSC-klagomål mail.docx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 186-2026 tillsynsbegäran.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 21029-2024 tillsynsbegäran.docx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 186-2026 tillsynsbegäran mail.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 21029-2024 tillsynsbegäran mail.docx", "A 21029-2024")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 687-2026</t>
+          <t>A 47219-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>46029</v>
+        <v>45586</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4155,8 +4150,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4190,45 +4190,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Brunklöver</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 687-2026 artfynd.xlsx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47219-2024 artfynd.xlsx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 687-2026 karta.png", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47219-2024 karta.png", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 687-2026 FSC-klagomål.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47219-2024 FSC-klagomål.docx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 687-2026 FSC-klagomål mail.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47219-2024 FSC-klagomål mail.docx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 687-2026 tillsynsbegäran.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47219-2024 tillsynsbegäran.docx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 687-2026 tillsynsbegäran mail.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47219-2024 tillsynsbegäran mail.docx", "A 47219-2024")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 31205-2022</t>
+          <t>A 51205-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44770</v>
+        <v>44868.61302083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 51205-2022</t>
+          <t>A 31205-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44868.61302083333</v>
+        <v>44770</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>44314</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>44582.37412037037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>44501.57883101852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>44447.66321759259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>44504.60092592592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44512</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>44456</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4744,14 +4744,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 52320-2022</t>
+          <t>A 16985-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44873</v>
+        <v>44295.6012962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4801,14 +4801,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16985-2021</t>
+          <t>A 13807-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44295.6012962963</v>
+        <v>44649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4858,14 +4858,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 13807-2022</t>
+          <t>A 52320-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44649</v>
+        <v>44873</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4915,14 +4915,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 21039-2024</t>
+          <t>A 19292-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45439</v>
+        <v>44692</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4934,13 +4934,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4977,14 +4972,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 25465-2024</t>
+          <t>A 51202-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45463.43416666667</v>
+        <v>44868.60868055555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5002,7 +4997,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>11.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5039,14 +5034,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 62596-2023</t>
+          <t>A 17179-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45271</v>
+        <v>45755</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5058,8 +5053,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5096,14 +5096,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 19292-2022</t>
+          <t>A 35498-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44692</v>
+        <v>45531.51796296296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5115,8 +5115,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5153,14 +5158,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 51202-2022</t>
+          <t>A 24851-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44868.60868055555</v>
+        <v>44340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5178,7 +5183,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>11.3</v>
+        <v>1.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5215,14 +5220,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 36763-2024</t>
+          <t>A 6929-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45538.36181712963</v>
+        <v>44967</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5235,7 +5240,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5272,14 +5277,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 13473-2024</t>
+          <t>A 33979-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45387.5827662037</v>
+        <v>45523.51896990741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5292,7 +5297,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5329,14 +5334,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 41020-2023</t>
+          <t>A 33978-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45173.59236111111</v>
+        <v>45523.51716435186</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5348,13 +5353,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5391,14 +5391,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14119-2025</t>
+          <t>A 33984-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45740.4659837963</v>
+        <v>45523.52378472222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5410,13 +5410,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5453,14 +5448,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 22129-2023</t>
+          <t>A 58369-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45069</v>
+        <v>45250</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5472,13 +5467,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5515,14 +5505,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 10161-2023</t>
+          <t>A 28391-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44986</v>
+        <v>45477.60254629629</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,11 +5526,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5577,14 +5567,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35505-2024</t>
+          <t>A 33296-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45531.53869212963</v>
+        <v>45127.69603009259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5602,7 +5592,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5639,14 +5629,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 35514-2024</t>
+          <t>A 4032-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45531.56472222223</v>
+        <v>45684</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5658,13 +5648,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5701,14 +5686,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 30007-2024</t>
+          <t>A 51337-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45488.60150462963</v>
+        <v>45219.59144675926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5720,13 +5705,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>11.5</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5763,14 +5743,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30009-2024</t>
+          <t>A 7209-2026</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45488.60546296297</v>
+        <v>46058.53673611111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5788,7 +5768,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5825,14 +5805,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 12057-2021</t>
+          <t>A 7210-2026</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44266</v>
+        <v>46058.53807870371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5844,8 +5824,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5882,14 +5867,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 31611-2023</t>
+          <t>A 7207-2026</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45117</v>
+        <v>46058.53497685185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5901,8 +5886,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5939,14 +5929,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 13471-2024</t>
+          <t>A 54149-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45387.57859953704</v>
+        <v>45232.4528125</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5959,7 +5949,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5996,14 +5986,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58787-2021</t>
+          <t>A 24395-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44489.56234953704</v>
+        <v>45797.63881944444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6016,7 +6006,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6053,14 +6043,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 23376-2024</t>
+          <t>A 37743-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45453</v>
+        <v>44810.58275462963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6072,13 +6062,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>10.8</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6115,14 +6100,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 22226-2024</t>
+          <t>A 11813-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45446.4203587963</v>
+        <v>45376.30138888889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6135,7 +6120,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6172,14 +6157,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 37744-2022</t>
+          <t>A 33981-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44810.58422453704</v>
+        <v>45523.52111111111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6192,7 +6177,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6229,14 +6214,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 13745-2023</t>
+          <t>A 64000-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45007</v>
+        <v>46021.39847222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6248,13 +6233,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6291,14 +6271,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 47531-2021</t>
+          <t>A 59615-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44447</v>
+        <v>45254</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6310,8 +6290,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>7.6</v>
+        <v>3.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6348,14 +6333,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 24851-2021</t>
+          <t>A 53517-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44340</v>
+        <v>45614.60436342593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6367,13 +6352,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6410,14 +6390,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 6963-2024</t>
+          <t>A 64036-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45343.4562037037</v>
+        <v>46021</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6430,7 +6410,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6467,14 +6447,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31645-2024</t>
+          <t>A 38746-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45506.60777777778</v>
+        <v>45887.37974537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6492,7 +6472,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>11.1</v>
+        <v>3.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6529,14 +6509,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 8510-2023</t>
+          <t>A 2220-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44977.56144675926</v>
+        <v>46036.50115740741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6549,7 +6529,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6586,14 +6566,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 27738-2024</t>
+          <t>A 38741-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45475.45108796296</v>
+        <v>45887.37405092592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6607,11 +6587,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6648,14 +6628,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 58240-2021</t>
+          <t>A 7580-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44487.88978009259</v>
+        <v>46061.63731481481</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6668,7 +6648,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6705,14 +6685,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31607-2023</t>
+          <t>A 38486-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45117</v>
+        <v>45884.34282407408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6725,7 +6705,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6762,14 +6742,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 30229-2024</t>
+          <t>A 38744-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45490.46946759259</v>
+        <v>45887.37774305556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6787,7 +6767,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6824,14 +6804,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13744-2023</t>
+          <t>A 7581-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45007</v>
+        <v>46061.63856481481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6841,11 +6821,6 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -6886,14 +6861,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 54149-2023</t>
+          <t>A 3391-2026</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45232.4528125</v>
+        <v>46042</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6906,7 +6881,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6943,14 +6918,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24988-2023</t>
+          <t>A 58240-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45085.64087962963</v>
+        <v>44487.88978009259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6962,13 +6937,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7005,14 +6975,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 36283-2024</t>
+          <t>A 8314-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45534.58899305556</v>
+        <v>46064.60053240741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7024,13 +6994,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>6.9</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7067,14 +7032,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 1149-2024</t>
+          <t>A 8279-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45302.49834490741</v>
+        <v>46064.55806712963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7086,8 +7051,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7124,14 +7094,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 48063-2024</t>
+          <t>A 43730-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45589.55237268518</v>
+        <v>45187</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7143,8 +7113,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7181,14 +7156,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 33979-2024</t>
+          <t>A 26753-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45523.51896990741</v>
+        <v>45810.55490740741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7201,7 +7176,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7238,14 +7213,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 44356-2023</t>
+          <t>A 47524-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45188.81979166667</v>
+        <v>45587.63166666667</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7258,7 +7233,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7295,14 +7270,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 47524-2024</t>
+          <t>A 13471-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45587.63166666667</v>
+        <v>45387.57859953704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7315,7 +7290,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7352,14 +7327,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 16371-2022</t>
+          <t>A 8321-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44671</v>
+        <v>46064.60894675926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7372,7 +7347,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7409,14 +7384,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 35114-2023</t>
+          <t>A 8324-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45145</v>
+        <v>46064.61172453704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7429,7 +7404,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7466,14 +7441,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35136-2023</t>
+          <t>A 8202-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45145.52915509259</v>
+        <v>46064.44456018518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7486,7 +7461,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7523,14 +7498,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26753-2025</t>
+          <t>A 8250-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45810.55490740741</v>
+        <v>46064.49732638889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7580,14 +7555,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 47359-2024</t>
+          <t>A 8275-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45587.43547453704</v>
+        <v>46064.55445601852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7599,8 +7574,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>13.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7637,14 +7617,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 27438-2025</t>
+          <t>A 8239-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45813.3143287037</v>
+        <v>46064.48892361111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7654,11 +7634,6 @@
       <c r="E100" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -7699,14 +7674,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 23355-2024</t>
+          <t>A 27431-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45453</v>
+        <v>45813</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7724,7 +7699,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7761,14 +7736,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 27432-2025</t>
+          <t>A 27436-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
         <v>45813</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7786,7 +7761,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7823,14 +7798,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 27441-2025</t>
+          <t>A 27438-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45813.31630787037</v>
+        <v>45813.3143287037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7848,7 +7823,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7885,14 +7860,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 27431-2025</t>
+          <t>A 27432-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
         <v>45813</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7910,7 +7885,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7947,14 +7922,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27436-2025</t>
+          <t>A 27441-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45813</v>
+        <v>45813.31630787037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7972,7 +7947,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8009,14 +7984,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 47495-2024</t>
+          <t>A 11953-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45587.59559027778</v>
+        <v>45728.56366898148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,7 +8009,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.2</v>
+        <v>34.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8071,14 +8046,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43730-2023</t>
+          <t>A 27738-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45187</v>
+        <v>45475.45108796296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8092,11 +8067,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8133,14 +8108,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 23545-2025</t>
+          <t>A 37680-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45792</v>
+        <v>44810</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8153,7 +8128,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8190,14 +8165,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 6929-2023</t>
+          <t>A 23545-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44967</v>
+        <v>45792</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8210,7 +8185,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8247,14 +8222,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 26302-2025</t>
+          <t>A 59130-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45805</v>
+        <v>45637</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8267,7 +8242,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8304,14 +8279,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 11607-2023</t>
+          <t>A 26302-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44994</v>
+        <v>45805</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8323,13 +8298,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8366,14 +8336,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 37693-2023</t>
+          <t>A 57632-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45159.57056712963</v>
+        <v>44484.39166666667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8386,7 +8356,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8423,14 +8393,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 37763-2023</t>
+          <t>A 58373-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45156</v>
+        <v>45250.65805555556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8443,7 +8413,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8480,14 +8450,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 31471-2025</t>
+          <t>A 41020-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45833.56436342592</v>
+        <v>45173.59236111111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8499,8 +8469,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8537,14 +8512,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 49815-2024</t>
+          <t>A 40407-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45597.39709490741</v>
+        <v>45895.57083333333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8556,8 +8531,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8594,14 +8574,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 10602-2022</t>
+          <t>A 44356-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44624</v>
+        <v>45188.81979166667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8614,7 +8594,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8651,14 +8631,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 32299-2025</t>
+          <t>A 10740-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45835</v>
+        <v>45722.41008101852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8670,13 +8650,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>12.8</v>
+        <v>2.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8713,14 +8688,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 54578-2024</t>
+          <t>A 23355-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45617.65644675926</v>
+        <v>45453</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8732,8 +8707,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8770,14 +8750,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 33495-2023</t>
+          <t>A 31471-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45118</v>
+        <v>45833.56436342592</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8789,13 +8769,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8832,14 +8807,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 18347-2025</t>
+          <t>A 13744-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45762.52913194444</v>
+        <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8851,8 +8826,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8889,14 +8869,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 10184-2022</t>
+          <t>A 32299-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44622</v>
+        <v>45835</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8908,8 +8888,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>12.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8946,14 +8931,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 31613-2023</t>
+          <t>A 8510-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45117</v>
+        <v>44977.56144675926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8966,7 +8951,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9003,14 +8988,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 10587-2022</t>
+          <t>A 41569-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44624</v>
+        <v>45901.60810185185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9022,8 +9007,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9060,14 +9050,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 6958-2024</t>
+          <t>A 41620-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45343</v>
+        <v>45901.70319444445</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9079,8 +9069,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9117,14 +9112,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 59130-2024</t>
+          <t>A 22129-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45637</v>
+        <v>45069</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9136,8 +9131,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9174,14 +9174,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 35498-2024</t>
+          <t>A 25476-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45531.51796296296</v>
+        <v>45463.44922453703</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9236,14 +9236,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 57632-2021</t>
+          <t>A 25477-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44484.39166666667</v>
+        <v>45463.45015046297</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9255,8 +9255,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9293,14 +9298,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 33734-2024</t>
+          <t>A 43282-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45520</v>
+        <v>44432.39119212963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9318,7 +9323,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9355,14 +9360,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 8448-2025</t>
+          <t>A 35473-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45709</v>
+        <v>45855.66804398148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9375,7 +9380,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9412,14 +9417,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17762-2022</t>
+          <t>A 35475-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44680</v>
+        <v>45855.67001157408</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9432,7 +9437,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9469,14 +9474,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 35475-2025</t>
+          <t>A 47495-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45855.67001157408</v>
+        <v>45587.59559027778</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9488,8 +9493,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9526,14 +9536,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 35473-2025</t>
+          <t>A 30007-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45855.66804398148</v>
+        <v>45488.60150462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9545,8 +9555,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>3.3</v>
+        <v>11.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9583,14 +9598,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 11953-2025</t>
+          <t>A 30009-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45728.56366898148</v>
+        <v>45488.60546296297</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9608,7 +9623,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>34.8</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9645,14 +9660,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 33296-2023</t>
+          <t>A 54578-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45127.69603009259</v>
+        <v>45617.65644675926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9664,13 +9679,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9707,14 +9717,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 58369-2023</t>
+          <t>A 36180-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45250</v>
+        <v>45867.41327546296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9727,7 +9737,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.1</v>
+        <v>11.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9764,14 +9774,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 37743-2022</t>
+          <t>A 49815-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44810.58275462963</v>
+        <v>45597.39709490741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9784,7 +9794,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9821,14 +9831,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 25477-2024</t>
+          <t>A 37763-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45463.45015046297</v>
+        <v>45156</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9840,13 +9850,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9883,14 +9888,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 43726-2023</t>
+          <t>A 36349-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45187</v>
+        <v>45868.48269675926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9902,13 +9907,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9945,14 +9945,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 36180-2025</t>
+          <t>A 35505-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45867.41327546296</v>
+        <v>45531.53869212963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9964,8 +9964,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>11.7</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10002,14 +10007,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 36349-2025</t>
+          <t>A 35514-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45868.48269675926</v>
+        <v>45531.56472222223</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10021,8 +10026,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10059,14 +10069,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 51337-2023</t>
+          <t>A 30229-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45219.59144675926</v>
+        <v>45490.46946759259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10078,8 +10088,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10116,14 +10131,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 36278-2024</t>
+          <t>A 2612-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45534.58508101852</v>
+        <v>45674</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10135,13 +10150,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>8.699999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10178,14 +10188,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 17185-2025</t>
+          <t>A 37444-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45755</v>
+        <v>45877.54305555556</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10199,11 +10209,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>10.3</v>
+        <v>4.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10240,14 +10250,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 51277-2022</t>
+          <t>A 37988-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44868.7127662037</v>
+        <v>45881.70454861111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10259,8 +10269,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10297,14 +10312,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 17179-2025</t>
+          <t>A 23376-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45755</v>
+        <v>45453</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10318,11 +10333,11 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.3</v>
+        <v>10.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10359,14 +10374,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 37680-2022</t>
+          <t>A 58955-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44810</v>
+        <v>45252</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10379,7 +10394,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10416,14 +10431,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58955-2023</t>
+          <t>A 6963-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45252</v>
+        <v>45343.4562037037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10436,7 +10451,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10473,14 +10488,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 37444-2025</t>
+          <t>A 44694-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45877.54305555556</v>
+        <v>45917.59674768519</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10498,7 +10513,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.8</v>
+        <v>12.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10535,14 +10550,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 64359-2023</t>
+          <t>A 44692-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45280</v>
+        <v>45917.59540509259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10554,8 +10569,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10592,14 +10612,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 58373-2023</t>
+          <t>A 10587-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45250.65805555556</v>
+        <v>44624</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10612,7 +10632,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10649,14 +10669,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 37988-2025</t>
+          <t>A 31123-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45881.70454861111</v>
+        <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10668,13 +10688,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10711,14 +10726,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 38251-2022</t>
+          <t>A 36763-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44812.4874537037</v>
+        <v>45538.36181712963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10731,7 +10746,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10768,14 +10783,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 47493-2024</t>
+          <t>A 21027-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45587.59410879629</v>
+        <v>45439</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10793,7 +10808,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10830,14 +10845,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 34232-2023</t>
+          <t>A 21028-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45127</v>
+        <v>45439</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10851,11 +10866,11 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10892,14 +10907,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 47639-2021</t>
+          <t>A 16371-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44448.3966087963</v>
+        <v>44671</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10912,7 +10927,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10949,14 +10964,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 28133-2024</t>
+          <t>A 47091-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45476.69053240741</v>
+        <v>45929.65052083333</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10969,7 +10984,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -11006,14 +11021,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 43282-2021</t>
+          <t>A 47097-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44432.39119212963</v>
+        <v>45929.65541666667</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11025,13 +11040,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11068,14 +11078,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 25474-2024</t>
+          <t>A 40393-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45463.44631944445</v>
+        <v>45895.55646990741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11093,7 +11103,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11130,14 +11140,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 33978-2024</t>
+          <t>A 57751-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45523.51716435186</v>
+        <v>45630.82424768519</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11150,7 +11160,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11187,14 +11197,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 33984-2024</t>
+          <t>A 47249-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45523.52378472222</v>
+        <v>45930.43439814815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11207,7 +11217,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11244,14 +11254,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 68079-2021</t>
+          <t>A 40401-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44526.31943287037</v>
+        <v>45895.56739583334</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11263,8 +11273,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>2.3</v>
+        <v>12.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11301,14 +11316,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 38486-2025</t>
+          <t>A 47469-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45884.34282407408</v>
+        <v>45930.67037037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11321,7 +11336,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11358,14 +11373,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 38741-2025</t>
+          <t>A 48232-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45887.37405092592</v>
+        <v>45933.53054398148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11383,7 +11398,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11420,14 +11435,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 38746-2025</t>
+          <t>A 48242-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45887.37974537037</v>
+        <v>45933.53510416667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11445,7 +11460,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11482,14 +11497,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 21027-2024</t>
+          <t>A 27959-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45439</v>
+        <v>45816</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11503,11 +11518,11 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.9</v>
+        <v>45.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11544,14 +11559,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 21028-2024</t>
+          <t>A 48240-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45439</v>
+        <v>45933.53292824074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11569,7 +11584,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11606,14 +11621,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 2612-2025</t>
+          <t>A 48241-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45674</v>
+        <v>45933.53391203703</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11625,8 +11640,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11663,14 +11683,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 32980-2023</t>
+          <t>A 48252-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45125.59980324074</v>
+        <v>45933.55329861111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11683,7 +11703,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11720,14 +11740,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 38744-2025</t>
+          <t>A 48231-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45887.37774305556</v>
+        <v>45933.52594907407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11745,7 +11765,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>8.199999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11782,14 +11802,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 54826-2021</t>
+          <t>A 48612-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44473</v>
+        <v>45935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11807,7 +11827,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11844,14 +11864,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 11813-2024</t>
+          <t>A 48609-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45376.30138888889</v>
+        <v>45935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11863,8 +11883,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11901,14 +11926,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 33710-2024</t>
+          <t>A 2915-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45520</v>
+        <v>45677.96424768519</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11920,13 +11945,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11963,14 +11983,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 10740-2025</t>
+          <t>A 32980-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45722.41008101852</v>
+        <v>45125.59980324074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11983,7 +12003,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -12020,14 +12040,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 40407-2025</t>
+          <t>A 57400-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45895.57083333333</v>
+        <v>45629.71085648148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12039,13 +12059,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12082,14 +12097,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 43143-2024</t>
+          <t>A 43885-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45567.62359953704</v>
+        <v>45912.69076388889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12101,8 +12116,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12139,14 +12159,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 25476-2024</t>
+          <t>A 43887-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45463.44922453703</v>
+        <v>45912.69278935185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12164,7 +12184,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12201,14 +12221,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 41569-2025</t>
+          <t>A 62596-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45901.60810185185</v>
+        <v>45271</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12220,13 +12240,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12263,14 +12278,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 41620-2025</t>
+          <t>A 45965-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45901.70319444445</v>
+        <v>45924.35655092593</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12288,7 +12303,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12325,14 +12340,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 31123-2021</t>
+          <t>A 25474-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44368</v>
+        <v>45463.44631944445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12344,8 +12359,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12382,14 +12402,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 57751-2024</t>
+          <t>A 8448-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45630.82424768519</v>
+        <v>45709</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12402,7 +12422,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12439,14 +12459,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 35504-2024</t>
+          <t>A 47493-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45531.53686342593</v>
+        <v>45587.59410879629</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12464,7 +12484,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12501,14 +12521,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 32827-2024</t>
+          <t>A 51225-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45516.59273148148</v>
+        <v>45947.65599537037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12526,7 +12546,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12563,14 +12583,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 2915-2025</t>
+          <t>A 10161-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45677.96424768519</v>
+        <v>44986</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12582,8 +12602,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12620,14 +12645,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 4032-2025</t>
+          <t>A 52693-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45684</v>
+        <v>45956.58960648148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12640,7 +12665,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12677,14 +12702,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 44694-2025</t>
+          <t>A 34232-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45917.59674768519</v>
+        <v>45127</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12698,11 +12723,11 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>12.1</v>
+        <v>5.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12739,14 +12764,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 44692-2025</t>
+          <t>A 54876-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45917.59540509259</v>
+        <v>45967.31611111111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12758,13 +12783,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12801,14 +12821,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 57400-2024</t>
+          <t>A 54877-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45629.71085648148</v>
+        <v>45967.31960648148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12821,7 +12841,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12858,14 +12878,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 28391-2024</t>
+          <t>A 54874-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45477.60254629629</v>
+        <v>45967.30939814815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12877,13 +12897,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12920,14 +12935,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 20972-2025</t>
+          <t>A 22226-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45777.45725694444</v>
+        <v>45446.4203587963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12939,13 +12954,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12982,14 +12992,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 21340-2025</t>
+          <t>A 54827-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45782.38909722222</v>
+        <v>45966.66925925926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13002,7 +13012,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -13039,14 +13049,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 40393-2025</t>
+          <t>A 37693-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45895.55646990741</v>
+        <v>45159.57056712963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13058,13 +13068,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -13101,14 +13106,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 47249-2025</t>
+          <t>A 55288-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45930.43439814815</v>
+        <v>45969.33444444444</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13121,7 +13126,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13158,14 +13163,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 47469-2025</t>
+          <t>A 55287-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45930.67037037037</v>
+        <v>45969.30730324074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13178,7 +13183,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13215,14 +13220,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 1144-2024</t>
+          <t>A 57596-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45302.49138888889</v>
+        <v>45980.9716087963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13235,7 +13240,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13272,14 +13277,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 47091-2025</t>
+          <t>A 57593-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45929.65052083333</v>
+        <v>45980.96055555555</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13292,7 +13297,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13329,14 +13334,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 47097-2025</t>
+          <t>A 57595-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45929.65541666667</v>
+        <v>45980.97019675926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13349,7 +13354,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13386,14 +13391,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 40401-2025</t>
+          <t>A 48063-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45895.56739583334</v>
+        <v>45589.55237268518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13405,13 +13410,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>12.6</v>
+        <v>3.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13448,14 +13448,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 48232-2025</t>
+          <t>A 57594-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45933.53054398148</v>
+        <v>45980.96221064815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13467,13 +13467,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13510,14 +13505,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 48612-2025</t>
+          <t>A 58324-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45935</v>
+        <v>45985.47690972222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13529,13 +13524,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13572,14 +13562,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 48231-2025</t>
+          <t>A 58008-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45933.52594907407</v>
+        <v>45982.45744212963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13591,13 +13581,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13634,14 +13619,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 27959-2025</t>
+          <t>A 17762-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45816</v>
+        <v>44680</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13653,13 +13638,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>45.6</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13696,14 +13676,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 5554-2024</t>
+          <t>A 51277-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45334</v>
+        <v>44868.7127662037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13716,7 +13696,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13753,14 +13733,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 48242-2025</t>
+          <t>A 659-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45933.53510416667</v>
+        <v>46029.58206018519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13772,13 +13752,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>3.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13815,14 +13790,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 48609-2025</t>
+          <t>A 58633-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45935</v>
+        <v>45986.48885416667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13834,13 +13809,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13877,14 +13847,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 48240-2025</t>
+          <t>A 58805-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45933.53292824074</v>
+        <v>45986.9652662037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13894,11 +13864,6 @@
       <c r="E205" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G205" t="n">
@@ -13939,14 +13904,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 48241-2025</t>
+          <t>A 13745-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45933.53391203703</v>
+        <v>45007</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13960,11 +13925,11 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -14001,14 +13966,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 48252-2025</t>
+          <t>A 14119-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45933.55329861111</v>
+        <v>45740.4659837963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14020,8 +13985,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -14058,14 +14028,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 43887-2025</t>
+          <t>A 681-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45912.69278935185</v>
+        <v>46029</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14077,13 +14047,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -14120,14 +14085,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 43885-2025</t>
+          <t>A 683-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45912.69076388889</v>
+        <v>46029</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14139,13 +14104,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14182,14 +14142,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 45965-2025</t>
+          <t>A 25465-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45924.35655092593</v>
+        <v>45463.43416666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14207,7 +14167,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14244,14 +14204,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 22844-2025</t>
+          <t>A 802-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45790.32160879629</v>
+        <v>46030</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14264,7 +14224,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14301,14 +14261,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 51225-2025</t>
+          <t>A 688-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45947.65599537037</v>
+        <v>46029</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14320,13 +14280,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14363,14 +14318,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 52693-2025</t>
+          <t>A 341-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45956.58960648148</v>
+        <v>46027</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14383,7 +14338,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14420,14 +14375,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 23666-2025</t>
+          <t>A 35114-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45792.84364583333</v>
+        <v>45145</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14440,7 +14395,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14477,14 +14432,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 53517-2024</t>
+          <t>A 35136-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45614.60436342593</v>
+        <v>45145.52915509259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14497,7 +14452,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14534,14 +14489,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 59615-2023</t>
+          <t>A 692-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45254</v>
+        <v>46029</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14553,13 +14508,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14596,14 +14546,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 24395-2025</t>
+          <t>A 38251-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45797.63881944444</v>
+        <v>44812.4874537037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14653,14 +14603,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 33981-2024</t>
+          <t>A 3614-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45523.52111111111</v>
+        <v>46042.94263888889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14673,7 +14623,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14710,14 +14660,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 54827-2025</t>
+          <t>A 61186-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45966.66925925926</v>
+        <v>46000.58625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14730,7 +14680,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14767,14 +14717,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 54874-2025</t>
+          <t>A 3870-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45967.30939814815</v>
+        <v>46043.64090277778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14786,8 +14736,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14824,14 +14779,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 54876-2025</t>
+          <t>A 31607-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45967.31611111111</v>
+        <v>45117</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14844,7 +14799,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14881,14 +14836,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 54877-2025</t>
+          <t>A 31611-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45967.31960648148</v>
+        <v>45117</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14901,7 +14856,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14938,14 +14893,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 55287-2025</t>
+          <t>A 3615-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45969.30730324074</v>
+        <v>46042.94633101852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14958,7 +14913,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14995,14 +14950,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 55288-2025</t>
+          <t>A 4419-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45969.33444444444</v>
+        <v>46045.60791666667</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15015,7 +14970,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -15052,14 +15007,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 57593-2025</t>
+          <t>A 129-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45980.96055555555</v>
+        <v>46024.59600694444</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15072,7 +15027,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -15109,14 +15064,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 57595-2025</t>
+          <t>A 3997-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45980.97019675926</v>
+        <v>46044.38896990741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15129,7 +15084,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15166,14 +15121,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 57596-2025</t>
+          <t>A 61642-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45980.9716087963</v>
+        <v>46002.43494212963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15186,7 +15141,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15223,14 +15178,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 57594-2025</t>
+          <t>A 4104-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45980.96221064815</v>
+        <v>46044.58568287037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15243,7 +15198,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15280,14 +15235,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 58008-2025</t>
+          <t>A 4101-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45982.45744212963</v>
+        <v>46044.57539351852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15300,7 +15255,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15337,14 +15292,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 58633-2025</t>
+          <t>A 4541-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45986.48885416667</v>
+        <v>46046.94703703704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15357,7 +15312,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15394,14 +15349,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 58324-2025</t>
+          <t>A 36278-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45985.47690972222</v>
+        <v>45534.58508101852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15413,8 +15368,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>1.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15451,14 +15411,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 58805-2025</t>
+          <t>A 5177-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45986.9652662037</v>
+        <v>46049.65239583333</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15471,7 +15431,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15508,14 +15468,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 659-2026</t>
+          <t>A 4566-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46029.58206018519</v>
+        <v>46047.87172453704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15528,7 +15488,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>9.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15565,14 +15525,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 681-2026</t>
+          <t>A 5482-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46029</v>
+        <v>46050.60585648148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15585,7 +15545,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15622,14 +15582,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 683-2026</t>
+          <t>A 5549-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46029</v>
+        <v>46050.71560185185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15642,7 +15602,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15679,14 +15639,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 802-2026</t>
+          <t>A 5249-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46030</v>
+        <v>46049.90417824074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15699,7 +15659,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15736,14 +15696,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 692-2026</t>
+          <t>A 892-2026</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46029</v>
+        <v>46030.45260416667</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15756,7 +15716,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15793,14 +15753,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 688-2026</t>
+          <t>A 837-2026</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46029</v>
+        <v>46030.3752662037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15813,7 +15773,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15850,14 +15810,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 61186-2025</t>
+          <t>A 33495-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46000.58625</v>
+        <v>45118</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15869,8 +15829,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15907,14 +15872,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 341-2026</t>
+          <t>A 43143-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>46027</v>
+        <v>45567.62359953704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15927,7 +15892,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15964,14 +15929,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 3997-2026</t>
+          <t>A 5872-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46044.38896990741</v>
+        <v>46052.3731712963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15984,7 +15949,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -16021,14 +15986,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 61642-2025</t>
+          <t>A 47359-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46002.43494212963</v>
+        <v>45587.43547453704</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16041,7 +16006,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -16078,14 +16043,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 3614-2026</t>
+          <t>A 31645-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>46042.94263888889</v>
+        <v>45506.60777777778</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16097,8 +16062,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>2.2</v>
+        <v>11.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16135,14 +16105,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 3870-2026</t>
+          <t>A 64359-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46043.64090277778</v>
+        <v>45280</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16154,13 +16124,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16197,14 +16162,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 3615-2026</t>
+          <t>A 58787-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>46042.94633101852</v>
+        <v>44489.56234953704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16217,7 +16182,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16254,14 +16219,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 4101-2026</t>
+          <t>A 24988-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46044.57539351852</v>
+        <v>45085.64087962963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16273,8 +16238,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16311,14 +16281,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 4104-2026</t>
+          <t>A 2546-2026</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>46044.58568287037</v>
+        <v>46037.46833333333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16331,7 +16301,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16368,14 +16338,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 4566-2026</t>
+          <t>A 13473-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>46047.87172453704</v>
+        <v>45387.5827662037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16388,7 +16358,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16425,14 +16395,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 4419-2026</t>
+          <t>A 28133-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>46045.60791666667</v>
+        <v>45476.69053240741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16445,7 +16415,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16482,14 +16452,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 129-2026</t>
+          <t>A 12057-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>46024.59600694444</v>
+        <v>44266</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16502,7 +16472,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16539,14 +16509,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 4541-2026</t>
+          <t>A 37744-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>46046.94703703704</v>
+        <v>44810.58422453704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16559,7 +16529,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16596,14 +16566,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 5482-2026</t>
+          <t>A 10184-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>46050.60585648148</v>
+        <v>44622</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16616,7 +16586,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16653,14 +16623,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 892-2026</t>
+          <t>A 10602-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46030.45260416667</v>
+        <v>44624</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16673,7 +16643,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16710,14 +16680,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 5177-2026</t>
+          <t>A 47531-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>46049.65239583333</v>
+        <v>44447</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16730,7 +16700,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16767,14 +16737,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 837-2026</t>
+          <t>A 33734-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>46030.3752662037</v>
+        <v>45520</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16786,8 +16756,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G255" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16824,14 +16799,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 5549-2026</t>
+          <t>A 11607-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>46050.71560185185</v>
+        <v>44994</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16843,8 +16818,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16881,14 +16861,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 5249-2026</t>
+          <t>A 43726-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>46049.90417824074</v>
+        <v>45187</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16900,8 +16880,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16938,14 +16923,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 5872-2026</t>
+          <t>A 35504-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>46052.3731712963</v>
+        <v>45531.53686342593</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16957,8 +16942,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16995,14 +16985,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 7209-2026</t>
+          <t>A 68079-2021</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>46058.53673611111</v>
+        <v>44526.31943287037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17014,13 +17004,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -17057,14 +17042,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 7207-2026</t>
+          <t>A 6958-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>46058.53497685185</v>
+        <v>45343</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17076,13 +17061,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -17119,14 +17099,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 7210-2026</t>
+          <t>A 54826-2021</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>46058.53807870371</v>
+        <v>44473</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17140,11 +17120,11 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17181,14 +17161,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 2546-2026</t>
+          <t>A 33710-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>46037.46833333333</v>
+        <v>45520</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17200,8 +17180,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17238,14 +17223,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 3391-2026</t>
+          <t>A 17185-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>46042</v>
+        <v>45755</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17257,8 +17242,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>0.7</v>
+        <v>10.3</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17295,14 +17285,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 7580-2026</t>
+          <t>A 47639-2021</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>46061.63731481481</v>
+        <v>44448.3966087963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17315,7 +17305,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17352,14 +17342,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 7581-2026</t>
+          <t>A 32827-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>46061.63856481481</v>
+        <v>45516.59273148148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17371,8 +17361,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17409,14 +17404,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 2220-2026</t>
+          <t>A 1149-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>46036.50115740741</v>
+        <v>45302.49834490741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17429,7 +17424,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17466,14 +17461,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 8202-2026</t>
+          <t>A 18347-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>46064.44456018518</v>
+        <v>45762.52913194444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17486,7 +17481,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17523,14 +17518,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 8279-2026</t>
+          <t>A 31613-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>46064.55806712963</v>
+        <v>45117</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17542,13 +17537,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17585,14 +17575,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 64036-2025</t>
+          <t>A 21039-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>46021</v>
+        <v>45439</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17604,8 +17594,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17642,14 +17637,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 8321-2026</t>
+          <t>A 36283-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>46064.60894675926</v>
+        <v>45534.58899305556</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17661,8 +17656,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>0.9</v>
+        <v>6.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17699,14 +17699,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 8324-2026</t>
+          <t>A 20972-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>46064.61172453704</v>
+        <v>45777.45725694444</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17718,8 +17718,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17756,14 +17761,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 64000-2025</t>
+          <t>A 1144-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>46021.39847222222</v>
+        <v>45302.49138888889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17776,7 +17781,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17813,14 +17818,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 8239-2026</t>
+          <t>A 21340-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>46064.48892361111</v>
+        <v>45782.38909722222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17833,7 +17838,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17870,14 +17875,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 8250-2026</t>
+          <t>A 5554-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>46064.49732638889</v>
+        <v>45334</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17890,7 +17895,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17927,14 +17932,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 8275-2026</t>
+          <t>A 22844-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>46064.55445601852</v>
+        <v>45790.32160879629</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17946,13 +17951,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>13.6</v>
+        <v>3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17989,14 +17989,14 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 8314-2026</t>
+          <t>A 23666-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>46064.60053240741</v>
+        <v>45792.84364583333</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z276"/>
+  <dimension ref="A1:Z281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45784</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44512</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,14 +780,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 8217-2026</t>
+          <t>A 528-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>46064.46010416667</v>
+        <v>45299</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,39 +800,132 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>9</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Koppartaggsvamp
+Flattoppad klubbsvamp
+Gultoppig fingersvamp
+Svart taggsvamp
+Ullticka
+Dropptaggsvamp
+Fjällig taggsvamp s.str.
+Svavelriska
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 528-2024 artfynd.xlsx", "A 528-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 528-2024 karta.png", "A 528-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 528-2024 FSC-klagomål.docx", "A 528-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 528-2024 FSC-klagomål mail.docx", "A 528-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 528-2024 tillsynsbegäran.docx", "A 528-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 528-2024 tillsynsbegäran mail.docx", "A 528-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 8217-2026</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46064.46010416667</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Bitter taggsvamp
 Knärot
@@ -845,125 +938,32 @@
 Svavelriska</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 8217-2026 artfynd.xlsx", "A 8217-2026")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 8217-2026 karta.png", "A 8217-2026")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 8217-2026 karta knärot.png", "A 8217-2026")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 8217-2026 FSC-klagomål.docx", "A 8217-2026")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 8217-2026 FSC-klagomål mail.docx", "A 8217-2026")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 8217-2026 tillsynsbegäran.docx", "A 8217-2026")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 8217-2026 tillsynsbegäran mail.docx", "A 8217-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 528-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45299</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Koppartaggsvamp
-Flattoppad klubbsvamp
-Gultoppig fingersvamp
-Svart taggsvamp
-Ullticka
-Dropptaggsvamp
-Fjällig taggsvamp s.str.
-Svavelriska
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 528-2024 artfynd.xlsx", "A 528-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 528-2024 karta.png", "A 528-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 528-2024 FSC-klagomål.docx", "A 528-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 528-2024 FSC-klagomål mail.docx", "A 528-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 528-2024 tillsynsbegäran.docx", "A 528-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 528-2024 tillsynsbegäran mail.docx", "A 528-2024")</f>
         <v/>
       </c>
     </row>
@@ -977,7 +977,7 @@
         <v>45163</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>44623</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>44816</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,14 +1248,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 8347-2026</t>
+          <t>A 35742-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46064.64020833333</v>
+        <v>45860.53805555555</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,20 +1267,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1292,223 +1297,218 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Knärot
+Mörk husmossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35742-2025 artfynd.xlsx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35742-2025 karta.png", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35742-2025 karta knärot.png", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35742-2025 FSC-klagomål.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35742-2025 FSC-klagomål mail.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35742-2025 tillsynsbegäran.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35742-2025 tillsynsbegäran mail.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 47084-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45929</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Ullticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47084-2025 artfynd.xlsx", "A 47084-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47084-2025 karta.png", "A 47084-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47084-2025 FSC-klagomål.docx", "A 47084-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47084-2025 FSC-klagomål mail.docx", "A 47084-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47084-2025 tillsynsbegäran.docx", "A 47084-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47084-2025 tillsynsbegäran mail.docx", "A 47084-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 8347-2026</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>46064.64020833333</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Sotriska
 Trådticka</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 8347-2026 artfynd.xlsx", "A 8347-2026")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 8347-2026 karta.png", "A 8347-2026")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 8347-2026 FSC-klagomål.docx", "A 8347-2026")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 8347-2026 FSC-klagomål mail.docx", "A 8347-2026")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 8347-2026 tillsynsbegäran.docx", "A 8347-2026")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 8347-2026 tillsynsbegäran mail.docx", "A 8347-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 35742-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45860.53805555555</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Mörk husmossa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35742-2025 artfynd.xlsx", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35742-2025 karta.png", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35742-2025 karta knärot.png", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35742-2025 FSC-klagomål.docx", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35742-2025 FSC-klagomål mail.docx", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35742-2025 tillsynsbegäran.docx", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35742-2025 tillsynsbegäran mail.docx", "A 35742-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 47084-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45929</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>12</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Ullticka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47084-2025 artfynd.xlsx", "A 47084-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47084-2025 karta.png", "A 47084-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47084-2025 FSC-klagomål.docx", "A 47084-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47084-2025 FSC-klagomål mail.docx", "A 47084-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47084-2025 tillsynsbegäran.docx", "A 47084-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47084-2025 tillsynsbegäran mail.docx", "A 47084-2025")</f>
         <v/>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
         <v>45860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44511</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44559.54373842593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44473</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>45477.60362268519</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2059,14 +2059,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 27434-2025</t>
+          <t>A 41621-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45813</v>
+        <v>45901.70506944445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,13 +2084,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2118,45 +2118,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 27434-2025 artfynd.xlsx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41621-2025 artfynd.xlsx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 27434-2025 karta.png", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41621-2025 karta.png", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 27434-2025 FSC-klagomål.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41621-2025 FSC-klagomål.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 27434-2025 FSC-klagomål mail.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41621-2025 FSC-klagomål mail.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 27434-2025 tillsynsbegäran.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41621-2025 tillsynsbegäran.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 27434-2025 tillsynsbegäran mail.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41621-2025 tillsynsbegäran mail.docx", "A 41621-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 234-2023</t>
+          <t>A 41568-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44928.66260416667</v>
+        <v>45901.6075462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,19 +2174,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2198,59 +2198,55 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41568-2025 artfynd.xlsx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
-        <v/>
-      </c>
-      <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41568-2025 karta.png", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41568-2025 FSC-klagomål.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41568-2025 FSC-klagomål mail.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41568-2025 tillsynsbegäran.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41568-2025 tillsynsbegäran mail.docx", "A 41568-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 28397-2024</t>
+          <t>A 27434-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45477.60549768519</v>
+        <v>45813</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2268,7 +2264,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2302,45 +2298,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 27434-2025 artfynd.xlsx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 27434-2025 karta.png", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 27434-2025 FSC-klagomål.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 27434-2025 FSC-klagomål mail.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 27434-2025 tillsynsbegäran.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 27434-2025 tillsynsbegäran mail.docx", "A 27434-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 23354-2024</t>
+          <t>A 234-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45453</v>
+        <v>44928.66260416667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2358,7 +2354,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2370,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2382,55 +2378,59 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
+        <v/>
+      </c>
+      <c r="U21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 41621-2025</t>
+          <t>A 28397-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45901.70506944445</v>
+        <v>45477.60549768519</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2448,13 +2448,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2482,45 +2482,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41621-2025 artfynd.xlsx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41621-2025 karta.png", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41621-2025 FSC-klagomål.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41621-2025 FSC-klagomål mail.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41621-2025 tillsynsbegäran.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41621-2025 tillsynsbegäran mail.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 41568-2025</t>
+          <t>A 23354-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45901.6075462963</v>
+        <v>45453</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2538,13 +2538,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6.8</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2572,45 +2572,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41568-2025 artfynd.xlsx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41568-2025 karta.png", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41568-2025 FSC-klagomål.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41568-2025 FSC-klagomål mail.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41568-2025 tillsynsbegäran.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41568-2025 tillsynsbegäran mail.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 7543-2024</t>
+          <t>A 48709-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45348</v>
+        <v>45936.63020833334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2623,20 +2623,20 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
@@ -2647,55 +2647,59 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 7543-2024 artfynd.xlsx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 7543-2024 karta.png", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
+        <v/>
+      </c>
+      <c r="U24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 7543-2024 FSC-klagomål.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 7543-2024 FSC-klagomål mail.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 7543-2024 tillsynsbegäran.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 7543-2024 tillsynsbegäran mail.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 35743-2025</t>
+          <t>A 7543-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45860.54238425926</v>
+        <v>45348</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2707,19 +2711,14 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2747,45 +2746,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35743-2025 artfynd.xlsx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 7543-2024 artfynd.xlsx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35743-2025 karta.png", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 7543-2024 karta.png", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35743-2025 FSC-klagomål.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 7543-2024 FSC-klagomål.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35743-2025 FSC-klagomål mail.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 7543-2024 FSC-klagomål mail.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35743-2025 tillsynsbegäran.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 7543-2024 tillsynsbegäran.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35743-2025 tillsynsbegäran mail.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 7543-2024 tillsynsbegäran mail.docx", "A 7543-2024")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 30008-2024</t>
+          <t>A 35743-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45488.6040162037</v>
+        <v>45860.54238425926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,13 +2802,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2837,45 +2836,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35743-2025 artfynd.xlsx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35743-2025 karta.png", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35743-2025 FSC-klagomål.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35743-2025 FSC-klagomål mail.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35743-2025 tillsynsbegäran.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35743-2025 tillsynsbegäran mail.docx", "A 35743-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 36606-2025</t>
+          <t>A 43883-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45870.54482638889</v>
+        <v>45912.68892361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2893,16 +2892,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>13.3</v>
+        <v>6.2</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2917,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2927,45 +2926,49 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Brunklöver</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 36606-2025 artfynd.xlsx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 36606-2025 karta.png", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 36606-2025 FSC-klagomål.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 36606-2025 FSC-klagomål mail.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 36606-2025 tillsynsbegäran.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 36606-2025 tillsynsbegäran mail.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 37012-2025</t>
+          <t>A 36606-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45874.7066550926</v>
+        <v>45870.54482638889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2986,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>13.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3017,45 +3020,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Brunklöver</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 36606-2025 artfynd.xlsx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 36606-2025 karta.png", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 36606-2025 FSC-klagomål.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 36606-2025 FSC-klagomål mail.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 36606-2025 tillsynsbegäran.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 36606-2025 tillsynsbegäran mail.docx", "A 36606-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37011-2025</t>
+          <t>A 37012-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45874.70511574074</v>
+        <v>45874.7066550926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3073,19 +3076,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3100,56 +3103,52 @@
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
-        <v/>
-      </c>
-      <c r="U29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 46058-2025</t>
+          <t>A 37011-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45924</v>
+        <v>45874.70511574074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3163,24 +3162,24 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>1</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
@@ -3191,55 +3190,59 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
+        <v/>
+      </c>
+      <c r="U30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 48709-2025</t>
+          <t>A 30008-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45936.63020833334</v>
+        <v>45488.6040162037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3251,20 +3254,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3276,59 +3284,55 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
-        <v/>
-      </c>
-      <c r="U31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 43883-2025</t>
+          <t>A 48702-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45912.68892361111</v>
+        <v>45936.62197916667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,13 +3344,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -3358,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3370,59 +3369,59 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
+        <v/>
+      </c>
+      <c r="U32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
-        <v/>
-      </c>
-      <c r="Z32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 48702-2025</t>
+          <t>A 46058-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45936.62197916667</v>
+        <v>45924</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3434,20 +3433,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3459,45 +3463,41 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
-        <v/>
-      </c>
-      <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
         <v>46025.54315972222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3593,14 +3593,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 47459-2023</t>
+          <t>A 687-2026</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45202.83313657407</v>
+        <v>46029</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,17 +3613,17 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3647,45 +3647,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Brunklöver</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47459-2023 artfynd.xlsx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 687-2026 artfynd.xlsx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47459-2023 karta.png", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 687-2026 karta.png", "A 687-2026")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47459-2023 FSC-klagomål.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 687-2026 FSC-klagomål.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47459-2023 FSC-klagomål mail.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 687-2026 FSC-klagomål mail.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47459-2023 tillsynsbegäran.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 687-2026 tillsynsbegäran.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47459-2023 tillsynsbegäran mail.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 687-2026 tillsynsbegäran mail.docx", "A 687-2026")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 687-2026</t>
+          <t>A 47459-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46029</v>
+        <v>45202.83313657407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3698,16 +3698,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3732,31 +3732,31 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Brunklöver</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 687-2026 artfynd.xlsx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47459-2023 artfynd.xlsx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 687-2026 karta.png", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47459-2023 karta.png", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 687-2026 FSC-klagomål.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47459-2023 FSC-klagomål.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 687-2026 FSC-klagomål mail.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47459-2023 FSC-klagomål mail.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 687-2026 tillsynsbegäran.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47459-2023 tillsynsbegäran.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 687-2026 tillsynsbegäran mail.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47459-2023 tillsynsbegäran mail.docx", "A 47459-2023")</f>
         <v/>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
         <v>45127</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>45531.57493055556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44323</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45439.6528125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45586</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44868.61302083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>44770</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>44314</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>44582.37412037037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>44501.57883101852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>44447.66321759259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>44504.60092592592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44512</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>44456</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>44295.6012962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>44649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>44873</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>44692</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>44868.60868055555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45755</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>45531.51796296296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>44340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44967</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>45523.51896990741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>45523.51716435186</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>45523.52378472222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5448,14 +5448,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 58369-2023</t>
+          <t>A 22844-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45250</v>
+        <v>45790.32160879629</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5505,14 +5505,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28391-2024</t>
+          <t>A 3615-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45477.60254629629</v>
+        <v>46042.94633101852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5524,13 +5524,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5567,14 +5562,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33296-2023</t>
+          <t>A 28391-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45127.69603009259</v>
+        <v>45477.60254629629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5592,7 +5587,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5629,14 +5624,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 4032-2025</t>
+          <t>A 11813-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45684</v>
+        <v>45376.30138888889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5649,7 +5644,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5686,14 +5681,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 51337-2023</t>
+          <t>A 4419-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45219.59144675926</v>
+        <v>46045.60791666667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5706,7 +5701,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5743,14 +5738,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 7209-2026</t>
+          <t>A 58369-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46058.53673611111</v>
+        <v>45250</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5762,13 +5757,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5805,14 +5795,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7210-2026</t>
+          <t>A 4032-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46058.53807870371</v>
+        <v>45684</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5822,11 +5812,6 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -5867,14 +5852,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 7207-2026</t>
+          <t>A 38746-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46058.53497685185</v>
+        <v>45887.37974537037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5892,7 +5877,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5929,14 +5914,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 54149-2023</t>
+          <t>A 38741-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45232.4528125</v>
+        <v>45887.37405092592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5948,8 +5933,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5986,14 +5976,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 24395-2025</t>
+          <t>A 33296-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45797.63881944444</v>
+        <v>45127.69603009259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6005,8 +5995,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6043,14 +6038,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 37743-2022</t>
+          <t>A 23666-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44810.58275462963</v>
+        <v>45792.84364583333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6063,7 +6058,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6100,14 +6095,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11813-2024</t>
+          <t>A 38486-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45376.30138888889</v>
+        <v>45884.34282407408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6120,7 +6115,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6157,14 +6152,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 33981-2024</t>
+          <t>A 38744-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45523.52111111111</v>
+        <v>45887.37774305556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6176,8 +6171,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6214,14 +6214,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 64000-2025</t>
+          <t>A 51337-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46021.39847222222</v>
+        <v>45219.59144675926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6271,14 +6271,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 59615-2023</t>
+          <t>A 24395-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45254</v>
+        <v>45797.63881944444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6290,13 +6290,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6333,14 +6328,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 53517-2024</t>
+          <t>A 54149-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45614.60436342593</v>
+        <v>45232.4528125</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6353,7 +6348,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6390,14 +6385,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 64036-2025</t>
+          <t>A 33981-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46021</v>
+        <v>45523.52111111111</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6410,7 +6405,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6447,14 +6442,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 38746-2025</t>
+          <t>A 59615-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45887.37974537037</v>
+        <v>45254</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6472,7 +6467,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6509,14 +6504,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 2220-2026</t>
+          <t>A 37743-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46036.50115740741</v>
+        <v>44810.58275462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6529,7 +6524,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6566,14 +6561,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 38741-2025</t>
+          <t>A 53517-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45887.37405092592</v>
+        <v>45614.60436342593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6585,13 +6580,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6628,14 +6618,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7580-2026</t>
+          <t>A 40407-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46061.63731481481</v>
+        <v>45895.57083333333</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6647,8 +6637,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6685,14 +6680,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 38486-2025</t>
+          <t>A 10740-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45884.34282407408</v>
+        <v>45722.41008101852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6705,7 +6700,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6742,14 +6737,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 38744-2025</t>
+          <t>A 61642-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45887.37774305556</v>
+        <v>46002.43494212963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6761,13 +6756,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>8.199999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6804,14 +6794,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 7581-2026</t>
+          <t>A 4104-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46061.63856481481</v>
+        <v>46044.58568287037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6824,7 +6814,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6861,14 +6851,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 3391-2026</t>
+          <t>A 26753-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46042</v>
+        <v>45810.55490740741</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6881,7 +6871,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6918,14 +6908,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 58240-2021</t>
+          <t>A 41569-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44487.88978009259</v>
+        <v>45901.60810185185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6937,8 +6927,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6975,14 +6970,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8314-2026</t>
+          <t>A 41620-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46064.60053240741</v>
+        <v>45901.70319444445</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6994,8 +6989,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7032,14 +7032,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8279-2026</t>
+          <t>A 25476-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46064.55806712963</v>
+        <v>45463.44922453703</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7094,14 +7094,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 43730-2023</t>
+          <t>A 58240-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45187</v>
+        <v>44487.88978009259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7113,13 +7113,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7156,14 +7151,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26753-2025</t>
+          <t>A 4101-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45810.55490740741</v>
+        <v>46044.57539351852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7176,7 +7171,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7213,14 +7208,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 47524-2024</t>
+          <t>A 27431-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45587.63166666667</v>
+        <v>45813</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7232,8 +7227,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7270,14 +7270,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 13471-2024</t>
+          <t>A 27436-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45387.57859953704</v>
+        <v>45813</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7289,8 +7289,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7327,14 +7332,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8321-2026</t>
+          <t>A 27438-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46064.60894675926</v>
+        <v>45813.3143287037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7344,6 +7349,11 @@
       <c r="E95" t="inlineStr">
         <is>
           <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -7384,14 +7394,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8324-2026</t>
+          <t>A 27432-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46064.61172453704</v>
+        <v>45813</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7403,8 +7413,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7441,14 +7456,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 8202-2026</t>
+          <t>A 27441-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46064.44456018518</v>
+        <v>45813.31630787037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7460,8 +7475,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7498,14 +7518,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 8250-2026</t>
+          <t>A 43730-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46064.49732638889</v>
+        <v>45187</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7517,8 +7537,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7555,14 +7580,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 8275-2026</t>
+          <t>A 47524-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46064.55445601852</v>
+        <v>45587.63166666667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7574,13 +7599,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>13.6</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7617,14 +7637,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 8239-2026</t>
+          <t>A 13471-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46064.48892361111</v>
+        <v>45387.57859953704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7637,7 +7657,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7674,14 +7694,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 27431-2025</t>
+          <t>A 4541-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45813</v>
+        <v>46046.94703703704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7693,13 +7713,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7736,14 +7751,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 27436-2025</t>
+          <t>A 23545-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45813</v>
+        <v>45792</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7755,13 +7770,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7798,14 +7808,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 27438-2025</t>
+          <t>A 11953-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45813.3143287037</v>
+        <v>45728.56366898148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7823,7 +7833,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>34.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7860,14 +7870,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 27432-2025</t>
+          <t>A 26302-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45813</v>
+        <v>45805</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7879,13 +7889,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7922,14 +7927,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27441-2025</t>
+          <t>A 27738-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45813.31630787037</v>
+        <v>45475.45108796296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7943,11 +7948,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7984,14 +7989,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 11953-2025</t>
+          <t>A 5177-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45728.56366898148</v>
+        <v>46049.65239583333</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8003,13 +8008,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>34.8</v>
+        <v>6.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8046,14 +8046,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27738-2024</t>
+          <t>A 4566-2026</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45475.45108796296</v>
+        <v>46047.87172453704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8065,13 +8065,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8108,14 +8103,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 37680-2022</t>
+          <t>A 5482-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44810</v>
+        <v>46050.60585648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8128,7 +8123,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>6.6</v>
+        <v>2.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8165,14 +8160,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 23545-2025</t>
+          <t>A 37680-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45792</v>
+        <v>44810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8185,7 +8180,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8222,14 +8217,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 59130-2024</t>
+          <t>A 5549-2026</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45637</v>
+        <v>46050.71560185185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8242,7 +8237,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8279,14 +8274,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26302-2025</t>
+          <t>A 59130-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45805</v>
+        <v>45637</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8299,7 +8294,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8336,14 +8331,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 57632-2021</t>
+          <t>A 5249-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44484.39166666667</v>
+        <v>46049.90417824074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8356,7 +8351,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8393,14 +8388,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 58373-2023</t>
+          <t>A 44694-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45250.65805555556</v>
+        <v>45917.59674768519</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8412,8 +8407,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>12.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8450,14 +8450,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 41020-2023</t>
+          <t>A 44692-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45173.59236111111</v>
+        <v>45917.59540509259</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8512,14 +8512,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 40407-2025</t>
+          <t>A 57632-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45895.57083333333</v>
+        <v>44484.39166666667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8531,13 +8531,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8574,14 +8569,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 44356-2023</t>
+          <t>A 58373-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45188.81979166667</v>
+        <v>45250.65805555556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8594,7 +8589,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8631,14 +8626,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 10740-2025</t>
+          <t>A 41020-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45722.41008101852</v>
+        <v>45173.59236111111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8650,8 +8645,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8688,14 +8688,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 23355-2024</t>
+          <t>A 31471-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45453</v>
+        <v>45833.56436342592</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8707,13 +8707,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8750,14 +8745,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 31471-2025</t>
+          <t>A 892-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45833.56436342592</v>
+        <v>46030.45260416667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8770,7 +8765,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8807,14 +8802,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 13744-2023</t>
+          <t>A 837-2026</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45007</v>
+        <v>46030.3752662037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8826,13 +8821,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8876,7 +8866,7 @@
         <v>45835</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8931,14 +8921,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 8510-2023</t>
+          <t>A 44356-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44977.56144675926</v>
+        <v>45188.81979166667</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8951,7 +8941,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8988,14 +8978,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 41569-2025</t>
+          <t>A 23355-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45901.60810185185</v>
+        <v>45453</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9013,7 +9003,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9050,14 +9040,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 41620-2025</t>
+          <t>A 13744-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45901.70319444445</v>
+        <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9071,11 +9061,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9112,14 +9102,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 22129-2023</t>
+          <t>A 47091-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45069</v>
+        <v>45929.65052083333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9131,13 +9121,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9174,14 +9159,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 25476-2024</t>
+          <t>A 47097-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45463.44922453703</v>
+        <v>45929.65541666667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9193,13 +9178,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9236,14 +9216,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 25477-2024</t>
+          <t>A 40393-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45463.45015046297</v>
+        <v>45895.55646990741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9261,7 +9241,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9298,14 +9278,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 43282-2021</t>
+          <t>A 8510-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44432.39119212963</v>
+        <v>44977.56144675926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9317,13 +9297,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9360,14 +9335,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 35473-2025</t>
+          <t>A 47249-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45855.66804398148</v>
+        <v>45930.43439814815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9380,7 +9355,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9417,14 +9392,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 35475-2025</t>
+          <t>A 40401-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45855.67001157408</v>
+        <v>45895.56739583334</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9436,8 +9411,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>12.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9474,14 +9454,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 47495-2024</t>
+          <t>A 47469-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45587.59559027778</v>
+        <v>45930.67037037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9493,13 +9473,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9536,14 +9511,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 30007-2024</t>
+          <t>A 48232-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45488.60150462963</v>
+        <v>45933.53054398148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9561,7 +9536,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>11.5</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9598,14 +9573,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 30009-2024</t>
+          <t>A 48242-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45488.60546296297</v>
+        <v>45933.53510416667</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9623,7 +9598,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9660,14 +9635,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 54578-2024</t>
+          <t>A 27959-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45617.65644675926</v>
+        <v>45816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9679,8 +9654,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>3.9</v>
+        <v>45.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9717,14 +9697,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 36180-2025</t>
+          <t>A 48240-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45867.41327546296</v>
+        <v>45933.53292824074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9736,8 +9716,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>11.7</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9774,14 +9759,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 49815-2024</t>
+          <t>A 48241-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45597.39709490741</v>
+        <v>45933.53391203703</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9793,8 +9778,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9831,14 +9821,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 37763-2023</t>
+          <t>A 48252-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45156</v>
+        <v>45933.55329861111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9851,7 +9841,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9888,14 +9878,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 36349-2025</t>
+          <t>A 48231-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45868.48269675926</v>
+        <v>45933.52594907407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9905,6 +9895,11 @@
       <c r="E138" t="inlineStr">
         <is>
           <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -9945,14 +9940,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 35505-2024</t>
+          <t>A 22129-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45531.53869212963</v>
+        <v>45069</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9970,7 +9965,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10007,14 +10002,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 35514-2024</t>
+          <t>A 48612-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45531.56472222223</v>
+        <v>45935</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10028,11 +10023,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10069,14 +10064,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 30229-2024</t>
+          <t>A 35473-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45490.46946759259</v>
+        <v>45855.66804398148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10086,11 +10081,6 @@
       <c r="E141" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -10131,14 +10121,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 2612-2025</t>
+          <t>A 35475-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45674</v>
+        <v>45855.67001157408</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10151,7 +10141,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10188,14 +10178,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 37444-2025</t>
+          <t>A 48609-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45877.54305555556</v>
+        <v>45935</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10209,11 +10199,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10250,14 +10240,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 37988-2025</t>
+          <t>A 25477-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45881.70454861111</v>
+        <v>45463.45015046297</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10275,7 +10265,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10312,14 +10302,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 23376-2024</t>
+          <t>A 43885-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45453</v>
+        <v>45912.69076388889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10337,7 +10327,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>10.8</v>
+        <v>1.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10374,14 +10364,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58955-2023</t>
+          <t>A 43887-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45252</v>
+        <v>45912.69278935185</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10393,8 +10383,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10431,14 +10426,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 6963-2024</t>
+          <t>A 43282-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45343.4562037037</v>
+        <v>44432.39119212963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10448,6 +10443,11 @@
       <c r="E147" t="inlineStr">
         <is>
           <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -10488,14 +10488,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 44694-2025</t>
+          <t>A 45965-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45917.59674768519</v>
+        <v>45924.35655092593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>12.1</v>
+        <v>5.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10550,14 +10550,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 44692-2025</t>
+          <t>A 5872-2026</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45917.59540509259</v>
+        <v>46052.3731712963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10569,13 +10569,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10612,14 +10607,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 10587-2022</t>
+          <t>A 36180-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44624</v>
+        <v>45867.41327546296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10632,7 +10627,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5</v>
+        <v>11.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10669,14 +10664,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 31123-2021</t>
+          <t>A 36349-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44368</v>
+        <v>45868.48269675926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10689,7 +10684,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10726,14 +10721,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 36763-2024</t>
+          <t>A 47495-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45538.36181712963</v>
+        <v>45587.59559027778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10745,8 +10740,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10783,14 +10783,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 21027-2024</t>
+          <t>A 51225-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45439</v>
+        <v>45947.65599537037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10845,14 +10845,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 21028-2024</t>
+          <t>A 30007-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45439</v>
+        <v>45488.60150462963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.6</v>
+        <v>11.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10907,14 +10907,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 16371-2022</t>
+          <t>A 30009-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44671</v>
+        <v>45488.60546296297</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10926,8 +10926,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10964,14 +10969,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 47091-2025</t>
+          <t>A 37444-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45929.65052083333</v>
+        <v>45877.54305555556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10983,8 +10988,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -11021,14 +11031,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 47097-2025</t>
+          <t>A 54578-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45929.65541666667</v>
+        <v>45617.65644675926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11041,7 +11051,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11078,14 +11088,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 40393-2025</t>
+          <t>A 49815-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45895.55646990741</v>
+        <v>45597.39709490741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11097,13 +11107,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11140,14 +11145,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 57751-2024</t>
+          <t>A 37763-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45630.82424768519</v>
+        <v>45156</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11160,7 +11165,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11197,14 +11202,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 47249-2025</t>
+          <t>A 37988-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45930.43439814815</v>
+        <v>45881.70454861111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11216,8 +11221,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11254,14 +11264,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 40401-2025</t>
+          <t>A 35505-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45895.56739583334</v>
+        <v>45531.53869212963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11279,7 +11289,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>12.6</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11316,14 +11326,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 47469-2025</t>
+          <t>A 35514-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45930.67037037037</v>
+        <v>45531.56472222223</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11335,8 +11345,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11373,14 +11388,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48232-2025</t>
+          <t>A 52693-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45933.53054398148</v>
+        <v>45956.58960648148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11392,13 +11407,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11435,14 +11445,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 48242-2025</t>
+          <t>A 30229-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45933.53510416667</v>
+        <v>45490.46946759259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11460,7 +11470,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11497,14 +11507,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 27959-2025</t>
+          <t>A 2546-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45816</v>
+        <v>46037.46833333333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11516,13 +11526,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>45.6</v>
+        <v>5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11559,14 +11564,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 48240-2025</t>
+          <t>A 2612-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45933.53292824074</v>
+        <v>45674</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11578,13 +11583,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11621,14 +11621,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 48241-2025</t>
+          <t>A 7209-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45933.53391203703</v>
+        <v>46058.53673611111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11683,14 +11683,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 48252-2025</t>
+          <t>A 7210-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45933.55329861111</v>
+        <v>46058.53807870371</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11702,8 +11702,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11740,14 +11745,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 48231-2025</t>
+          <t>A 7207-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45933.52594907407</v>
+        <v>46058.53497685185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11765,7 +11770,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11802,14 +11807,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 48612-2025</t>
+          <t>A 64000-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45935</v>
+        <v>46021.39847222222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11821,13 +11826,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11864,14 +11864,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 48609-2025</t>
+          <t>A 23376-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45935</v>
+        <v>45453</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11885,11 +11885,11 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.1</v>
+        <v>10.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11926,14 +11926,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 2915-2025</t>
+          <t>A 64036-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45677.96424768519</v>
+        <v>46021</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11983,14 +11983,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 32980-2023</t>
+          <t>A 58955-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45125.59980324074</v>
+        <v>45252</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -12040,14 +12040,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 57400-2024</t>
+          <t>A 54876-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45629.71085648148</v>
+        <v>45967.31611111111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12097,14 +12097,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 43885-2025</t>
+          <t>A 54877-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45912.69076388889</v>
+        <v>45967.31960648148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12116,13 +12116,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12159,14 +12154,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 43887-2025</t>
+          <t>A 54874-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45912.69278935185</v>
+        <v>45967.30939814815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12178,13 +12173,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12221,14 +12211,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 62596-2023</t>
+          <t>A 2220-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45271</v>
+        <v>46036.50115740741</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12241,7 +12231,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12278,14 +12268,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 45965-2025</t>
+          <t>A 54827-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45924.35655092593</v>
+        <v>45966.66925925926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12297,13 +12287,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12340,14 +12325,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 25474-2024</t>
+          <t>A 7580-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45463.44631944445</v>
+        <v>46061.63731481481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12359,13 +12344,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12402,14 +12382,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 8448-2025</t>
+          <t>A 6963-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45709</v>
+        <v>45343.4562037037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12422,7 +12402,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12459,14 +12439,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 47493-2024</t>
+          <t>A 55288-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45587.59410879629</v>
+        <v>45969.33444444444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12478,13 +12458,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12521,14 +12496,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 51225-2025</t>
+          <t>A 55287-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45947.65599537037</v>
+        <v>45969.30730324074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12540,13 +12515,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12583,14 +12553,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 10161-2023</t>
+          <t>A 7581-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44986</v>
+        <v>46061.63856481481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12602,13 +12572,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12645,14 +12610,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 52693-2025</t>
+          <t>A 3391-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45956.58960648148</v>
+        <v>46042</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12665,7 +12630,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12702,14 +12667,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 34232-2023</t>
+          <t>A 8314-2026</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45127</v>
+        <v>46064.60053240741</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12721,13 +12686,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12764,14 +12724,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 54876-2025</t>
+          <t>A 8279-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45967.31611111111</v>
+        <v>46064.55806712963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12783,8 +12743,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12821,14 +12786,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 54877-2025</t>
+          <t>A 10587-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45967.31960648148</v>
+        <v>44624</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12841,7 +12806,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12878,14 +12843,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 54874-2025</t>
+          <t>A 8321-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45967.30939814815</v>
+        <v>46064.60894675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12898,7 +12863,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12935,14 +12900,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 22226-2024</t>
+          <t>A 8324-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45446.4203587963</v>
+        <v>46064.61172453704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12955,7 +12920,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12992,14 +12957,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 54827-2025</t>
+          <t>A 8202-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45966.66925925926</v>
+        <v>46064.44456018518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13012,7 +12977,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -13049,14 +13014,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 37693-2023</t>
+          <t>A 8250-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45159.57056712963</v>
+        <v>46064.49732638889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13069,7 +13034,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -13106,14 +13071,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 55288-2025</t>
+          <t>A 8275-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45969.33444444444</v>
+        <v>46064.55445601852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13125,8 +13090,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>2.6</v>
+        <v>13.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13163,14 +13133,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 55287-2025</t>
+          <t>A 57596-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45969.30730324074</v>
+        <v>45980.9716087963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13183,7 +13153,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13220,14 +13190,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 57596-2025</t>
+          <t>A 57593-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45980.9716087963</v>
+        <v>45980.96055555555</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13240,7 +13210,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13277,14 +13247,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 57593-2025</t>
+          <t>A 57595-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45980.96055555555</v>
+        <v>45980.97019675926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13297,7 +13267,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13334,14 +13304,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 57595-2025</t>
+          <t>A 31123-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45980.97019675926</v>
+        <v>44368</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13354,7 +13324,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13391,14 +13361,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 48063-2024</t>
+          <t>A 36763-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45589.55237268518</v>
+        <v>45538.36181712963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13411,7 +13381,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13455,7 +13425,7 @@
         <v>45980.96221064815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13505,14 +13475,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 58324-2025</t>
+          <t>A 8239-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45985.47690972222</v>
+        <v>46064.48892361111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13525,7 +13495,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13562,14 +13532,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 58008-2025</t>
+          <t>A 58324-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45982.45744212963</v>
+        <v>45985.47690972222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13582,7 +13552,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13619,14 +13589,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 17762-2022</t>
+          <t>A 58008-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44680</v>
+        <v>45982.45744212963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13676,14 +13646,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 51277-2022</t>
+          <t>A 21027-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44868.7127662037</v>
+        <v>45439</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13695,8 +13665,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13733,14 +13708,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 659-2026</t>
+          <t>A 21028-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46029.58206018519</v>
+        <v>45439</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13752,8 +13727,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>9.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13790,14 +13770,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 58633-2025</t>
+          <t>A 3997-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45986.48885416667</v>
+        <v>46044</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13810,7 +13790,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13847,14 +13827,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 58805-2025</t>
+          <t>A 8748-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45986.9652662037</v>
+        <v>46066.54123842593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13866,8 +13846,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13904,14 +13889,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 13745-2023</t>
+          <t>A 16371-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45007</v>
+        <v>44671</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13923,13 +13908,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13966,14 +13946,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 14119-2025</t>
+          <t>A 8802-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45740.4659837963</v>
+        <v>46066.59980324074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13985,13 +13965,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -14028,14 +14003,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 681-2026</t>
+          <t>A 659-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46029</v>
+        <v>46029.58206018519</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14048,7 +14023,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -14085,14 +14060,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 683-2026</t>
+          <t>A 57751-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46029</v>
+        <v>45630.82424768519</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14105,7 +14080,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14142,14 +14117,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 25465-2024</t>
+          <t>A 129-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45463.43416666667</v>
+        <v>46024.59600694444</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14161,13 +14136,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14204,14 +14174,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 802-2026</t>
+          <t>A 58633-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46030</v>
+        <v>45986.48885416667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14224,7 +14194,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14261,14 +14231,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 688-2026</t>
+          <t>A 341-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46029</v>
+        <v>46027</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14281,7 +14251,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14318,14 +14288,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 341-2026</t>
+          <t>A 58805-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46027</v>
+        <v>45986.9652662037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14338,7 +14308,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14375,14 +14345,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 35114-2023</t>
+          <t>A 8812-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45145</v>
+        <v>46066.61409722222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14394,8 +14364,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14432,14 +14407,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 35136-2023</t>
+          <t>A 8751-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45145.52915509259</v>
+        <v>46066.54503472222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14451,8 +14426,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14489,14 +14469,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 692-2026</t>
+          <t>A 8749-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46029</v>
+        <v>46066.543125</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14508,8 +14488,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14546,14 +14531,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 38251-2022</t>
+          <t>A 2915-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44812.4874537037</v>
+        <v>45677.96424768519</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14566,7 +14551,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14603,14 +14588,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 3614-2026</t>
+          <t>A 32980-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46042.94263888889</v>
+        <v>45125.59980324074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14623,7 +14608,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14660,14 +14645,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 61186-2025</t>
+          <t>A 57400-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46000.58625</v>
+        <v>45629.71085648148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14680,7 +14665,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14717,14 +14702,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 3870-2026</t>
+          <t>A 62596-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46043.64090277778</v>
+        <v>45271</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14736,13 +14721,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14779,14 +14759,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 31607-2023</t>
+          <t>A 681-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45117</v>
+        <v>46029</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14799,7 +14779,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14836,14 +14816,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 31611-2023</t>
+          <t>A 25474-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45117</v>
+        <v>45463.44631944445</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14855,8 +14835,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14893,14 +14878,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 3615-2026</t>
+          <t>A 683-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46042.94633101852</v>
+        <v>46029</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14913,7 +14898,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14950,14 +14935,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 4419-2026</t>
+          <t>A 8448-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46045.60791666667</v>
+        <v>45709</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14970,7 +14955,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -15007,14 +14992,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 129-2026</t>
+          <t>A 47493-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46024.59600694444</v>
+        <v>45587.59410879629</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15026,8 +15011,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -15064,14 +15054,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 3997-2026</t>
+          <t>A 802-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46044.38896990741</v>
+        <v>46030</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15084,7 +15074,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15121,14 +15111,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 61642-2025</t>
+          <t>A 688-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46002.43494212963</v>
+        <v>46029</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15141,7 +15131,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15178,14 +15168,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 4104-2026</t>
+          <t>A 10161-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46044.58568287037</v>
+        <v>44986</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15197,8 +15187,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15235,14 +15230,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 4101-2026</t>
+          <t>A 692-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46044.57539351852</v>
+        <v>46029</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15255,7 +15250,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15292,14 +15287,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 4541-2026</t>
+          <t>A 3614-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46046.94703703704</v>
+        <v>46042.94263888889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15312,7 +15307,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15349,14 +15344,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 36278-2024</t>
+          <t>A 61186-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45534.58508101852</v>
+        <v>46000.58625</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15368,13 +15363,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>8.699999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15411,14 +15401,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 5177-2026</t>
+          <t>A 3870-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46049.65239583333</v>
+        <v>46043.64090277778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15430,8 +15420,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15468,14 +15463,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 4566-2026</t>
+          <t>A 34232-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46047.87172453704</v>
+        <v>45127</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15487,8 +15482,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15525,14 +15525,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 5482-2026</t>
+          <t>A 22226-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46050.60585648148</v>
+        <v>45446.4203587963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15582,14 +15582,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 5549-2026</t>
+          <t>A 37693-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46050.71560185185</v>
+        <v>45159.57056712963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15639,14 +15639,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 5249-2026</t>
+          <t>A 48063-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46049.90417824074</v>
+        <v>45589.55237268518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15696,14 +15696,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 892-2026</t>
+          <t>A 17762-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46030.45260416667</v>
+        <v>44680</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15753,14 +15753,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 837-2026</t>
+          <t>A 51277-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46030.3752662037</v>
+        <v>44868.7127662037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15810,14 +15810,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 33495-2023</t>
+          <t>A 13745-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45118</v>
+        <v>45007</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15831,11 +15831,11 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15872,14 +15872,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 43143-2024</t>
+          <t>A 14119-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45567.62359953704</v>
+        <v>45740.4659837963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15891,8 +15891,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15929,14 +15934,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 5872-2026</t>
+          <t>A 25465-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46052.3731712963</v>
+        <v>45463.43416666667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15948,8 +15953,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15986,14 +15996,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 47359-2024</t>
+          <t>A 35114-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45587.43547453704</v>
+        <v>45145</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16006,7 +16016,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -16043,14 +16053,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 31645-2024</t>
+          <t>A 35136-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45506.60777777778</v>
+        <v>45145.52915509259</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16062,13 +16072,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>11.1</v>
+        <v>2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16105,14 +16110,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 64359-2023</t>
+          <t>A 38251-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45280</v>
+        <v>44812.4874537037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16125,7 +16130,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16162,14 +16167,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 58787-2021</t>
+          <t>A 31607-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44489.56234953704</v>
+        <v>45117</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16182,7 +16187,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16219,14 +16224,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 24988-2023</t>
+          <t>A 31611-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45085.64087962963</v>
+        <v>45117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16238,13 +16243,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16281,14 +16281,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 2546-2026</t>
+          <t>A 36278-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>46037.46833333333</v>
+        <v>45534.58508101852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16300,8 +16300,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16338,14 +16343,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 13473-2024</t>
+          <t>A 33495-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45387.5827662037</v>
+        <v>45118</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16357,8 +16362,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16395,14 +16405,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 28133-2024</t>
+          <t>A 43143-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45476.69053240741</v>
+        <v>45567.62359953704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16415,7 +16425,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16452,14 +16462,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 12057-2021</t>
+          <t>A 47359-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44266</v>
+        <v>45587.43547453704</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16472,7 +16482,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16509,14 +16519,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 37744-2022</t>
+          <t>A 31645-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44810.58422453704</v>
+        <v>45506.60777777778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16528,8 +16538,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>1.1</v>
+        <v>11.1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16566,14 +16581,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 10184-2022</t>
+          <t>A 64359-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44622</v>
+        <v>45280</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16586,7 +16601,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16623,14 +16638,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 10602-2022</t>
+          <t>A 58787-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44624</v>
+        <v>44489.56234953704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16643,7 +16658,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16680,14 +16695,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 47531-2021</t>
+          <t>A 24988-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44447</v>
+        <v>45085.64087962963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16699,8 +16714,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>7.6</v>
+        <v>1.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16737,14 +16757,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 33734-2024</t>
+          <t>A 13473-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45520</v>
+        <v>45387.5827662037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16756,13 +16776,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16799,14 +16814,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 11607-2023</t>
+          <t>A 28133-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44994</v>
+        <v>45476.69053240741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16818,13 +16833,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16861,14 +16871,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 43726-2023</t>
+          <t>A 12057-2021</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45187</v>
+        <v>44266</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16880,13 +16890,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16923,14 +16928,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 35504-2024</t>
+          <t>A 37744-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45531.53686342593</v>
+        <v>44810.58422453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16942,13 +16947,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16985,14 +16985,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 68079-2021</t>
+          <t>A 10184-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44526.31943287037</v>
+        <v>44622</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -17042,14 +17042,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 6958-2024</t>
+          <t>A 10602-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45343</v>
+        <v>44624</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -17099,14 +17099,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 54826-2021</t>
+          <t>A 47531-2021</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44473</v>
+        <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17118,13 +17118,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17161,14 +17156,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 33710-2024</t>
+          <t>A 33734-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
         <v>45520</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17186,7 +17181,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17223,14 +17218,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 17185-2025</t>
+          <t>A 11607-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45755</v>
+        <v>44994</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17244,11 +17239,11 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>10.3</v>
+        <v>1.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17285,14 +17280,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 47639-2021</t>
+          <t>A 43726-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44448.3966087963</v>
+        <v>45187</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17304,8 +17299,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G264" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17342,14 +17342,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 32827-2024</t>
+          <t>A 35504-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45516.59273148148</v>
+        <v>45531.53686342593</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17404,14 +17404,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 1149-2024</t>
+          <t>A 68079-2021</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45302.49834490741</v>
+        <v>44526.31943287037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17424,7 +17424,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17461,14 +17461,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 18347-2025</t>
+          <t>A 6958-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45762.52913194444</v>
+        <v>45343</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17481,7 +17481,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17518,14 +17518,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 31613-2023</t>
+          <t>A 54826-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45117</v>
+        <v>44473</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17537,8 +17537,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17575,14 +17580,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 21039-2024</t>
+          <t>A 33710-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45439</v>
+        <v>45520</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17600,7 +17605,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17637,14 +17642,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 36283-2024</t>
+          <t>A 17185-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45534.58899305556</v>
+        <v>45755</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17658,11 +17663,11 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G270" t="n">
-        <v>6.9</v>
+        <v>10.3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17699,14 +17704,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 20972-2025</t>
+          <t>A 47639-2021</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45777.45725694444</v>
+        <v>44448.3966087963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17718,13 +17723,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17761,14 +17761,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 1144-2024</t>
+          <t>A 32827-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45302.49138888889</v>
+        <v>45516.59273148148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17780,8 +17780,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>0.9</v>
+        <v>8.5</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17818,14 +17823,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 21340-2025</t>
+          <t>A 1149-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45782.38909722222</v>
+        <v>45302.49834490741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17875,14 +17880,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 5554-2024</t>
+          <t>A 18347-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45334</v>
+        <v>45762.52913194444</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17895,7 +17900,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17932,14 +17937,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 22844-2025</t>
+          <t>A 31613-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45790.32160879629</v>
+        <v>45117</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17952,7 +17957,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17986,17 +17991,17 @@
       </c>
       <c r="R275" s="2" t="inlineStr"/>
     </row>
-    <row r="276">
+    <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 23666-2025</t>
+          <t>A 21039-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45792.84364583333</v>
+        <v>45439</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18008,8 +18013,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G276" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -18042,6 +18052,301 @@
         <v>0</v>
       </c>
       <c r="R276" s="2" t="inlineStr"/>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>A 36283-2024</t>
+        </is>
+      </c>
+      <c r="B277" s="1" t="n">
+        <v>45534.58899305556</v>
+      </c>
+      <c r="C277" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G277" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0</v>
+      </c>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R277" s="2" t="inlineStr"/>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>A 20972-2025</t>
+        </is>
+      </c>
+      <c r="B278" s="1" t="n">
+        <v>45777.45725694444</v>
+      </c>
+      <c r="C278" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0</v>
+      </c>
+      <c r="O278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R278" s="2" t="inlineStr"/>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>A 1144-2024</t>
+        </is>
+      </c>
+      <c r="B279" s="1" t="n">
+        <v>45302.49138888889</v>
+      </c>
+      <c r="C279" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0</v>
+      </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R279" s="2" t="inlineStr"/>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>A 21340-2025</t>
+        </is>
+      </c>
+      <c r="B280" s="1" t="n">
+        <v>45782.38909722222</v>
+      </c>
+      <c r="C280" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>1</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0</v>
+      </c>
+      <c r="O280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R280" s="2" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>A 5554-2024</t>
+        </is>
+      </c>
+      <c r="B281" s="1" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C281" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>1</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0</v>
+      </c>
+      <c r="O281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R281" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z281"/>
+  <dimension ref="A1:Z282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45784</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44512</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45299</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>46064.46010416667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45163</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>44623</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>44816</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>45860.53805555555</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45929</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,14 +1429,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 8347-2026</t>
+          <t>A 35741-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46064.64020833333</v>
+        <v>45860</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,162 +1448,162 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>2</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Knärot
+Vedskivlav</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35741-2025 artfynd.xlsx", "A 35741-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35741-2025 karta.png", "A 35741-2025")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35741-2025 karta knärot.png", "A 35741-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35741-2025 FSC-klagomål.docx", "A 35741-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35741-2025 FSC-klagomål mail.docx", "A 35741-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35741-2025 tillsynsbegäran.docx", "A 35741-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35741-2025 tillsynsbegäran mail.docx", "A 35741-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 8347-2026</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>46064.64020833333</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Sotriska
 Trådticka</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 8347-2026 artfynd.xlsx", "A 8347-2026")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 8347-2026 karta.png", "A 8347-2026")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 8347-2026 FSC-klagomål.docx", "A 8347-2026")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 8347-2026 FSC-klagomål mail.docx", "A 8347-2026")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 8347-2026 tillsynsbegäran.docx", "A 8347-2026")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 8347-2026 tillsynsbegäran mail.docx", "A 8347-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 35741-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Vedskivlav</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35741-2025 artfynd.xlsx", "A 35741-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35741-2025 karta.png", "A 35741-2025")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35741-2025 karta knärot.png", "A 35741-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35741-2025 FSC-klagomål.docx", "A 35741-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35741-2025 FSC-klagomål mail.docx", "A 35741-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35741-2025 tillsynsbegäran.docx", "A 35741-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35741-2025 tillsynsbegäran mail.docx", "A 35741-2025")</f>
         <v/>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
         <v>44447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44511</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44559.54373842593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1875,14 +1875,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 54828-2021</t>
+          <t>A 41621-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44473</v>
+        <v>45901.70506944445</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,23 +1896,23 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1924,59 +1924,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 54828-2021 artfynd.xlsx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41621-2025 artfynd.xlsx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 54828-2021 karta.png", "A 54828-2021")</f>
-        <v/>
-      </c>
-      <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 54828-2021 karta knärot.png", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41621-2025 karta.png", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 54828-2021 FSC-klagomål.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41621-2025 FSC-klagomål.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 54828-2021 FSC-klagomål mail.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41621-2025 FSC-klagomål mail.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 54828-2021 tillsynsbegäran.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41621-2025 tillsynsbegäran.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 54828-2021 tillsynsbegäran mail.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41621-2025 tillsynsbegäran mail.docx", "A 41621-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 28392-2024</t>
+          <t>A 41568-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45477.60362268519</v>
+        <v>45901.6075462963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1994,13 +1990,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>6.8</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2028,45 +2024,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28392-2024 artfynd.xlsx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41568-2025 artfynd.xlsx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28392-2024 karta.png", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41568-2025 karta.png", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28392-2024 FSC-klagomål.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41568-2025 FSC-klagomål.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28392-2024 FSC-klagomål mail.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41568-2025 FSC-klagomål mail.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28392-2024 tillsynsbegäran.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41568-2025 tillsynsbegäran.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28392-2024 tillsynsbegäran mail.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41568-2025 tillsynsbegäran mail.docx", "A 41568-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 41621-2025</t>
+          <t>A 28392-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45901.70506944445</v>
+        <v>45477.60362268519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,13 +2080,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2118,45 +2114,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41621-2025 artfynd.xlsx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28392-2024 artfynd.xlsx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41621-2025 karta.png", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28392-2024 karta.png", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41621-2025 FSC-klagomål.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28392-2024 FSC-klagomål.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41621-2025 FSC-klagomål mail.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28392-2024 FSC-klagomål mail.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41621-2025 tillsynsbegäran.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28392-2024 tillsynsbegäran.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41621-2025 tillsynsbegäran mail.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28392-2024 tillsynsbegäran mail.docx", "A 28392-2024")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 41568-2025</t>
+          <t>A 27434-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45901.6075462963</v>
+        <v>45813</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,13 +2170,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2208,45 +2204,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41568-2025 artfynd.xlsx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 27434-2025 artfynd.xlsx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41568-2025 karta.png", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 27434-2025 karta.png", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41568-2025 FSC-klagomål.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 27434-2025 FSC-klagomål.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41568-2025 FSC-klagomål mail.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 27434-2025 FSC-klagomål mail.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41568-2025 tillsynsbegäran.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 27434-2025 tillsynsbegäran.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41568-2025 tillsynsbegäran mail.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 27434-2025 tillsynsbegäran mail.docx", "A 27434-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 27434-2025</t>
+          <t>A 234-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45813</v>
+        <v>44928.66260416667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2264,7 +2260,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2276,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2288,55 +2284,59 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 27434-2025 artfynd.xlsx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 27434-2025 karta.png", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
+        <v/>
+      </c>
+      <c r="U20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 27434-2025 FSC-klagomål.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 27434-2025 FSC-klagomål mail.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 27434-2025 tillsynsbegäran.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 27434-2025 tillsynsbegäran mail.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 234-2023</t>
+          <t>A 28397-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44928.66260416667</v>
+        <v>45477.60549768519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2378,59 +2378,55 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
-        <v/>
-      </c>
-      <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 28397-2024</t>
+          <t>A 23354-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45477.60549768519</v>
+        <v>45453</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2448,7 +2444,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2486,41 +2482,41 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 23354-2024</t>
+          <t>A 48709-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45453</v>
+        <v>45936.63020833334</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2532,13 +2528,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2550,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2562,55 +2553,59 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
+        <v/>
+      </c>
+      <c r="U23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 48709-2025</t>
+          <t>A 43883-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45936.63020833334</v>
+        <v>45912.68892361111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2622,8 +2617,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>6.2</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2647,59 +2647,59 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
-        <v/>
-      </c>
-      <c r="U24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 7543-2024</t>
+          <t>A 48702-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45348</v>
+        <v>45936.62197916667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2712,20 +2712,20 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>1</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
@@ -2736,55 +2736,59 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 7543-2024 artfynd.xlsx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 7543-2024 karta.png", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
+        <v/>
+      </c>
+      <c r="U25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 7543-2024 FSC-klagomål.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 7543-2024 FSC-klagomål mail.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 7543-2024 tillsynsbegäran.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 7543-2024 tillsynsbegäran mail.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 35743-2025</t>
+          <t>A 7543-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45860.54238425926</v>
+        <v>45348</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2796,19 +2800,14 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2836,45 +2835,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35743-2025 artfynd.xlsx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 7543-2024 artfynd.xlsx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35743-2025 karta.png", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 7543-2024 karta.png", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35743-2025 FSC-klagomål.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 7543-2024 FSC-klagomål.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35743-2025 FSC-klagomål mail.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 7543-2024 FSC-klagomål mail.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35743-2025 tillsynsbegäran.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 7543-2024 tillsynsbegäran.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35743-2025 tillsynsbegäran mail.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 7543-2024 tillsynsbegäran mail.docx", "A 7543-2024")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 43883-2025</t>
+          <t>A 35743-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45912.68892361111</v>
+        <v>45860.54238425926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2892,7 +2891,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6.2</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2926,49 +2925,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35743-2025 artfynd.xlsx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35743-2025 karta.png", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35743-2025 FSC-klagomål.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35743-2025 FSC-klagomål mail.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35743-2025 tillsynsbegäran.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35743-2025 tillsynsbegäran mail.docx", "A 35743-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 36606-2025</t>
+          <t>A 30008-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45870.54482638889</v>
+        <v>45488.6040162037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,16 +2981,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>13.3</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -3010,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3020,45 +3015,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Brunklöver</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 36606-2025 artfynd.xlsx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 36606-2025 karta.png", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 36606-2025 FSC-klagomål.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 36606-2025 FSC-klagomål mail.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 36606-2025 tillsynsbegäran.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 36606-2025 tillsynsbegäran mail.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37012-2025</t>
+          <t>A 36606-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45874.7066550926</v>
+        <v>45870.54482638889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3076,7 +3071,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.7</v>
+        <v>13.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3110,45 +3105,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Brunklöver</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 36606-2025 artfynd.xlsx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 36606-2025 karta.png", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 36606-2025 FSC-klagomål.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 36606-2025 FSC-klagomål mail.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 36606-2025 tillsynsbegäran.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 36606-2025 tillsynsbegäran mail.docx", "A 36606-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 37011-2025</t>
+          <t>A 37012-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45874.70511574074</v>
+        <v>45874.7066550926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3166,19 +3161,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3193,56 +3188,52 @@
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
-        <v/>
-      </c>
-      <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 30008-2024</t>
+          <t>A 37011-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45488.6040162037</v>
+        <v>45874.70511574074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,20 +3251,20 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>1</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
@@ -3284,55 +3275,59 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
+        <v/>
+      </c>
+      <c r="U31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 48702-2025</t>
+          <t>A 46058-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45936.62197916667</v>
+        <v>45924</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3344,20 +3339,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3369,59 +3369,55 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
-        <v/>
-      </c>
-      <c r="U32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 46058-2025</t>
+          <t>A 186-2026</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45924</v>
+        <v>46025.54315972222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,26 +3429,21 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>1</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
@@ -3463,55 +3454,59 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 186-2026 artfynd.xlsx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 186-2026 karta.png", "A 186-2026")</f>
+        <v/>
+      </c>
+      <c r="U33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 186-2026 karta knärot.png", "A 186-2026")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 186-2026 FSC-klagomål.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 186-2026 FSC-klagomål mail.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 186-2026 tillsynsbegäran.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 186-2026 tillsynsbegäran mail.docx", "A 186-2026")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 186-2026</t>
+          <t>A 54828-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>46025.54315972222</v>
+        <v>44473</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,8 +3518,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>6.7</v>
+        <v>5.1</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3562,31 +3562,31 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 186-2026 artfynd.xlsx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 54828-2021 artfynd.xlsx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 186-2026 karta.png", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 54828-2021 karta.png", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="U34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 186-2026 karta knärot.png", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 54828-2021 karta knärot.png", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 186-2026 FSC-klagomål.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 54828-2021 FSC-klagomål.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 186-2026 FSC-klagomål mail.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 54828-2021 FSC-klagomål mail.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 186-2026 tillsynsbegäran.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 54828-2021 tillsynsbegäran.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 186-2026 tillsynsbegäran mail.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 54828-2021 tillsynsbegäran mail.docx", "A 54828-2021")</f>
         <v/>
       </c>
     </row>
@@ -3600,7 +3600,7 @@
         <v>46029</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>45202.83313657407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>45127</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>45531.57493055556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44323</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45439.6528125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45586</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44868.61302083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>44770</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>44314</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>44582.37412037037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>44501.57883101852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>44447.66321759259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>44504.60092592592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44512</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4687,14 +4687,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 50278-2021</t>
+          <t>A 16985-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44456</v>
+        <v>44295.6012962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4744,14 +4744,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 16985-2021</t>
+          <t>A 50278-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44295.6012962963</v>
+        <v>44456</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>44649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>44873</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4915,14 +4915,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19292-2022</t>
+          <t>A 51202-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44692</v>
+        <v>44868.60868055555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4934,8 +4934,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>11.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4972,14 +4977,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 51202-2022</t>
+          <t>A 19292-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44868.60868055555</v>
+        <v>44692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4991,13 +4996,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>11.3</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>45755</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>45531.51796296296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5158,14 +5158,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 24851-2021</t>
+          <t>A 6929-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44340</v>
+        <v>44967</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5177,13 +5177,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5220,14 +5215,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 6929-2023</t>
+          <t>A 24851-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44967</v>
+        <v>44340</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5239,8 +5234,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>45523.51896990741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>45523.51716435186</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>45523.52378472222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5448,14 +5448,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 22844-2025</t>
+          <t>A 5554-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45790.32160879629</v>
+        <v>45334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5505,14 +5505,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 3615-2026</t>
+          <t>A 11813-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46042.94633101852</v>
+        <v>45376.30138888889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5562,14 +5562,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 28391-2024</t>
+          <t>A 38746-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45477.60254629629</v>
+        <v>45887.37974537037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5624,14 +5624,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 11813-2024</t>
+          <t>A 38741-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45376.30138888889</v>
+        <v>45887.37405092592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5643,8 +5643,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5681,14 +5686,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 4419-2026</t>
+          <t>A 22844-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46045.60791666667</v>
+        <v>45790.32160879629</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5701,7 +5706,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5738,14 +5743,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 58369-2023</t>
+          <t>A 38486-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45250</v>
+        <v>45884.34282407408</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5758,7 +5763,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5795,14 +5800,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4032-2025</t>
+          <t>A 38744-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45684</v>
+        <v>45887.37774305556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5814,8 +5819,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>2.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5852,14 +5862,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38746-2025</t>
+          <t>A 23666-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45887.37974537037</v>
+        <v>45792.84364583333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5871,13 +5881,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5914,14 +5919,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 38741-2025</t>
+          <t>A 28391-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45887.37405092592</v>
+        <v>45477.60254629629</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5939,7 +5944,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5976,14 +5981,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 33296-2023</t>
+          <t>A 58369-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45127.69603009259</v>
+        <v>45250</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5995,13 +6000,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>6.4</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6038,14 +6038,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 23666-2025</t>
+          <t>A 4032-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45792.84364583333</v>
+        <v>45684</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6095,14 +6095,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38486-2025</t>
+          <t>A 24395-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45884.34282407408</v>
+        <v>45797.63881944444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6152,14 +6152,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 38744-2025</t>
+          <t>A 33296-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45887.37774305556</v>
+        <v>45127.69603009259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6214,14 +6214,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 51337-2023</t>
+          <t>A 40407-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45219.59144675926</v>
+        <v>45895.57083333333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6233,8 +6233,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6271,14 +6276,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 24395-2025</t>
+          <t>A 33981-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45797.63881944444</v>
+        <v>45523.52111111111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6291,7 +6296,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6328,14 +6333,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 54149-2023</t>
+          <t>A 10740-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45232.4528125</v>
+        <v>45722.41008101852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6348,7 +6353,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6385,14 +6390,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 33981-2024</t>
+          <t>A 51337-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45523.52111111111</v>
+        <v>45219.59144675926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6405,7 +6410,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6449,7 +6454,7 @@
         <v>45254</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6504,14 +6509,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 37743-2022</t>
+          <t>A 53517-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44810.58275462963</v>
+        <v>45614.60436342593</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6524,7 +6529,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6561,14 +6566,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 53517-2024</t>
+          <t>A 41569-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45614.60436342593</v>
+        <v>45901.60810185185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6580,8 +6585,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6618,14 +6628,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 40407-2025</t>
+          <t>A 57596-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45895.57083333333</v>
+        <v>45980.9716087963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6637,13 +6647,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6680,14 +6685,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 10740-2025</t>
+          <t>A 54149-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45722.41008101852</v>
+        <v>45232.4528125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6700,7 +6705,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6737,14 +6742,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 61642-2025</t>
+          <t>A 41620-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46002.43494212963</v>
+        <v>45901.70319444445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6756,8 +6761,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6794,14 +6804,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 4104-2026</t>
+          <t>A 57593-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46044.58568287037</v>
+        <v>45980.96055555555</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6814,7 +6824,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6851,14 +6861,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 26753-2025</t>
+          <t>A 57595-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45810.55490740741</v>
+        <v>45980.97019675926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6871,7 +6881,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6908,14 +6918,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 41569-2025</t>
+          <t>A 37743-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45901.60810185185</v>
+        <v>44810.58275462963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6927,13 +6937,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6970,14 +6975,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 41620-2025</t>
+          <t>A 25476-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45901.70319444445</v>
+        <v>45463.44922453703</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6995,7 +7000,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7032,14 +7037,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25476-2024</t>
+          <t>A 26753-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45463.44922453703</v>
+        <v>45810.55490740741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7051,13 +7056,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7094,14 +7094,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 58240-2021</t>
+          <t>A 57594-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44487.88978009259</v>
+        <v>45980.96221064815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7151,14 +7151,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 4101-2026</t>
+          <t>A 27431-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46044.57539351852</v>
+        <v>45813</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7170,8 +7170,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7208,14 +7213,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 27431-2025</t>
+          <t>A 27436-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
         <v>45813</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7233,7 +7238,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7270,14 +7275,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27436-2025</t>
+          <t>A 27438-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45813</v>
+        <v>45813.3143287037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7295,7 +7300,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7332,14 +7337,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 27438-2025</t>
+          <t>A 27432-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45813.3143287037</v>
+        <v>45813</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7357,7 +7362,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7394,14 +7399,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 27432-2025</t>
+          <t>A 27441-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45813</v>
+        <v>45813.31630787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7419,7 +7424,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7456,14 +7461,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27441-2025</t>
+          <t>A 58240-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45813.31630787037</v>
+        <v>44487.88978009259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7475,13 +7480,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7525,7 +7525,7 @@
         <v>45187</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>45587.63166666667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>45387.57859953704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7694,14 +7694,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 4541-2026</t>
+          <t>A 58324-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46046.94703703704</v>
+        <v>45985.47690972222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7751,14 +7751,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 23545-2025</t>
+          <t>A 58008-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45792</v>
+        <v>45982.45744212963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7808,14 +7808,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 11953-2025</t>
+          <t>A 44694-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45728.56366898148</v>
+        <v>45917.59674768519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>34.8</v>
+        <v>12.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7870,14 +7870,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 26302-2025</t>
+          <t>A 44692-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45805</v>
+        <v>45917.59540509259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7889,8 +7889,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7927,14 +7932,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27738-2024</t>
+          <t>A 23545-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45475.45108796296</v>
+        <v>45792</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7946,13 +7951,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7989,14 +7989,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 5177-2026</t>
+          <t>A 11953-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46049.65239583333</v>
+        <v>45728.56366898148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8008,8 +8008,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>6.7</v>
+        <v>34.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8046,14 +8051,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4566-2026</t>
+          <t>A 26302-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46047.87172453704</v>
+        <v>45805</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8066,7 +8071,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8103,14 +8108,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 5482-2026</t>
+          <t>A 27738-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46050.60585648148</v>
+        <v>45475.45108796296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8122,8 +8127,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8167,7 +8177,7 @@
         <v>44810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8217,14 +8227,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 5549-2026</t>
+          <t>A 47091-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46050.71560185185</v>
+        <v>45929.65052083333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8237,7 +8247,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8274,14 +8284,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 59130-2024</t>
+          <t>A 47097-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45637</v>
+        <v>45929.65541666667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8294,7 +8304,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8331,14 +8341,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5249-2026</t>
+          <t>A 59130-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46049.90417824074</v>
+        <v>45637</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8351,7 +8361,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8388,14 +8398,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 44694-2025</t>
+          <t>A 40393-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45917.59674768519</v>
+        <v>45895.55646990741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8413,7 +8423,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>12.1</v>
+        <v>2.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8450,14 +8460,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 44692-2025</t>
+          <t>A 57632-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45917.59540509259</v>
+        <v>44484.39166666667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8469,13 +8479,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8512,14 +8517,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 57632-2021</t>
+          <t>A 58373-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44484.39166666667</v>
+        <v>45250.65805555556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8532,7 +8537,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8569,14 +8574,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 58373-2023</t>
+          <t>A 41020-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45250.65805555556</v>
+        <v>45173.59236111111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8588,8 +8593,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8626,14 +8636,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 41020-2023</t>
+          <t>A 47249-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45173.59236111111</v>
+        <v>45930.43439814815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8645,13 +8655,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8688,14 +8693,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 31471-2025</t>
+          <t>A 40401-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45833.56436342592</v>
+        <v>45895.56739583334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8707,8 +8712,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>12.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8745,14 +8755,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 892-2026</t>
+          <t>A 31471-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46030.45260416667</v>
+        <v>45833.56436342592</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8765,7 +8775,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8802,14 +8812,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 837-2026</t>
+          <t>A 47469-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46030.3752662037</v>
+        <v>45930.67037037037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8822,7 +8832,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8859,14 +8869,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 32299-2025</t>
+          <t>A 48232-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45835</v>
+        <v>45933.53054398148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8880,11 +8890,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>12.8</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8921,14 +8931,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 44356-2023</t>
+          <t>A 48242-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45188.81979166667</v>
+        <v>45933.53510416667</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8940,8 +8950,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8978,14 +8993,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 23355-2024</t>
+          <t>A 27959-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45453</v>
+        <v>45816</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8999,11 +9014,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>45.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9040,14 +9055,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 13744-2023</t>
+          <t>A 48240-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45007</v>
+        <v>45933.53292824074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9061,11 +9076,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9102,14 +9117,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47091-2025</t>
+          <t>A 48241-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45929.65052083333</v>
+        <v>45933.53391203703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9121,8 +9136,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9159,14 +9179,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 47097-2025</t>
+          <t>A 48252-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45929.65541666667</v>
+        <v>45933.55329861111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9179,7 +9199,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9216,14 +9236,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 40393-2025</t>
+          <t>A 32299-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45895.55646990741</v>
+        <v>45835</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9237,11 +9257,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.9</v>
+        <v>12.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9278,14 +9298,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 8510-2023</t>
+          <t>A 48231-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44977.56144675926</v>
+        <v>45933.52594907407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9297,8 +9317,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9335,14 +9360,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 47249-2025</t>
+          <t>A 44356-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45930.43439814815</v>
+        <v>45188.81979166667</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9355,7 +9380,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9392,14 +9417,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 40401-2025</t>
+          <t>A 23355-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45895.56739583334</v>
+        <v>45453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9417,7 +9442,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>12.6</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9454,14 +9479,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 47469-2025</t>
+          <t>A 48612-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45930.67037037037</v>
+        <v>45935</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9473,8 +9498,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9511,14 +9541,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 48232-2025</t>
+          <t>A 13744-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45933.53054398148</v>
+        <v>45007</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9532,7 +9562,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -9573,14 +9603,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 48242-2025</t>
+          <t>A 48609-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45933.53510416667</v>
+        <v>45935</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9594,11 +9624,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9635,14 +9665,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 27959-2025</t>
+          <t>A 43885-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45816</v>
+        <v>45912.69076388889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9656,11 +9686,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>45.6</v>
+        <v>1.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9697,14 +9727,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 48240-2025</t>
+          <t>A 43887-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45933.53292824074</v>
+        <v>45912.69278935185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9722,7 +9752,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9759,14 +9789,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 48241-2025</t>
+          <t>A 45965-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45933.53391203703</v>
+        <v>45924.35655092593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9784,7 +9814,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9821,14 +9851,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 48252-2025</t>
+          <t>A 8510-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45933.55329861111</v>
+        <v>44977.56144675926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9841,7 +9871,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9878,14 +9908,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 48231-2025</t>
+          <t>A 58633-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45933.52594907407</v>
+        <v>45986.48885416667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9897,13 +9927,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9947,7 +9972,7 @@
         <v>45069</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10002,14 +10027,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 48612-2025</t>
+          <t>A 51225-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45935</v>
+        <v>45947.65599537037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10023,11 +10048,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10064,14 +10089,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 35473-2025</t>
+          <t>A 25477-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45855.66804398148</v>
+        <v>45463.45015046297</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10083,8 +10108,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10121,14 +10151,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 35475-2025</t>
+          <t>A 43282-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45855.67001157408</v>
+        <v>44432.39119212963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10140,8 +10170,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10178,14 +10213,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 48609-2025</t>
+          <t>A 58805-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45935</v>
+        <v>45986.9652662037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10197,13 +10232,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10240,14 +10270,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 25477-2024</t>
+          <t>A 35473-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45463.45015046297</v>
+        <v>45855.66804398148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10259,13 +10289,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10302,14 +10327,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 43885-2025</t>
+          <t>A 35475-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45912.69076388889</v>
+        <v>45855.67001157408</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10321,13 +10346,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10364,14 +10384,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 43887-2025</t>
+          <t>A 47495-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45912.69278935185</v>
+        <v>45587.59559027778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10389,7 +10409,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10426,14 +10446,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 43282-2021</t>
+          <t>A 52693-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44432.39119212963</v>
+        <v>45956.58960648148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10445,13 +10465,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10488,14 +10503,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 45965-2025</t>
+          <t>A 36180-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45924.35655092593</v>
+        <v>45867.41327546296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10507,13 +10522,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>5.8</v>
+        <v>11.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10550,14 +10560,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 5872-2026</t>
+          <t>A 30007-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46052.3731712963</v>
+        <v>45488.60150462963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10569,8 +10579,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10607,14 +10622,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 36180-2025</t>
+          <t>A 30009-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45867.41327546296</v>
+        <v>45488.60546296297</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10626,8 +10641,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>11.7</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10664,14 +10684,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 36349-2025</t>
+          <t>A 54578-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45868.48269675926</v>
+        <v>45617.65644675926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10684,7 +10704,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10721,14 +10741,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 47495-2024</t>
+          <t>A 36349-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45587.59559027778</v>
+        <v>45868.48269675926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10740,13 +10760,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10783,14 +10798,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 51225-2025</t>
+          <t>A 49815-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45947.65599537037</v>
+        <v>45597.39709490741</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10802,13 +10817,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10845,14 +10855,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 30007-2024</t>
+          <t>A 37763-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45488.60150462963</v>
+        <v>45156</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10864,13 +10874,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>11.5</v>
+        <v>2.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10907,14 +10912,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 30009-2024</t>
+          <t>A 35505-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45488.60546296297</v>
+        <v>45531.53869212963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10932,7 +10937,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10969,14 +10974,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 37444-2025</t>
+          <t>A 35514-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45877.54305555556</v>
+        <v>45531.56472222223</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10994,7 +10999,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -11031,14 +11036,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 54578-2024</t>
+          <t>A 30229-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45617.65644675926</v>
+        <v>45490.46946759259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11050,8 +11055,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11088,14 +11098,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 49815-2024</t>
+          <t>A 37444-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45597.39709490741</v>
+        <v>45877.54305555556</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11107,8 +11117,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11145,14 +11160,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 37763-2023</t>
+          <t>A 2612-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45156</v>
+        <v>45674</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11165,7 +11180,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11202,14 +11217,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 37988-2025</t>
+          <t>A 54876-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45881.70454861111</v>
+        <v>45967.31611111111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11221,13 +11236,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11264,14 +11274,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 35505-2024</t>
+          <t>A 54877-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45531.53869212963</v>
+        <v>45967.31960648148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11283,13 +11293,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11326,14 +11331,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 35514-2024</t>
+          <t>A 54874-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45531.56472222223</v>
+        <v>45967.30939814815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11345,13 +11350,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11388,14 +11388,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 52693-2025</t>
+          <t>A 37988-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45956.58960648148</v>
+        <v>45881.70454861111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11407,8 +11407,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11445,14 +11450,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 30229-2024</t>
+          <t>A 54827-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45490.46946759259</v>
+        <v>45966.66925925926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11464,13 +11469,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11507,14 +11507,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 2546-2026</t>
+          <t>A 23376-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46037.46833333333</v>
+        <v>45453</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11526,8 +11526,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>5</v>
+        <v>10.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11564,14 +11569,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 2612-2025</t>
+          <t>A 55288-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45674</v>
+        <v>45969.33444444444</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11584,7 +11589,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11621,14 +11626,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 7209-2026</t>
+          <t>A 55287-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46058.53673611111</v>
+        <v>45969.30730324074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11640,13 +11645,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11683,14 +11683,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 7210-2026</t>
+          <t>A 58955-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46058.53807870371</v>
+        <v>45252</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11702,13 +11702,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11745,14 +11740,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 7207-2026</t>
+          <t>A 6963-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46058.53497685185</v>
+        <v>45343.4562037037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11764,13 +11759,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11807,14 +11797,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 64000-2025</t>
+          <t>A 802-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46021.39847222222</v>
+        <v>46030</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11827,7 +11817,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11864,14 +11854,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 23376-2024</t>
+          <t>A 10587-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45453</v>
+        <v>44624</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11883,13 +11873,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>10.8</v>
+        <v>5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11926,14 +11911,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 64036-2025</t>
+          <t>A 31123-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46021</v>
+        <v>44368</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11946,7 +11931,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11983,14 +11968,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 58955-2023</t>
+          <t>A 36763-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45252</v>
+        <v>45538.36181712963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12003,7 +11988,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -12040,14 +12025,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 54876-2025</t>
+          <t>A 21027-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45967.31611111111</v>
+        <v>45439</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12059,8 +12044,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12097,14 +12087,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 54877-2025</t>
+          <t>A 21028-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45967.31960648148</v>
+        <v>45439</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12116,8 +12106,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12154,14 +12149,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 54874-2025</t>
+          <t>A 16371-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45967.30939814815</v>
+        <v>44671</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12174,7 +12169,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12211,14 +12206,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 2220-2026</t>
+          <t>A 57751-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46036.50115740741</v>
+        <v>45630.82424768519</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12231,7 +12226,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12268,14 +12263,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 54827-2025</t>
+          <t>A 3614-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45966.66925925926</v>
+        <v>46042.94263888889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12288,7 +12283,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12325,14 +12320,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 7580-2026</t>
+          <t>A 61186-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46061.63731481481</v>
+        <v>46000.58625</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12345,7 +12340,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12382,14 +12377,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 6963-2024</t>
+          <t>A 3870-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45343.4562037037</v>
+        <v>46043.64090277778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12401,8 +12396,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12439,14 +12439,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 55288-2025</t>
+          <t>A 3615-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45969.33444444444</v>
+        <v>46042.94633101852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12496,14 +12496,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 55287-2025</t>
+          <t>A 2915-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45969.30730324074</v>
+        <v>45677.96424768519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12553,14 +12553,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 7581-2026</t>
+          <t>A 32980-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46061.63856481481</v>
+        <v>45125.59980324074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12610,14 +12610,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 3391-2026</t>
+          <t>A 57400-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46042</v>
+        <v>45629.71085648148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12630,7 +12630,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12667,14 +12667,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 8314-2026</t>
+          <t>A 61642-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46064.60053240741</v>
+        <v>46002.43494212963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12724,14 +12724,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 8279-2026</t>
+          <t>A 4104-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46064.55806712963</v>
+        <v>46044.58568287037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12743,13 +12743,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12786,14 +12781,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 10587-2022</t>
+          <t>A 62596-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44624</v>
+        <v>45271</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12806,7 +12801,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12843,14 +12838,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 8321-2026</t>
+          <t>A 4101-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46064.60894675926</v>
+        <v>46044.57539351852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12863,7 +12858,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12900,14 +12895,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 8324-2026</t>
+          <t>A 4541-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46064.61172453704</v>
+        <v>46046.94703703704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12920,7 +12915,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12957,14 +12952,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 8202-2026</t>
+          <t>A 25474-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46064.44456018518</v>
+        <v>45463.44631944445</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12976,8 +12971,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -13014,14 +13014,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 8250-2026</t>
+          <t>A 8448-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46064.49732638889</v>
+        <v>45709</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -13071,14 +13071,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 8275-2026</t>
+          <t>A 47493-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46064.55445601852</v>
+        <v>45587.59410879629</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>13.6</v>
+        <v>3.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13133,14 +13133,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 57596-2025</t>
+          <t>A 4566-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45980.9716087963</v>
+        <v>46047.87172453704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13190,14 +13190,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 57593-2025</t>
+          <t>A 5482-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45980.96055555555</v>
+        <v>46050.60585648148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13247,14 +13247,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 57595-2025</t>
+          <t>A 5549-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45980.97019675926</v>
+        <v>46050.71560185185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13304,14 +13304,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 31123-2021</t>
+          <t>A 5249-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44368</v>
+        <v>46049.90417824074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13361,14 +13361,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 36763-2024</t>
+          <t>A 10161-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45538.36181712963</v>
+        <v>44986</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13380,8 +13380,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13418,14 +13423,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 57594-2025</t>
+          <t>A 892-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45980.96221064815</v>
+        <v>46030.45260416667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13438,7 +13443,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13475,14 +13480,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 8239-2026</t>
+          <t>A 837-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46064.48892361111</v>
+        <v>46030.3752662037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13532,14 +13537,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 58324-2025</t>
+          <t>A 2546-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45985.47690972222</v>
+        <v>46037.46833333333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13552,7 +13557,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13589,14 +13594,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 58008-2025</t>
+          <t>A 7209-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45982.45744212963</v>
+        <v>46058.53673611111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13608,8 +13613,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13646,14 +13656,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 21027-2024</t>
+          <t>A 7210-2026</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45439</v>
+        <v>46058.53807870371</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13671,7 +13681,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13708,14 +13718,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 21028-2024</t>
+          <t>A 7207-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45439</v>
+        <v>46058.53497685185</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13733,7 +13743,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13770,14 +13780,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 3997-2026</t>
+          <t>A 34232-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46044</v>
+        <v>45127</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13789,8 +13799,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13827,14 +13842,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 8748-2026</t>
+          <t>A 64000-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46066.54123842593</v>
+        <v>46021.39847222222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13846,13 +13861,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13889,14 +13899,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 16371-2022</t>
+          <t>A 2220-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44671</v>
+        <v>46036.50115740741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13909,7 +13919,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13946,14 +13956,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 8802-2026</t>
+          <t>A 7580-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46066.59980324074</v>
+        <v>46061.63731481481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13966,7 +13976,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -14003,14 +14013,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 659-2026</t>
+          <t>A 7581-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46029.58206018519</v>
+        <v>46061.63856481481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14023,7 +14033,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>9.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -14060,14 +14070,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 57751-2024</t>
+          <t>A 3391-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45630.82424768519</v>
+        <v>46042</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14080,7 +14090,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14117,14 +14127,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 129-2026</t>
+          <t>A 8314-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46024.59600694444</v>
+        <v>46064.60053240741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14137,7 +14147,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14174,14 +14184,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 58633-2025</t>
+          <t>A 8279-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45986.48885416667</v>
+        <v>46064.55806712963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14193,8 +14203,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14231,14 +14246,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 341-2026</t>
+          <t>A 8321-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46027</v>
+        <v>46064.60894675926</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14251,7 +14266,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14288,14 +14303,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 58805-2025</t>
+          <t>A 8324-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45986.9652662037</v>
+        <v>46064.61172453704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14308,7 +14323,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14345,14 +14360,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 8812-2026</t>
+          <t>A 8202-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46066.61409722222</v>
+        <v>46064.44456018518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14364,13 +14379,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14407,14 +14417,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 8751-2026</t>
+          <t>A 8250-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46066.54503472222</v>
+        <v>46064.49732638889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14426,13 +14436,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14469,14 +14474,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 8749-2026</t>
+          <t>A 8275-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46066.543125</v>
+        <v>46064.55445601852</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14494,7 +14499,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4.4</v>
+        <v>13.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14531,14 +14536,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 2915-2025</t>
+          <t>A 22226-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45677.96424768519</v>
+        <v>45446.4203587963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14551,7 +14556,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14588,14 +14593,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 32980-2023</t>
+          <t>A 8239-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45125.59980324074</v>
+        <v>46064.48892361111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14608,7 +14613,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14645,14 +14650,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 57400-2024</t>
+          <t>A 3997-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45629.71085648148</v>
+        <v>46044</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14665,7 +14670,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14702,14 +14707,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 62596-2023</t>
+          <t>A 37693-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45271</v>
+        <v>45159.57056712963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14722,7 +14727,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14759,14 +14764,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 681-2026</t>
+          <t>A 8748-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46029</v>
+        <v>46066.54123842593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14778,8 +14783,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14816,14 +14826,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 25474-2024</t>
+          <t>A 8802-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45463.44631944445</v>
+        <v>46066.59980324074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14835,13 +14845,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14878,14 +14883,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 683-2026</t>
+          <t>A 129-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46029</v>
+        <v>46024.59600694444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14898,7 +14903,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14935,14 +14940,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 8448-2025</t>
+          <t>A 341-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45709</v>
+        <v>46027</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14955,7 +14960,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14992,14 +14997,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 47493-2024</t>
+          <t>A 8812-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45587.59410879629</v>
+        <v>46066.61409722222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15017,7 +15022,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -15054,14 +15059,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 802-2026</t>
+          <t>A 8751-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46030</v>
+        <v>46066.54503472222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15073,8 +15078,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15111,14 +15121,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 688-2026</t>
+          <t>A 8749-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46029</v>
+        <v>46066.543125</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15130,8 +15140,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15168,14 +15183,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 10161-2023</t>
+          <t>A 9440-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44986</v>
+        <v>46071.46555555556</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15189,11 +15204,11 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.6</v>
+        <v>6.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15230,14 +15245,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 692-2026</t>
+          <t>A 659-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46029</v>
+        <v>46029.58206018519</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15250,7 +15265,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15287,14 +15302,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 3614-2026</t>
+          <t>A 692-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46042.94263888889</v>
+        <v>46029</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15307,7 +15322,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15344,14 +15359,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 61186-2025</t>
+          <t>A 5177-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46000.58625</v>
+        <v>46049</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15364,7 +15379,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>4.2</v>
+        <v>6.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15401,14 +15416,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 3870-2026</t>
+          <t>A 4419-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46043.64090277778</v>
+        <v>46045.60791666667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15420,13 +15435,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15463,14 +15473,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 34232-2023</t>
+          <t>A 681-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45127</v>
+        <v>46029</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15482,13 +15492,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15525,14 +15530,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 22226-2024</t>
+          <t>A 683-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45446.4203587963</v>
+        <v>46029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15545,7 +15550,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15582,14 +15587,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 37693-2023</t>
+          <t>A 688-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45159.57056712963</v>
+        <v>46029</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15602,7 +15607,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15639,14 +15644,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 48063-2024</t>
+          <t>A 64036-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45589.55237268518</v>
+        <v>46021</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15659,7 +15664,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15696,14 +15701,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 17762-2022</t>
+          <t>A 5872-2026</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44680</v>
+        <v>46052</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15753,14 +15758,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 51277-2022</t>
+          <t>A 48063-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44868.7127662037</v>
+        <v>45589.55237268518</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15773,7 +15778,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15810,14 +15815,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 13745-2023</t>
+          <t>A 17762-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45007</v>
+        <v>44680</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15829,13 +15834,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15872,14 +15872,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 14119-2025</t>
+          <t>A 51277-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45740.4659837963</v>
+        <v>44868.7127662037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15891,13 +15891,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15934,14 +15929,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 25465-2024</t>
+          <t>A 13745-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45463.43416666667</v>
+        <v>45007</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15955,11 +15950,11 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15996,14 +15991,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 35114-2023</t>
+          <t>A 14119-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45145</v>
+        <v>45740.4659837963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16015,8 +16010,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -16053,14 +16053,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 35136-2023</t>
+          <t>A 25465-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45145.52915509259</v>
+        <v>45463.43416666667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16072,8 +16072,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16110,14 +16115,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 38251-2022</t>
+          <t>A 35114-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44812.4874537037</v>
+        <v>45145</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16130,7 +16135,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16167,14 +16172,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 31607-2023</t>
+          <t>A 35136-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45117</v>
+        <v>45145.52915509259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16187,7 +16192,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16224,14 +16229,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 31611-2023</t>
+          <t>A 38251-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45117</v>
+        <v>44812.4874537037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16244,7 +16249,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16281,14 +16286,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 36278-2024</t>
+          <t>A 31607-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45534.58508101852</v>
+        <v>45117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16300,13 +16305,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>8.699999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16343,14 +16343,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 33495-2023</t>
+          <t>A 31611-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45118</v>
+        <v>45117</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16362,13 +16362,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16405,14 +16400,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 43143-2024</t>
+          <t>A 36278-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45567.62359953704</v>
+        <v>45534.58508101852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16424,8 +16419,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>3.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16462,14 +16462,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 47359-2024</t>
+          <t>A 33495-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45587.43547453704</v>
+        <v>45118</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16481,8 +16481,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16519,14 +16524,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 31645-2024</t>
+          <t>A 43143-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45506.60777777778</v>
+        <v>45567.62359953704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16538,13 +16543,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>11.1</v>
+        <v>3.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16581,14 +16581,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 64359-2023</t>
+          <t>A 47359-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45280</v>
+        <v>45587.43547453704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16638,14 +16638,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 58787-2021</t>
+          <t>A 31645-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44489.56234953704</v>
+        <v>45506.60777777778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16657,8 +16657,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>1.1</v>
+        <v>11.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16695,14 +16700,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 24988-2023</t>
+          <t>A 64359-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45085.64087962963</v>
+        <v>45280</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16714,13 +16719,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16757,14 +16757,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 13473-2024</t>
+          <t>A 58787-2021</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45387.5827662037</v>
+        <v>44489.56234953704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16814,14 +16814,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 28133-2024</t>
+          <t>A 24988-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45476.69053240741</v>
+        <v>45085.64087962963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16833,8 +16833,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16871,14 +16876,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 12057-2021</t>
+          <t>A 13473-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44266</v>
+        <v>45387.5827662037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16891,7 +16896,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16928,14 +16933,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 37744-2022</t>
+          <t>A 28133-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44810.58422453704</v>
+        <v>45476.69053240741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16948,7 +16953,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16985,14 +16990,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 10184-2022</t>
+          <t>A 12057-2021</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44622</v>
+        <v>44266</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17005,7 +17010,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -17042,14 +17047,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 10602-2022</t>
+          <t>A 37744-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44624</v>
+        <v>44810.58422453704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17062,7 +17067,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -17099,14 +17104,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 47531-2021</t>
+          <t>A 10184-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44447</v>
+        <v>44622</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17119,7 +17124,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17156,14 +17161,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 33734-2024</t>
+          <t>A 10602-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45520</v>
+        <v>44624</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17175,13 +17180,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17218,14 +17218,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 11607-2023</t>
+          <t>A 47531-2021</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44994</v>
+        <v>44447</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17237,13 +17237,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>1.1</v>
+        <v>7.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17280,14 +17275,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 43726-2023</t>
+          <t>A 33734-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45187</v>
+        <v>45520</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17305,7 +17300,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17342,14 +17337,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 35504-2024</t>
+          <t>A 11607-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45531.53686342593</v>
+        <v>44994</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17363,11 +17358,11 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17404,14 +17399,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 68079-2021</t>
+          <t>A 43726-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44526.31943287037</v>
+        <v>45187</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17423,8 +17418,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17461,14 +17461,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 6958-2024</t>
+          <t>A 35504-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45343</v>
+        <v>45531.53686342593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17480,8 +17480,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17518,14 +17523,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 54826-2021</t>
+          <t>A 68079-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44473</v>
+        <v>44526.31943287037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17537,13 +17542,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17580,14 +17580,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 33710-2024</t>
+          <t>A 6958-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45520</v>
+        <v>45343</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17599,13 +17599,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17642,14 +17637,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 17185-2025</t>
+          <t>A 54826-2021</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45755</v>
+        <v>44473</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17667,7 +17662,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>10.3</v>
+        <v>6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17704,14 +17699,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 47639-2021</t>
+          <t>A 33710-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44448.3966087963</v>
+        <v>45520</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17723,8 +17718,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17761,14 +17761,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 32827-2024</t>
+          <t>A 17185-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45516.59273148148</v>
+        <v>45755</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17782,11 +17782,11 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>8.5</v>
+        <v>10.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17823,14 +17823,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 1149-2024</t>
+          <t>A 47639-2021</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45302.49834490741</v>
+        <v>44448.3966087963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17880,14 +17880,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 18347-2025</t>
+          <t>A 32827-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45762.52913194444</v>
+        <v>45516.59273148148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17899,8 +17899,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17937,14 +17942,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 31613-2023</t>
+          <t>A 1149-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45117</v>
+        <v>45302.49834490741</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17957,7 +17962,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17994,14 +17999,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 21039-2024</t>
+          <t>A 18347-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45439</v>
+        <v>45762.52913194444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18013,13 +18018,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -18056,14 +18056,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 36283-2024</t>
+          <t>A 31613-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45534.58899305556</v>
+        <v>45117</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18075,13 +18075,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G277" t="n">
-        <v>6.9</v>
+        <v>1.2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -18118,14 +18113,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 20972-2025</t>
+          <t>A 21039-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45777.45725694444</v>
+        <v>45439</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18180,14 +18175,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 1144-2024</t>
+          <t>A 36283-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45302.49138888889</v>
+        <v>45534.58899305556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18199,8 +18194,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G279" t="n">
-        <v>0.9</v>
+        <v>6.9</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -18237,116 +18237,178 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
+          <t>A 20972-2025</t>
+        </is>
+      </c>
+      <c r="B280" s="1" t="n">
+        <v>45777.45725694444</v>
+      </c>
+      <c r="C280" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0</v>
+      </c>
+      <c r="O280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R280" s="2" t="inlineStr"/>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>A 1144-2024</t>
+        </is>
+      </c>
+      <c r="B281" s="1" t="n">
+        <v>45302.49138888889</v>
+      </c>
+      <c r="C281" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0</v>
+      </c>
+      <c r="O281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R281" s="2" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
           <t>A 21340-2025</t>
         </is>
       </c>
-      <c r="B280" s="1" t="n">
+      <c r="B282" s="1" t="n">
         <v>45782.38909722222</v>
       </c>
-      <c r="C280" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G280" t="n">
+      <c r="C282" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
         <v>1</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="n">
-        <v>0</v>
-      </c>
-      <c r="K280" t="n">
-        <v>0</v>
-      </c>
-      <c r="L280" t="n">
-        <v>0</v>
-      </c>
-      <c r="M280" t="n">
-        <v>0</v>
-      </c>
-      <c r="N280" t="n">
-        <v>0</v>
-      </c>
-      <c r="O280" t="n">
-        <v>0</v>
-      </c>
-      <c r="P280" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q280" t="n">
-        <v>0</v>
-      </c>
-      <c r="R280" s="2" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>A 5554-2024</t>
-        </is>
-      </c>
-      <c r="B281" s="1" t="n">
-        <v>45334</v>
-      </c>
-      <c r="C281" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G281" t="n">
-        <v>1</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="n">
-        <v>0</v>
-      </c>
-      <c r="K281" t="n">
-        <v>0</v>
-      </c>
-      <c r="L281" t="n">
-        <v>0</v>
-      </c>
-      <c r="M281" t="n">
-        <v>0</v>
-      </c>
-      <c r="N281" t="n">
-        <v>0</v>
-      </c>
-      <c r="O281" t="n">
-        <v>0</v>
-      </c>
-      <c r="P281" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q281" t="n">
-        <v>0</v>
-      </c>
-      <c r="R281" s="2" t="inlineStr"/>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0</v>
+      </c>
+      <c r="O282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R282" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45784</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44512</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45299</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>46064.46010416667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45163</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>44623</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>44816</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,14 +1248,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 35742-2025</t>
+          <t>A 47084-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45860.53805555555</v>
+        <v>45929</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,25 +1267,20 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>6.1</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1300,129 +1295,134 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Ullticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47084-2025 artfynd.xlsx", "A 47084-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47084-2025 karta.png", "A 47084-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47084-2025 FSC-klagomål.docx", "A 47084-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47084-2025 FSC-klagomål mail.docx", "A 47084-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47084-2025 tillsynsbegäran.docx", "A 47084-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47084-2025 tillsynsbegäran mail.docx", "A 47084-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 35742-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45860.53805555555</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Knärot
 Mörk husmossa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35742-2025 artfynd.xlsx", "A 35742-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35742-2025 karta.png", "A 35742-2025")</f>
         <v/>
       </c>
-      <c r="U9">
+      <c r="U10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35742-2025 karta knärot.png", "A 35742-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35742-2025 FSC-klagomål.docx", "A 35742-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35742-2025 FSC-klagomål mail.docx", "A 35742-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35742-2025 tillsynsbegäran.docx", "A 35742-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35742-2025 tillsynsbegäran mail.docx", "A 35742-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 47084-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45929</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>12</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Ullticka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47084-2025 artfynd.xlsx", "A 47084-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47084-2025 karta.png", "A 47084-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47084-2025 FSC-klagomål.docx", "A 47084-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47084-2025 FSC-klagomål mail.docx", "A 47084-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47084-2025 tillsynsbegäran.docx", "A 47084-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47084-2025 tillsynsbegäran mail.docx", "A 47084-2025")</f>
         <v/>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
         <v>45860</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46064.64020833333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44511</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44559.54373842593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1875,14 +1875,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 41621-2025</t>
+          <t>A 46058-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45901.70506944445</v>
+        <v>45924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,14 +1896,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1934,45 +1934,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41621-2025 artfynd.xlsx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41621-2025 karta.png", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41621-2025 FSC-klagomål.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41621-2025 FSC-klagomål mail.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41621-2025 tillsynsbegäran.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41621-2025 tillsynsbegäran mail.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 41568-2025</t>
+          <t>A 48709-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45901.6075462963</v>
+        <v>45936.63020833334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1984,26 +1984,21 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>6.8</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
@@ -2014,55 +2009,59 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41568-2025 artfynd.xlsx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41568-2025 karta.png", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
+        <v/>
+      </c>
+      <c r="U17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41568-2025 FSC-klagomål.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41568-2025 FSC-klagomål mail.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41568-2025 tillsynsbegäran.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41568-2025 tillsynsbegäran mail.docx", "A 41568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 28392-2024</t>
+          <t>A 33298-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45477.60362268519</v>
+        <v>45127</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2080,13 +2079,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2114,45 +2113,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28392-2024 artfynd.xlsx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 33298-2023 artfynd.xlsx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28392-2024 karta.png", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 33298-2023 karta.png", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28392-2024 FSC-klagomål.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 33298-2023 FSC-klagomål.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28392-2024 FSC-klagomål mail.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 33298-2023 FSC-klagomål mail.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28392-2024 tillsynsbegäran.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 33298-2023 tillsynsbegäran.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28392-2024 tillsynsbegäran mail.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 33298-2023 tillsynsbegäran mail.docx", "A 33298-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 27434-2025</t>
+          <t>A 41621-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45813</v>
+        <v>45901.70506944445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2170,13 +2169,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2204,45 +2203,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 27434-2025 artfynd.xlsx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41621-2025 artfynd.xlsx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 27434-2025 karta.png", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41621-2025 karta.png", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 27434-2025 FSC-klagomål.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41621-2025 FSC-klagomål.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 27434-2025 FSC-klagomål mail.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41621-2025 FSC-klagomål mail.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 27434-2025 tillsynsbegäran.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41621-2025 tillsynsbegäran.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 27434-2025 tillsynsbegäran mail.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41621-2025 tillsynsbegäran mail.docx", "A 41621-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 234-2023</t>
+          <t>A 43883-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44928.66260416667</v>
+        <v>45912.68892361111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2260,7 +2259,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2272,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2284,59 +2283,59 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
-        <v/>
-      </c>
-      <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 28397-2024</t>
+          <t>A 41568-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45477.60549768519</v>
+        <v>45901.6075462963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2354,13 +2353,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2388,45 +2387,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41568-2025 artfynd.xlsx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41568-2025 karta.png", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41568-2025 FSC-klagomål.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41568-2025 FSC-klagomål mail.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41568-2025 tillsynsbegäran.docx", "A 41568-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41568-2025 tillsynsbegäran mail.docx", "A 41568-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 23354-2024</t>
+          <t>A 48702-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45453</v>
+        <v>45936.62197916667</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,13 +2437,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2456,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2468,55 +2462,59 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
+        <v/>
+      </c>
+      <c r="U22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 48709-2025</t>
+          <t>A 30008-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45936.63020833334</v>
+        <v>45488.6040162037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,20 +2526,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2553,59 +2556,55 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
-        <v/>
-      </c>
-      <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 43883-2025</t>
+          <t>A 27434-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45912.68892361111</v>
+        <v>45813</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2623,7 +2622,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2657,49 +2656,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 27434-2025 artfynd.xlsx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 27434-2025 karta.png", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 27434-2025 FSC-klagomål.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 27434-2025 FSC-klagomål mail.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 27434-2025 tillsynsbegäran.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 27434-2025 tillsynsbegäran mail.docx", "A 27434-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 48702-2025</t>
+          <t>A 23354-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45936.62197916667</v>
+        <v>45453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2711,8 +2706,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2736,59 +2736,55 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
-        <v/>
-      </c>
-      <c r="U25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 7543-2024</t>
+          <t>A 47219-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45348</v>
+        <v>45586</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,18 +2796,23 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>3.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2835,45 +2836,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 7543-2024 artfynd.xlsx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47219-2024 artfynd.xlsx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 7543-2024 karta.png", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47219-2024 karta.png", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 7543-2024 FSC-klagomål.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47219-2024 FSC-klagomål.docx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 7543-2024 FSC-klagomål mail.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47219-2024 FSC-klagomål mail.docx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 7543-2024 tillsynsbegäran.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47219-2024 tillsynsbegäran.docx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 7543-2024 tillsynsbegäran mail.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47219-2024 tillsynsbegäran mail.docx", "A 47219-2024")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 35743-2025</t>
+          <t>A 7543-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45860.54238425926</v>
+        <v>45348</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,19 +2886,14 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2925,45 +2921,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35743-2025 artfynd.xlsx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 7543-2024 artfynd.xlsx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35743-2025 karta.png", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 7543-2024 karta.png", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35743-2025 FSC-klagomål.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 7543-2024 FSC-klagomål.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35743-2025 FSC-klagomål mail.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 7543-2024 FSC-klagomål mail.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35743-2025 tillsynsbegäran.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 7543-2024 tillsynsbegäran.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35743-2025 tillsynsbegäran mail.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 7543-2024 tillsynsbegäran mail.docx", "A 7543-2024")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 30008-2024</t>
+          <t>A 35743-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45488.6040162037</v>
+        <v>45860.54238425926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2981,13 +2977,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3015,31 +3011,31 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35743-2025 artfynd.xlsx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35743-2025 karta.png", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35743-2025 FSC-klagomål.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35743-2025 FSC-klagomål mail.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35743-2025 tillsynsbegäran.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35743-2025 tillsynsbegäran mail.docx", "A 35743-2025")</f>
         <v/>
       </c>
     </row>
@@ -3053,7 +3049,7 @@
         <v>45870.54482638889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3136,14 +3132,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 37012-2025</t>
+          <t>A 37011-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45874.7066550926</v>
+        <v>45874.70511574074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3161,19 +3157,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3188,52 +3184,56 @@
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
+        <v/>
+      </c>
+      <c r="U30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 37011-2025</t>
+          <t>A 37012-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45874.70511574074</v>
+        <v>45874.7066550926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3251,19 +3251,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3278,56 +3278,52 @@
         <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
-        <v/>
-      </c>
-      <c r="U31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 46058-2025</t>
+          <t>A 28397-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45924</v>
+        <v>45477.60549768519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3341,17 +3337,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3379,45 +3375,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 186-2026</t>
+          <t>A 54828-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46025.54315972222</v>
+        <v>44473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3429,8 +3425,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>6.7</v>
+        <v>5.1</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -3468,45 +3469,45 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 186-2026 artfynd.xlsx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 54828-2021 artfynd.xlsx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 186-2026 karta.png", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 54828-2021 karta.png", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 186-2026 karta knärot.png", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 54828-2021 karta knärot.png", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 186-2026 FSC-klagomål.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 54828-2021 FSC-klagomål.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 186-2026 FSC-klagomål mail.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 54828-2021 FSC-klagomål mail.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 186-2026 tillsynsbegäran.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 54828-2021 tillsynsbegäran.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 186-2026 tillsynsbegäran mail.docx", "A 186-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 54828-2021 tillsynsbegäran mail.docx", "A 54828-2021")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 54828-2021</t>
+          <t>A 186-2026</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44473</v>
+        <v>46025.54315972222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3518,13 +3519,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>5.1</v>
+        <v>6.7</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3562,31 +3558,31 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 54828-2021 artfynd.xlsx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 186-2026 artfynd.xlsx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 54828-2021 karta.png", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 186-2026 karta.png", "A 186-2026")</f>
         <v/>
       </c>
       <c r="U34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 54828-2021 karta knärot.png", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 186-2026 karta knärot.png", "A 186-2026")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 54828-2021 FSC-klagomål.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 186-2026 FSC-klagomål.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 54828-2021 FSC-klagomål mail.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 186-2026 FSC-klagomål mail.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 54828-2021 tillsynsbegäran.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 186-2026 tillsynsbegäran.docx", "A 186-2026")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 54828-2021 tillsynsbegäran mail.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 186-2026 tillsynsbegäran mail.docx", "A 186-2026")</f>
         <v/>
       </c>
     </row>
@@ -3600,7 +3596,7 @@
         <v>46029</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3678,14 +3674,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 47459-2023</t>
+          <t>A 35521-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45202.83313657407</v>
+        <v>45531.57493055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3697,14 +3693,19 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3732,45 +3733,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47459-2023 artfynd.xlsx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35521-2024 artfynd.xlsx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47459-2023 karta.png", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35521-2024 karta.png", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47459-2023 FSC-klagomål.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35521-2024 FSC-klagomål.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47459-2023 FSC-klagomål mail.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35521-2024 FSC-klagomål mail.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47459-2023 tillsynsbegäran.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35521-2024 tillsynsbegäran.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47459-2023 tillsynsbegäran mail.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35521-2024 tillsynsbegäran mail.docx", "A 35521-2024")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 33298-2023</t>
+          <t>A 28392-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45127</v>
+        <v>45477.60362268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3788,13 +3789,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3822,45 +3823,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 33298-2023 artfynd.xlsx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28392-2024 artfynd.xlsx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 33298-2023 karta.png", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28392-2024 karta.png", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 33298-2023 FSC-klagomål.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28392-2024 FSC-klagomål.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 33298-2023 FSC-klagomål mail.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28392-2024 FSC-klagomål mail.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 33298-2023 tillsynsbegäran.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28392-2024 tillsynsbegäran.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 33298-2023 tillsynsbegäran mail.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28392-2024 tillsynsbegäran mail.docx", "A 28392-2024")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 35521-2024</t>
+          <t>A 47459-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45531.57493055556</v>
+        <v>45202.83313657407</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3872,19 +3873,14 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3912,31 +3908,31 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35521-2024 artfynd.xlsx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47459-2023 artfynd.xlsx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35521-2024 karta.png", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47459-2023 karta.png", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35521-2024 FSC-klagomål.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47459-2023 FSC-klagomål.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35521-2024 FSC-klagomål mail.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47459-2023 FSC-klagomål mail.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35521-2024 tillsynsbegäran.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47459-2023 tillsynsbegäran.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35521-2024 tillsynsbegäran mail.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47459-2023 tillsynsbegäran mail.docx", "A 47459-2023")</f>
         <v/>
       </c>
     </row>
@@ -3950,7 +3946,7 @@
         <v>44323</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4037,14 +4033,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 21029-2024</t>
+          <t>A 234-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45439.6528125</v>
+        <v>44928.66260416667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4062,19 +4058,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4089,56 +4085,56 @@
         <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 21029-2024 artfynd.xlsx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 21029-2024 karta.png", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
         <v/>
       </c>
       <c r="U40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 21029-2024 karta knärot.png", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 21029-2024 FSC-klagomål.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 21029-2024 FSC-klagomål mail.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 21029-2024 tillsynsbegäran.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 21029-2024 tillsynsbegäran mail.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 47219-2024</t>
+          <t>A 21029-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45586</v>
+        <v>45439.6528125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4156,7 +4152,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>8.300000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4190,31 +4186,35 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47219-2024 artfynd.xlsx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 21029-2024 artfynd.xlsx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47219-2024 karta.png", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 21029-2024 karta.png", "A 21029-2024")</f>
+        <v/>
+      </c>
+      <c r="U41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 21029-2024 karta knärot.png", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47219-2024 FSC-klagomål.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 21029-2024 FSC-klagomål.docx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47219-2024 FSC-klagomål mail.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 21029-2024 FSC-klagomål mail.docx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47219-2024 tillsynsbegäran.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 21029-2024 tillsynsbegäran.docx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47219-2024 tillsynsbegäran mail.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 21029-2024 tillsynsbegäran mail.docx", "A 21029-2024")</f>
         <v/>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
         <v>44868.61302083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>44770</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>44314</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4402,14 +4402,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 3052-2022</t>
+          <t>A 61687-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44582.37412037037</v>
+        <v>44501.57883101852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4459,14 +4459,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61687-2021</t>
+          <t>A 3052-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44501.57883101852</v>
+        <v>44582.37412037037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>44447.66321759259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>44504.60092592592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44512</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4687,14 +4687,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 16985-2021</t>
+          <t>A 50278-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44295.6012962963</v>
+        <v>44456</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4744,14 +4744,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 50278-2021</t>
+          <t>A 16985-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44456</v>
+        <v>44295.6012962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>44649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>44873</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4915,14 +4915,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 51202-2022</t>
+          <t>A 19292-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44868.60868055555</v>
+        <v>44692</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4934,13 +4934,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>11.3</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4977,14 +4972,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19292-2022</t>
+          <t>A 51202-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44692</v>
+        <v>44868.60868055555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4996,8 +4991,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>11.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5034,14 +5034,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 17179-2025</t>
+          <t>A 13473-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45755</v>
+        <v>45387.5827662037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5053,13 +5053,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5096,14 +5091,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35498-2024</t>
+          <t>A 4032-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45531.51796296296</v>
+        <v>45684</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5113,11 +5108,6 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5158,14 +5148,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6929-2023</t>
+          <t>A 22129-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44967</v>
+        <v>45069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5177,8 +5167,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5215,14 +5210,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24851-2021</t>
+          <t>A 57400-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44340</v>
+        <v>45629.71085648148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5234,13 +5229,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5277,14 +5267,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 33979-2024</t>
+          <t>A 28391-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45523.51896990741</v>
+        <v>45477.60254629629</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5296,8 +5286,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5334,14 +5329,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 33978-2024</t>
+          <t>A 35505-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45523.51716435186</v>
+        <v>45531.53869212963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5353,8 +5348,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5391,14 +5391,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 33984-2024</t>
+          <t>A 35514-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45523.52378472222</v>
+        <v>45531.56472222223</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5410,8 +5410,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5448,14 +5453,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 5554-2024</t>
+          <t>A 38486-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45334</v>
+        <v>45884.34282407408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5468,7 +5473,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5505,14 +5510,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 11813-2024</t>
+          <t>A 48232-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45376.30138888889</v>
+        <v>45933.53054398148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5524,8 +5529,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5562,14 +5572,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38746-2025</t>
+          <t>A 48612-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45887.37974537037</v>
+        <v>45935</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5583,11 +5593,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5624,14 +5634,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38741-2025</t>
+          <t>A 48231-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45887.37405092592</v>
+        <v>45933.52594907407</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5649,7 +5659,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5686,14 +5696,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 22844-2025</t>
+          <t>A 27959-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45790.32160879629</v>
+        <v>45816</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5705,8 +5715,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>45.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5743,14 +5758,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38486-2025</t>
+          <t>A 48242-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45884.34282407408</v>
+        <v>45933.53510416667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5762,8 +5777,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5800,14 +5820,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38744-2025</t>
+          <t>A 20972-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45887.37774305556</v>
+        <v>45777.45725694444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5825,7 +5845,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5862,14 +5882,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 23666-2025</t>
+          <t>A 48609-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45792.84364583333</v>
+        <v>45935</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5881,8 +5901,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>5.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5919,14 +5944,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 28391-2024</t>
+          <t>A 48240-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45477.60254629629</v>
+        <v>45933.53292824074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5944,7 +5969,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5981,14 +6006,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58369-2023</t>
+          <t>A 48241-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45250</v>
+        <v>45933.53391203703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6000,8 +6025,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6038,14 +6068,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 4032-2025</t>
+          <t>A 48252-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45684</v>
+        <v>45933.55329861111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6058,7 +6088,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6095,14 +6125,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 24395-2025</t>
+          <t>A 23376-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45797.63881944444</v>
+        <v>45453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6114,8 +6144,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>3.5</v>
+        <v>10.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6152,14 +6187,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 33296-2023</t>
+          <t>A 38741-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45127.69603009259</v>
+        <v>45887.37405092592</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6177,7 +6212,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6214,14 +6249,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 40407-2025</t>
+          <t>A 38746-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45895.57083333333</v>
+        <v>45887.37974537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6239,7 +6274,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6276,14 +6311,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 33981-2024</t>
+          <t>A 21340-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45523.52111111111</v>
+        <v>45782.38909722222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6296,7 +6331,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6333,14 +6368,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 10740-2025</t>
+          <t>A 22226-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45722.41008101852</v>
+        <v>45446.4203587963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6353,7 +6388,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6390,14 +6425,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 51337-2023</t>
+          <t>A 38744-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45219.59144675926</v>
+        <v>45887.37774305556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6409,8 +6444,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6447,14 +6487,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59615-2023</t>
+          <t>A 37744-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45254</v>
+        <v>44810.58422453704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6466,13 +6506,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6509,14 +6544,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 53517-2024</t>
+          <t>A 43887-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45614.60436342593</v>
+        <v>45912.69278935185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6528,8 +6563,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6566,14 +6606,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 41569-2025</t>
+          <t>A 1144-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45901.60810185185</v>
+        <v>45302.49138888889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6585,13 +6625,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6628,14 +6663,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 57596-2025</t>
+          <t>A 11813-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45980.9716087963</v>
+        <v>45376.30138888889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6648,7 +6683,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6685,14 +6720,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 54149-2023</t>
+          <t>A 47531-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45232.4528125</v>
+        <v>44447</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6705,7 +6740,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6742,14 +6777,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 41620-2025</t>
+          <t>A 24851-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45901.70319444445</v>
+        <v>44340</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6767,7 +6802,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6804,14 +6839,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 57593-2025</t>
+          <t>A 43885-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45980.96055555555</v>
+        <v>45912.69076388889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6823,8 +6858,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6861,14 +6901,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57595-2025</t>
+          <t>A 5554-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45980.97019675926</v>
+        <v>45334</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6881,7 +6921,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6918,14 +6958,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 37743-2022</t>
+          <t>A 10740-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44810.58275462963</v>
+        <v>45722.41008101852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6938,7 +6978,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6975,14 +7015,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25476-2024</t>
+          <t>A 40407-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45463.44922453703</v>
+        <v>45895.57083333333</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7000,7 +7040,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7037,14 +7077,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 26753-2025</t>
+          <t>A 22844-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45810.55490740741</v>
+        <v>45790.32160879629</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7057,7 +7097,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7094,14 +7134,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 57594-2025</t>
+          <t>A 58240-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45980.96221064815</v>
+        <v>44487.88978009259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7114,7 +7154,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7151,14 +7191,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 27431-2025</t>
+          <t>A 30229-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45813</v>
+        <v>45490.46946759259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7176,7 +7216,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7213,14 +7253,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 27436-2025</t>
+          <t>A 25476-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45813</v>
+        <v>45463.44922453703</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7238,7 +7278,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7275,14 +7315,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27438-2025</t>
+          <t>A 41569-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45813.3143287037</v>
+        <v>45901.60810185185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7300,7 +7340,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7337,14 +7377,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 27432-2025</t>
+          <t>A 45965-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45813</v>
+        <v>45924.35655092593</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7362,7 +7402,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7399,14 +7439,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 27441-2025</t>
+          <t>A 41620-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45813.31630787037</v>
+        <v>45901.70319444445</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7424,7 +7464,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7461,14 +7501,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 58240-2021</t>
+          <t>A 21039-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44487.88978009259</v>
+        <v>45439</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7480,8 +7520,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7518,14 +7563,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 43730-2023</t>
+          <t>A 25465-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45187</v>
+        <v>45463.43416666667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7543,7 +7588,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7580,14 +7625,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 47524-2024</t>
+          <t>A 62596-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45587.63166666667</v>
+        <v>45271</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7600,7 +7645,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7637,14 +7682,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 13471-2024</t>
+          <t>A 23666-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45387.57859953704</v>
+        <v>45792.84364583333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7657,7 +7702,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7694,14 +7739,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 58324-2025</t>
+          <t>A 51225-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45985.47690972222</v>
+        <v>45947.65599537037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7713,8 +7758,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7751,14 +7801,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 58008-2025</t>
+          <t>A 53517-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45982.45744212963</v>
+        <v>45614.60436342593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7808,14 +7858,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 44694-2025</t>
+          <t>A 59615-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45917.59674768519</v>
+        <v>45254</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7833,7 +7883,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>12.1</v>
+        <v>3.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7870,14 +7920,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 44692-2025</t>
+          <t>A 24395-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45917.59540509259</v>
+        <v>45797.63881944444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7889,13 +7939,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7932,14 +7977,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 23545-2025</t>
+          <t>A 33981-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45792</v>
+        <v>45523.52111111111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7952,7 +7997,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7989,14 +8034,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 11953-2025</t>
+          <t>A 41020-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45728.56366898148</v>
+        <v>45173.59236111111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8014,7 +8059,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>34.8</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8051,14 +8096,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 26302-2025</t>
+          <t>A 52693-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45805</v>
+        <v>45956.58960648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8071,7 +8116,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8108,14 +8153,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 27738-2024</t>
+          <t>A 54827-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45475.45108796296</v>
+        <v>45966.66925925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8127,13 +8172,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8170,14 +8210,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 37680-2022</t>
+          <t>A 54874-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44810</v>
+        <v>45967.30939814815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8190,7 +8230,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8227,14 +8267,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 47091-2025</t>
+          <t>A 54876-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45929.65052083333</v>
+        <v>45967.31611111111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8247,7 +8287,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8284,14 +8324,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47097-2025</t>
+          <t>A 54877-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45929.65541666667</v>
+        <v>45967.31960648148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8304,7 +8344,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8341,14 +8381,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 59130-2024</t>
+          <t>A 44694-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45637</v>
+        <v>45917.59674768519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8360,8 +8400,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>12.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8398,14 +8443,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 40393-2025</t>
+          <t>A 55287-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45895.55646990741</v>
+        <v>45969.30730324074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8417,13 +8462,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8460,14 +8500,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 57632-2021</t>
+          <t>A 55288-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44484.39166666667</v>
+        <v>45969.33444444444</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8480,7 +8520,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8517,14 +8557,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 58373-2023</t>
+          <t>A 30007-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45250.65805555556</v>
+        <v>45488.60150462963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8536,8 +8576,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>0.6</v>
+        <v>11.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8574,14 +8619,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 41020-2023</t>
+          <t>A 30009-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45173.59236111111</v>
+        <v>45488.60546296297</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8599,7 +8644,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8636,14 +8681,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47249-2025</t>
+          <t>A 44692-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45930.43439814815</v>
+        <v>45917.59540509259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8655,8 +8700,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8693,14 +8743,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 40401-2025</t>
+          <t>A 13471-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45895.56739583334</v>
+        <v>45387.57859953704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8712,13 +8762,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>12.6</v>
+        <v>2.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8755,14 +8800,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 31471-2025</t>
+          <t>A 58787-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45833.56436342592</v>
+        <v>44489.56234953704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8775,7 +8820,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8812,14 +8857,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47469-2025</t>
+          <t>A 26753-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45930.67037037037</v>
+        <v>45810.55490740741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8832,7 +8877,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8869,14 +8914,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 48232-2025</t>
+          <t>A 13745-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45933.53054398148</v>
+        <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8890,11 +8935,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8931,14 +8976,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 48242-2025</t>
+          <t>A 6963-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45933.53510416667</v>
+        <v>45343.4562037037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8950,13 +8995,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8993,14 +9033,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 27959-2025</t>
+          <t>A 27438-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45816</v>
+        <v>45813.3143287037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9014,11 +9054,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>45.6</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9055,14 +9095,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 48240-2025</t>
+          <t>A 40393-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45933.53292824074</v>
+        <v>45895.55646990741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9080,7 +9120,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9117,14 +9157,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 48241-2025</t>
+          <t>A 31645-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45933.53391203703</v>
+        <v>45506.60777777778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9142,7 +9182,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>11.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9179,14 +9219,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 48252-2025</t>
+          <t>A 27432-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45933.55329861111</v>
+        <v>45813</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9198,8 +9238,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9236,14 +9281,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 32299-2025</t>
+          <t>A 27441-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45835</v>
+        <v>45813.31630787037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9257,11 +9302,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>12.8</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9298,14 +9343,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 48231-2025</t>
+          <t>A 27431-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45933.52594907407</v>
+        <v>45813</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9323,7 +9368,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9360,14 +9405,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 44356-2023</t>
+          <t>A 27436-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45188.81979166667</v>
+        <v>45813</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9379,8 +9424,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9417,14 +9467,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 23355-2024</t>
+          <t>A 47249-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45453</v>
+        <v>45930.43439814815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9436,13 +9486,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9479,14 +9524,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 48612-2025</t>
+          <t>A 47469-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45935</v>
+        <v>45930.67037037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9498,13 +9543,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9541,14 +9581,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 13744-2023</t>
+          <t>A 47091-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45007</v>
+        <v>45929.65052083333</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9560,13 +9600,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9603,14 +9638,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 48609-2025</t>
+          <t>A 47097-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45935</v>
+        <v>45929.65541666667</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9622,13 +9657,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9665,14 +9695,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 43885-2025</t>
+          <t>A 40401-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45912.69076388889</v>
+        <v>45895.56739583334</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9690,7 +9720,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.6</v>
+        <v>12.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9727,14 +9757,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 43887-2025</t>
+          <t>A 23545-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45912.69278935185</v>
+        <v>45792</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9746,13 +9776,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9789,14 +9814,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45965-2025</t>
+          <t>A 54149-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45924.35655092593</v>
+        <v>45232.4528125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9808,13 +9833,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9851,14 +9871,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 8510-2023</t>
+          <t>A 26302-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44977.56144675926</v>
+        <v>45805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9871,7 +9891,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.4</v>
+        <v>5.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9908,14 +9928,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 58633-2025</t>
+          <t>A 36283-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45986.48885416667</v>
+        <v>45534.58899305556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9927,8 +9947,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.3</v>
+        <v>6.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9965,14 +9990,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 22129-2023</t>
+          <t>A 48063-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45069</v>
+        <v>45589.55237268518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9984,13 +10009,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10027,14 +10047,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 51225-2025</t>
+          <t>A 33979-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45947.65599537037</v>
+        <v>45523.51896990741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10046,13 +10066,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10089,14 +10104,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 25477-2024</t>
+          <t>A 57593-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45463.45015046297</v>
+        <v>45980.96055555555</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10108,13 +10123,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10151,14 +10161,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 43282-2021</t>
+          <t>A 57595-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44432.39119212963</v>
+        <v>45980.97019675926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10170,13 +10180,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10213,14 +10218,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 58805-2025</t>
+          <t>A 57596-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45986.9652662037</v>
+        <v>45980.9716087963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10233,7 +10238,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10270,14 +10275,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35473-2025</t>
+          <t>A 16371-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45855.66804398148</v>
+        <v>44671</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10290,7 +10295,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10327,14 +10332,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 35475-2025</t>
+          <t>A 31471-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45855.67001157408</v>
+        <v>45833.56436342592</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10347,7 +10352,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10384,14 +10389,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 47495-2024</t>
+          <t>A 57594-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45587.59559027778</v>
+        <v>45980.96221064815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10403,13 +10408,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10446,14 +10446,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 52693-2025</t>
+          <t>A 47359-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45956.58960648148</v>
+        <v>45587.43547453704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10503,14 +10503,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 36180-2025</t>
+          <t>A 58008-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45867.41327546296</v>
+        <v>45982.45744212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>11.7</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10560,14 +10560,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 30007-2024</t>
+          <t>A 23355-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45488.60150462963</v>
+        <v>45453</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>11.5</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10622,14 +10622,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 30009-2024</t>
+          <t>A 32299-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45488.60546296297</v>
+        <v>45835</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10643,11 +10643,11 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>12.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10684,14 +10684,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 54578-2024</t>
+          <t>A 58633-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45617.65644675926</v>
+        <v>45986.48885416667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10741,14 +10741,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 36349-2025</t>
+          <t>A 58324-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45868.48269675926</v>
+        <v>45985.47690972222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10798,14 +10798,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 49815-2024</t>
+          <t>A 43730-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45597.39709490741</v>
+        <v>45187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10815,6 +10815,11 @@
       <c r="E153" t="inlineStr">
         <is>
           <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -10855,14 +10860,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 37763-2023</t>
+          <t>A 58805-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45156</v>
+        <v>45986.9652662037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10875,7 +10880,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10912,14 +10917,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 35505-2024</t>
+          <t>A 6929-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45531.53869212963</v>
+        <v>44967</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10931,13 +10936,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10974,14 +10974,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 35514-2024</t>
+          <t>A 35475-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45531.56472222223</v>
+        <v>45855.67001157408</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10993,13 +10993,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>6.5</v>
+        <v>0.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -11036,14 +11031,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 30229-2024</t>
+          <t>A 35473-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45490.46946759259</v>
+        <v>45855.66804398148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11053,11 +11048,6 @@
       <c r="E157" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -11098,14 +11088,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 37444-2025</t>
+          <t>A 11607-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45877.54305555556</v>
+        <v>44994</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11119,11 +11109,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11160,14 +11150,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 2612-2025</t>
+          <t>A 36180-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45674</v>
+        <v>45867.41327546296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11180,7 +11170,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.8</v>
+        <v>11.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11217,14 +11207,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 54876-2025</t>
+          <t>A 36349-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45967.31611111111</v>
+        <v>45868.48269675926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11237,7 +11227,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11274,14 +11264,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 54877-2025</t>
+          <t>A 37444-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45967.31960648148</v>
+        <v>45877.54305555556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11293,8 +11283,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11331,14 +11326,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 54874-2025</t>
+          <t>A 61186-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45967.30939814815</v>
+        <v>46000.58625</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11351,7 +11346,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11395,7 +11390,7 @@
         <v>45881.70454861111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11450,14 +11445,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 54827-2025</t>
+          <t>A 11953-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45966.66925925926</v>
+        <v>45728.56366898148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11469,8 +11464,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>2.3</v>
+        <v>34.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11507,14 +11507,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 23376-2024</t>
+          <t>A 37743-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45453</v>
+        <v>44810.58275462963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11526,13 +11526,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>10.8</v>
+        <v>1.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11569,14 +11564,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 55288-2025</t>
+          <t>A 61642-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45969.33444444444</v>
+        <v>46002.43494212963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11589,7 +11584,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11626,14 +11621,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 55287-2025</t>
+          <t>A 3614-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45969.30730324074</v>
+        <v>46042.94263888889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11646,7 +11641,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11683,14 +11678,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 58955-2023</t>
+          <t>A 3870-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45252</v>
+        <v>46043.64090277778</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11702,8 +11697,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11740,14 +11740,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 6963-2024</t>
+          <t>A 51337-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45343.4562037037</v>
+        <v>45219.59144675926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11797,14 +11797,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 802-2026</t>
+          <t>A 36278-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46030</v>
+        <v>45534.58508101852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11816,8 +11816,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11854,14 +11859,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 10587-2022</t>
+          <t>A 3615-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44624</v>
+        <v>46042.94633101852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11874,7 +11879,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11911,14 +11916,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 31123-2021</t>
+          <t>A 4101-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44368</v>
+        <v>46044.57539351852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11931,7 +11936,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11968,14 +11973,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 36763-2024</t>
+          <t>A 4104-2026</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45538.36181712963</v>
+        <v>46044.58568287037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11988,7 +11993,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -12025,14 +12030,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 21027-2024</t>
+          <t>A 4566-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45439</v>
+        <v>46047.87172453704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12044,13 +12049,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12087,14 +12087,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 21028-2024</t>
+          <t>A 17185-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45439</v>
+        <v>45755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12108,11 +12108,11 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.6</v>
+        <v>10.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12149,14 +12149,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 16371-2022</t>
+          <t>A 37680-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44671</v>
+        <v>44810</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>6.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12206,14 +12206,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 57751-2024</t>
+          <t>A 4541-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45630.82424768519</v>
+        <v>46046.94703703704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12263,14 +12263,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 3614-2026</t>
+          <t>A 5482-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46042.94263888889</v>
+        <v>46050.60585648148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12320,14 +12320,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 61186-2025</t>
+          <t>A 5549-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46000.58625</v>
+        <v>46050.71560185185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12377,14 +12377,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 3870-2026</t>
+          <t>A 5249-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46043.64090277778</v>
+        <v>46049.90417824074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12396,13 +12396,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12439,14 +12434,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 3615-2026</t>
+          <t>A 47639-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46042.94633101852</v>
+        <v>44448.3966087963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12459,7 +12454,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12496,14 +12491,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 2915-2025</t>
+          <t>A 28133-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45677.96424768519</v>
+        <v>45476.69053240741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12516,7 +12511,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12553,14 +12548,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 32980-2023</t>
+          <t>A 33978-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45125.59980324074</v>
+        <v>45523.51716435186</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12573,7 +12568,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12610,14 +12605,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 57400-2024</t>
+          <t>A 33984-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45629.71085648148</v>
+        <v>45523.52378472222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12630,7 +12625,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12667,14 +12662,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61642-2025</t>
+          <t>A 36763-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46002.43494212963</v>
+        <v>45538.36181712963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12687,7 +12682,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12724,14 +12719,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 4104-2026</t>
+          <t>A 7209-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46044.58568287037</v>
+        <v>46058.53673611111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12743,8 +12738,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12781,14 +12781,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 62596-2023</t>
+          <t>A 7207-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45271</v>
+        <v>46058.53497685185</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12800,8 +12800,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12838,14 +12843,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 4101-2026</t>
+          <t>A 7210-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46044.57539351852</v>
+        <v>46058.53807870371</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12857,8 +12862,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12895,14 +12905,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 4541-2026</t>
+          <t>A 2546-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46046.94703703704</v>
+        <v>46037.46833333333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12915,7 +12925,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12952,14 +12962,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 25474-2024</t>
+          <t>A 14119-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45463.44631944445</v>
+        <v>45740.4659837963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12973,11 +12983,11 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -13014,14 +13024,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 8448-2025</t>
+          <t>A 3391-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45709</v>
+        <v>46042</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13034,7 +13044,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -13071,14 +13081,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 47493-2024</t>
+          <t>A 10161-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45587.59410879629</v>
+        <v>44986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13092,11 +13102,11 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13133,14 +13143,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 4566-2026</t>
+          <t>A 7580-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46047.87172453704</v>
+        <v>46061.63731481481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13153,7 +13163,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13190,14 +13200,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 5482-2026</t>
+          <t>A 7581-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46050.60585648148</v>
+        <v>46061.63856481481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13210,7 +13220,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13247,14 +13257,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 5549-2026</t>
+          <t>A 2220-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46050.71560185185</v>
+        <v>46036.50115740741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13267,7 +13277,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13304,14 +13314,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 5249-2026</t>
+          <t>A 8202-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46049.90417824074</v>
+        <v>46064.44456018518</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13324,7 +13334,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13361,14 +13371,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 10161-2023</t>
+          <t>A 8279-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44986</v>
+        <v>46064.55806712963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13382,11 +13392,11 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13423,14 +13433,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 892-2026</t>
+          <t>A 8321-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46030.45260416667</v>
+        <v>46064.60894675926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13443,7 +13453,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13480,14 +13490,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 837-2026</t>
+          <t>A 8324-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46030.3752662037</v>
+        <v>46064.61172453704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13537,14 +13547,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 2546-2026</t>
+          <t>A 12057-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46037.46833333333</v>
+        <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13557,7 +13567,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13594,14 +13604,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 7209-2026</t>
+          <t>A 64000-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46058.53673611111</v>
+        <v>46021.39847222222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13613,13 +13623,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13656,14 +13661,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 7210-2026</t>
+          <t>A 8239-2026</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46058.53807870371</v>
+        <v>46064.48892361111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13675,13 +13680,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13718,14 +13718,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 7207-2026</t>
+          <t>A 8250-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46058.53497685185</v>
+        <v>46064.49732638889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13737,13 +13737,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13780,14 +13775,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 34232-2023</t>
+          <t>A 8275-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45127</v>
+        <v>46064.55445601852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13801,11 +13796,11 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5.8</v>
+        <v>13.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13842,14 +13837,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 64000-2025</t>
+          <t>A 8314-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46021.39847222222</v>
+        <v>46064.60053240741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13862,7 +13857,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13899,14 +13894,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 2220-2026</t>
+          <t>A 8751-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46036.50115740741</v>
+        <v>46066.54503472222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13918,8 +13913,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13956,14 +13956,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 7580-2026</t>
+          <t>A 31611-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46061.63731481481</v>
+        <v>45117</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -14013,14 +14013,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 7581-2026</t>
+          <t>A 8802-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46061.63856481481</v>
+        <v>46066.59980324074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -14070,14 +14070,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 3391-2026</t>
+          <t>A 8748-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46042</v>
+        <v>46066.54123842593</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14089,8 +14089,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14127,14 +14132,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 8314-2026</t>
+          <t>A 8749-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46064.60053240741</v>
+        <v>46066.543125</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14146,8 +14151,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14184,14 +14194,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 8279-2026</t>
+          <t>A 8812-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46064.55806712963</v>
+        <v>46066.61409722222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14209,7 +14219,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14246,14 +14256,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 8321-2026</t>
+          <t>A 129-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46064.60894675926</v>
+        <v>46024.59600694444</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14266,7 +14276,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14303,14 +14313,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 8324-2026</t>
+          <t>A 5177-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46064.61172453704</v>
+        <v>46049</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14323,7 +14333,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>6.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14360,14 +14370,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 8202-2026</t>
+          <t>A 341-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46064.44456018518</v>
+        <v>46027</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14380,7 +14390,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14417,14 +14427,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 8250-2026</t>
+          <t>A 3997-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46064.49732638889</v>
+        <v>46044</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14437,7 +14447,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14474,14 +14484,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 8275-2026</t>
+          <t>A 4419-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46064.55445601852</v>
+        <v>46045.60791666667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14493,13 +14503,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>13.6</v>
+        <v>1.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14536,14 +14541,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 22226-2024</t>
+          <t>A 8510-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45446.4203587963</v>
+        <v>44977.56144675926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14556,7 +14561,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14593,14 +14598,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 8239-2026</t>
+          <t>A 27738-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46064.48892361111</v>
+        <v>45475.45108796296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14612,8 +14617,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14650,14 +14660,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 3997-2026</t>
+          <t>A 64036-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46044</v>
+        <v>46021</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14670,7 +14680,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14707,14 +14717,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 37693-2023</t>
+          <t>A 9440-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45159.57056712963</v>
+        <v>46071.46555555556</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14726,8 +14736,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>0.6</v>
+        <v>6.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14764,14 +14779,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 8748-2026</t>
+          <t>A 681-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46066.54123842593</v>
+        <v>46029</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14783,13 +14798,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14826,14 +14836,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 8802-2026</t>
+          <t>A 31607-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46066.59980324074</v>
+        <v>45117</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14846,7 +14856,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14883,14 +14893,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 129-2026</t>
+          <t>A 692-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46024.59600694444</v>
+        <v>46029</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14903,7 +14913,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14940,14 +14950,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 341-2026</t>
+          <t>A 683-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46027</v>
+        <v>46029</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14997,14 +15007,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 8812-2026</t>
+          <t>A 13744-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46066.61409722222</v>
+        <v>45007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15018,11 +15028,11 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -15059,14 +15069,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 8751-2026</t>
+          <t>A 688-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46066.54503472222</v>
+        <v>46029</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15078,13 +15088,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15121,14 +15126,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 8749-2026</t>
+          <t>A 892-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46066.543125</v>
+        <v>46030.45260416667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15140,13 +15145,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15183,14 +15183,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 9440-2026</t>
+          <t>A 24988-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46071.46555555556</v>
+        <v>45085.64087962963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>6.8</v>
+        <v>1.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15245,14 +15245,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 659-2026</t>
+          <t>A 5872-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46029.58206018519</v>
+        <v>46052</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>9.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15302,14 +15302,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 692-2026</t>
+          <t>A 837-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46029</v>
+        <v>46030.3752662037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15359,14 +15359,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 5177-2026</t>
+          <t>A 802-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46049</v>
+        <v>46030</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>6.7</v>
+        <v>1.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15416,14 +15416,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 4419-2026</t>
+          <t>A 47524-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46045.60791666667</v>
+        <v>45587.63166666667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15473,14 +15473,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 681-2026</t>
+          <t>A 659-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46029</v>
+        <v>46029.58206018519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15530,14 +15530,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 683-2026</t>
+          <t>A 35114-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46029</v>
+        <v>45145</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15587,14 +15587,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 688-2026</t>
+          <t>A 35136-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46029</v>
+        <v>45145.52915509259</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15644,14 +15644,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 64036-2025</t>
+          <t>A 37693-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46021</v>
+        <v>45159.57056712963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15701,14 +15701,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 5872-2026</t>
+          <t>A 37763-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46052</v>
+        <v>45156</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15758,14 +15758,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 48063-2024</t>
+          <t>A 49815-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45589.55237268518</v>
+        <v>45597.39709490741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15815,14 +15815,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 17762-2022</t>
+          <t>A 54578-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44680</v>
+        <v>45617.65644675926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15872,14 +15872,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 51277-2022</t>
+          <t>A 18347-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44868.7127662037</v>
+        <v>45762.52913194444</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15929,14 +15929,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 13745-2023</t>
+          <t>A 10184-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45007</v>
+        <v>44622</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15948,13 +15948,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15991,14 +15986,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 14119-2025</t>
+          <t>A 10587-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45740.4659837963</v>
+        <v>44624</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16010,13 +16005,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -16053,14 +16043,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 25465-2024</t>
+          <t>A 59130-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45463.43416666667</v>
+        <v>45637</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16072,13 +16062,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16115,14 +16100,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 35114-2023</t>
+          <t>A 35498-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45145</v>
+        <v>45531.51796296296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16134,8 +16119,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16172,14 +16162,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 35136-2023</t>
+          <t>A 8448-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45145.52915509259</v>
+        <v>45709</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16192,7 +16182,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16229,14 +16219,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 38251-2022</t>
+          <t>A 17762-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44812.4874537037</v>
+        <v>44680</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16249,7 +16239,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16286,14 +16276,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 31607-2023</t>
+          <t>A 33296-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45117</v>
+        <v>45127.69603009259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16305,8 +16295,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16343,14 +16338,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 31611-2023</t>
+          <t>A 58369-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45117</v>
+        <v>45250</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16363,7 +16358,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16400,14 +16395,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 36278-2024</t>
+          <t>A 25477-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45534.58508101852</v>
+        <v>45463.45015046297</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16425,7 +16420,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>8.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16462,14 +16457,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 33495-2023</t>
+          <t>A 43726-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45118</v>
+        <v>45187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16483,11 +16478,11 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16524,14 +16519,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 43143-2024</t>
+          <t>A 17179-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45567.62359953704</v>
+        <v>45755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16543,8 +16538,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16581,14 +16581,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 47359-2024</t>
+          <t>A 58955-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45587.43547453704</v>
+        <v>45252</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16638,14 +16638,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 31645-2024</t>
+          <t>A 64359-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45506.60777777778</v>
+        <v>45280</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16657,13 +16657,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>11.1</v>
+        <v>4.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16700,14 +16695,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 64359-2023</t>
+          <t>A 58373-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45280</v>
+        <v>45250.65805555556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16720,7 +16715,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16757,14 +16752,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 58787-2021</t>
+          <t>A 38251-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44489.56234953704</v>
+        <v>44812.4874537037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16777,7 +16772,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16814,14 +16809,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 24988-2023</t>
+          <t>A 43282-2021</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45085.64087962963</v>
+        <v>44432.39119212963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16839,7 +16834,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16876,14 +16871,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 13473-2024</t>
+          <t>A 68079-2021</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45387.5827662037</v>
+        <v>44526.31943287037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16896,7 +16891,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16933,14 +16928,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 28133-2024</t>
+          <t>A 54826-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45476.69053240741</v>
+        <v>44473</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16952,8 +16947,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16990,14 +16990,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 12057-2021</t>
+          <t>A 1149-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44266</v>
+        <v>45302.49834490741</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -17047,14 +17047,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 37744-2022</t>
+          <t>A 44356-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44810.58422453704</v>
+        <v>45188.81979166667</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -17104,14 +17104,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 10184-2022</t>
+          <t>A 47495-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44622</v>
+        <v>45587.59559027778</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17123,8 +17123,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17168,7 +17173,7 @@
         <v>44624</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17218,14 +17223,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 47531-2021</t>
+          <t>A 33495-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44447</v>
+        <v>45118</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17237,8 +17242,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>7.6</v>
+        <v>4.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17275,14 +17285,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 33734-2024</t>
+          <t>A 31613-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45520</v>
+        <v>45117</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17294,13 +17304,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17337,14 +17342,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 11607-2023</t>
+          <t>A 6958-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44994</v>
+        <v>45343</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17356,13 +17361,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G265" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17399,14 +17399,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 43726-2023</t>
+          <t>A 57632-2021</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45187</v>
+        <v>44484.39166666667</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17418,13 +17418,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17461,14 +17456,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 35504-2024</t>
+          <t>A 33734-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45531.53686342593</v>
+        <v>45520</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17486,7 +17481,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17523,14 +17518,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 68079-2021</t>
+          <t>A 51277-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44526.31943287037</v>
+        <v>44868.7127662037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17543,7 +17538,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17580,14 +17575,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 6958-2024</t>
+          <t>A 47493-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45343</v>
+        <v>45587.59410879629</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17599,8 +17594,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17637,14 +17637,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 54826-2021</t>
+          <t>A 34232-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44473</v>
+        <v>45127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17699,14 +17699,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 33710-2024</t>
+          <t>A 25474-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45520</v>
+        <v>45463.44631944445</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17761,14 +17761,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 17185-2025</t>
+          <t>A 21027-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45755</v>
+        <v>45439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17782,11 +17782,11 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>10.3</v>
+        <v>1.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17823,14 +17823,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 47639-2021</t>
+          <t>A 21028-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44448.3966087963</v>
+        <v>45439</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17842,8 +17842,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17880,14 +17885,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 32827-2024</t>
+          <t>A 2612-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45516.59273148148</v>
+        <v>45674</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17899,13 +17904,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17942,14 +17942,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 1149-2024</t>
+          <t>A 32980-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45302.49834490741</v>
+        <v>45125.59980324074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17999,14 +17999,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 18347-2025</t>
+          <t>A 33710-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45762.52913194444</v>
+        <v>45520</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18018,8 +18018,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G276" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -18056,14 +18061,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 31613-2023</t>
+          <t>A 43143-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45117</v>
+        <v>45567.62359953704</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18076,7 +18081,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -18113,14 +18118,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 21039-2024</t>
+          <t>A 31123-2021</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45439</v>
+        <v>44368</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18132,13 +18137,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -18175,14 +18175,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 36283-2024</t>
+          <t>A 57751-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45534.58899305556</v>
+        <v>45630.82424768519</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18194,13 +18194,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G279" t="n">
-        <v>6.9</v>
+        <v>1.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -18237,14 +18232,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 20972-2025</t>
+          <t>A 35504-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45777.45725694444</v>
+        <v>45531.53686342593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18262,7 +18257,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -18299,14 +18294,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 1144-2024</t>
+          <t>A 32827-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45302.49138888889</v>
+        <v>45516.59273148148</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18318,8 +18313,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G281" t="n">
-        <v>0.9</v>
+        <v>8.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -18356,14 +18356,14 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 21340-2025</t>
+          <t>A 2915-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45782.38909722222</v>
+        <v>45677.96424768519</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45784</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44512</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45299</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>46064.46010416667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45163</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>44623</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>44816</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,14 +1248,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 47084-2025</t>
+          <t>A 35742-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45929</v>
+        <v>45860.53805555555</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,20 +1267,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>6.1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1295,134 +1300,129 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Knärot
+Mörk husmossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35742-2025 artfynd.xlsx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35742-2025 karta.png", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35742-2025 karta knärot.png", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35742-2025 FSC-klagomål.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35742-2025 FSC-klagomål mail.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35742-2025 tillsynsbegäran.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35742-2025 tillsynsbegäran mail.docx", "A 35742-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 47084-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45929</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Ullticka
 Revlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47084-2025 artfynd.xlsx", "A 47084-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47084-2025 karta.png", "A 47084-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47084-2025 FSC-klagomål.docx", "A 47084-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47084-2025 FSC-klagomål mail.docx", "A 47084-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47084-2025 tillsynsbegäran.docx", "A 47084-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47084-2025 tillsynsbegäran mail.docx", "A 47084-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 35742-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45860.53805555555</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Mörk husmossa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35742-2025 artfynd.xlsx", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35742-2025 karta.png", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 35742-2025 karta knärot.png", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35742-2025 FSC-klagomål.docx", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35742-2025 FSC-klagomål mail.docx", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35742-2025 tillsynsbegäran.docx", "A 35742-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35742-2025 tillsynsbegäran mail.docx", "A 35742-2025")</f>
         <v/>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
         <v>45860</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46064.64020833333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44511</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44559.54373842593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1875,14 +1875,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 46058-2025</t>
+          <t>A 28392-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45924</v>
+        <v>45477.60362268519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,17 +1896,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1934,45 +1934,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28392-2024 artfynd.xlsx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28392-2024 karta.png", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28392-2024 FSC-klagomål.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28392-2024 FSC-klagomål mail.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28392-2024 tillsynsbegäran.docx", "A 28392-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28392-2024 tillsynsbegäran mail.docx", "A 28392-2024")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 48709-2025</t>
+          <t>A 234-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45936.63020833334</v>
+        <v>44928.66260416667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1984,8 +1984,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>5.1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -2023,45 +2028,45 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 33298-2023</t>
+          <t>A 28397-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45127</v>
+        <v>45477.60549768519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2079,13 +2084,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2113,45 +2118,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 33298-2023 artfynd.xlsx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 33298-2023 karta.png", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 33298-2023 FSC-klagomål.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 33298-2023 FSC-klagomål mail.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 33298-2023 tillsynsbegäran.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 33298-2023 tillsynsbegäran mail.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 41621-2025</t>
+          <t>A 23354-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45901.70506944445</v>
+        <v>45453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2175,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2203,45 +2208,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41621-2025 artfynd.xlsx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41621-2025 karta.png", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41621-2025 FSC-klagomål.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41621-2025 FSC-klagomål mail.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41621-2025 tillsynsbegäran.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41621-2025 tillsynsbegäran mail.docx", "A 41621-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 43883-2025</t>
+          <t>A 41621-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45912.68892361111</v>
+        <v>45901.70506944445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,13 +2264,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2293,35 +2298,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 41621-2025 artfynd.xlsx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 41621-2025 karta.png", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 41621-2025 FSC-klagomål.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 41621-2025 FSC-klagomål mail.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 41621-2025 tillsynsbegäran.docx", "A 41621-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 41621-2025 tillsynsbegäran mail.docx", "A 41621-2025")</f>
         <v/>
       </c>
     </row>
@@ -2335,7 +2336,7 @@
         <v>45901.6075462963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,14 +2419,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 48702-2025</t>
+          <t>A 30008-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45936.62197916667</v>
+        <v>45488.6040162037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,20 +2438,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2462,59 +2468,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
-        <v/>
-      </c>
-      <c r="U22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 30008-2024</t>
+          <t>A 7543-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45488.6040162037</v>
+        <v>45348</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2526,13 +2528,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2566,45 +2563,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 30008-2024 artfynd.xlsx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 7543-2024 artfynd.xlsx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 30008-2024 karta.png", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 7543-2024 karta.png", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 30008-2024 FSC-klagomål.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 7543-2024 FSC-klagomål.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 30008-2024 FSC-klagomål mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 7543-2024 FSC-klagomål mail.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 30008-2024 tillsynsbegäran.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 7543-2024 tillsynsbegäran.docx", "A 7543-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 30008-2024 tillsynsbegäran mail.docx", "A 30008-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 7543-2024 tillsynsbegäran mail.docx", "A 7543-2024")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 27434-2025</t>
+          <t>A 35743-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45813</v>
+        <v>45860.54238425926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2622,7 +2619,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2656,45 +2653,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 27434-2025 artfynd.xlsx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35743-2025 artfynd.xlsx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 27434-2025 karta.png", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35743-2025 karta.png", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 27434-2025 FSC-klagomål.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35743-2025 FSC-klagomål.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 27434-2025 FSC-klagomål mail.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35743-2025 FSC-klagomål mail.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 27434-2025 tillsynsbegäran.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35743-2025 tillsynsbegäran.docx", "A 35743-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 27434-2025 tillsynsbegäran mail.docx", "A 27434-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35743-2025 tillsynsbegäran mail.docx", "A 35743-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 23354-2024</t>
+          <t>A 36606-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45453</v>
+        <v>45870.54482638889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2712,17 +2709,17 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>13.3</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -2736,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2746,45 +2743,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Brunklöver</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 23354-2024 artfynd.xlsx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 36606-2025 artfynd.xlsx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 23354-2024 karta.png", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 36606-2025 karta.png", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 23354-2024 FSC-klagomål.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 36606-2025 FSC-klagomål.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 23354-2024 FSC-klagomål mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 36606-2025 FSC-klagomål mail.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 23354-2024 tillsynsbegäran.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 36606-2025 tillsynsbegäran.docx", "A 36606-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 23354-2024 tillsynsbegäran mail.docx", "A 23354-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 36606-2025 tillsynsbegäran mail.docx", "A 36606-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 47219-2024</t>
+          <t>A 37012-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45586</v>
+        <v>45874.7066550926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2799,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>8.300000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2840,41 +2837,41 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47219-2024 artfynd.xlsx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47219-2024 karta.png", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47219-2024 FSC-klagomål.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47219-2024 FSC-klagomål mail.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47219-2024 tillsynsbegäran.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47219-2024 tillsynsbegäran mail.docx", "A 47219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 7543-2024</t>
+          <t>A 37011-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45348</v>
+        <v>45874.70511574074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2886,21 +2883,26 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
@@ -2911,55 +2913,59 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 7543-2024 artfynd.xlsx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 7543-2024 karta.png", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
+        <v/>
+      </c>
+      <c r="U27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 7543-2024 FSC-klagomål.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 7543-2024 FSC-klagomål mail.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 7543-2024 tillsynsbegäran.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 7543-2024 tillsynsbegäran mail.docx", "A 7543-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 35743-2025</t>
+          <t>A 48709-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45860.54238425926</v>
+        <v>45936.63020833334</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2971,13 +2977,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -2989,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3001,55 +3002,59 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35743-2025 artfynd.xlsx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48709-2025 artfynd.xlsx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35743-2025 karta.png", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48709-2025 karta.png", "A 48709-2025")</f>
+        <v/>
+      </c>
+      <c r="U28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48709-2025 karta knärot.png", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35743-2025 FSC-klagomål.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48709-2025 FSC-klagomål.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35743-2025 FSC-klagomål mail.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48709-2025 FSC-klagomål mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35743-2025 tillsynsbegäran.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48709-2025 tillsynsbegäran.docx", "A 48709-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35743-2025 tillsynsbegäran mail.docx", "A 35743-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48709-2025 tillsynsbegäran mail.docx", "A 48709-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36606-2025</t>
+          <t>A 46058-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45870.54482638889</v>
+        <v>45924</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3063,20 +3068,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>13.3</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -3091,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3101,45 +3106,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Brunklöver</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 36606-2025 artfynd.xlsx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 46058-2025 artfynd.xlsx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 36606-2025 karta.png", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 46058-2025 karta.png", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 36606-2025 FSC-klagomål.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 46058-2025 FSC-klagomål.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 36606-2025 FSC-klagomål mail.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 46058-2025 FSC-klagomål mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 36606-2025 tillsynsbegäran.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 46058-2025 tillsynsbegäran.docx", "A 46058-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 36606-2025 tillsynsbegäran mail.docx", "A 36606-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 46058-2025 tillsynsbegäran mail.docx", "A 46058-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 37011-2025</t>
+          <t>A 43883-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45874.70511574074</v>
+        <v>45912.68892361111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3157,7 +3162,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -3169,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3181,59 +3186,59 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37011-2025 artfynd.xlsx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 43883-2025 artfynd.xlsx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37011-2025 karta.png", "A 37011-2025")</f>
-        <v/>
-      </c>
-      <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 37011-2025 karta knärot.png", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 43883-2025 karta.png", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37011-2025 FSC-klagomål.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 43883-2025 FSC-klagomål.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37011-2025 FSC-klagomål mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 43883-2025 FSC-klagomål mail.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37011-2025 tillsynsbegäran.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 43883-2025 tillsynsbegäran.docx", "A 43883-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37011-2025 tillsynsbegäran mail.docx", "A 37011-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 43883-2025 tillsynsbegäran mail.docx", "A 43883-2025")</f>
+        <v/>
+      </c>
+      <c r="Z30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/fåglar/A 43883-2025 prioriterade fågelarter.docx", "A 43883-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 37012-2025</t>
+          <t>A 48702-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45874.7066550926</v>
+        <v>45936.62197916667</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,25 +3250,20 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3278,52 +3278,56 @@
         <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 37012-2025 artfynd.xlsx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 48702-2025 artfynd.xlsx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 37012-2025 karta.png", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 48702-2025 karta.png", "A 48702-2025")</f>
+        <v/>
+      </c>
+      <c r="U31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 48702-2025 karta knärot.png", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 37012-2025 FSC-klagomål.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 48702-2025 FSC-klagomål.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 37012-2025 FSC-klagomål mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 48702-2025 FSC-klagomål mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 37012-2025 tillsynsbegäran.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 48702-2025 tillsynsbegäran.docx", "A 48702-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 37012-2025 tillsynsbegäran mail.docx", "A 37012-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 48702-2025 tillsynsbegäran mail.docx", "A 48702-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 28397-2024</t>
+          <t>A 47459-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45477.60549768519</v>
+        <v>45202.83313657407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3335,19 +3339,14 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3375,45 +3374,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28397-2024 artfynd.xlsx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47459-2023 artfynd.xlsx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28397-2024 karta.png", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47459-2023 karta.png", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28397-2024 FSC-klagomål.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47459-2023 FSC-klagomål.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28397-2024 FSC-klagomål mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47459-2023 FSC-klagomål mail.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28397-2024 tillsynsbegäran.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47459-2023 tillsynsbegäran.docx", "A 47459-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28397-2024 tillsynsbegäran mail.docx", "A 28397-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47459-2023 tillsynsbegäran mail.docx", "A 47459-2023")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 54828-2021</t>
+          <t>A 33298-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44473</v>
+        <v>45127</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3427,23 +3426,23 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3455,45 +3454,41 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 54828-2021 artfynd.xlsx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 33298-2023 artfynd.xlsx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 54828-2021 karta.png", "A 54828-2021")</f>
-        <v/>
-      </c>
-      <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 54828-2021 karta knärot.png", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 33298-2023 karta.png", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 54828-2021 FSC-klagomål.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 33298-2023 FSC-klagomål.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 54828-2021 FSC-klagomål mail.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 33298-2023 FSC-klagomål mail.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 54828-2021 tillsynsbegäran.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 33298-2023 tillsynsbegäran.docx", "A 33298-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 54828-2021 tillsynsbegäran mail.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 33298-2023 tillsynsbegäran mail.docx", "A 33298-2023")</f>
         <v/>
       </c>
     </row>
@@ -3507,7 +3502,7 @@
         <v>46025.54315972222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3589,14 +3584,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 687-2026</t>
+          <t>A 54828-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46029</v>
+        <v>44473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3608,20 +3603,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3636,52 +3636,56 @@
         <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Brunklöver</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 687-2026 artfynd.xlsx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 54828-2021 artfynd.xlsx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 687-2026 karta.png", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 54828-2021 karta.png", "A 54828-2021")</f>
+        <v/>
+      </c>
+      <c r="U35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 54828-2021 karta knärot.png", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 687-2026 FSC-klagomål.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 54828-2021 FSC-klagomål.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 687-2026 FSC-klagomål mail.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 54828-2021 FSC-klagomål mail.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 687-2026 tillsynsbegäran.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 54828-2021 tillsynsbegäran.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 687-2026 tillsynsbegäran mail.docx", "A 687-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 54828-2021 tillsynsbegäran mail.docx", "A 54828-2021")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 35521-2024</t>
+          <t>A 687-2026</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45531.57493055556</v>
+        <v>46029</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3693,23 +3697,18 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
@@ -3723,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3733,45 +3732,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Brunklöver</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35521-2024 artfynd.xlsx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 687-2026 artfynd.xlsx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35521-2024 karta.png", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 687-2026 karta.png", "A 687-2026")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35521-2024 FSC-klagomål.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 687-2026 FSC-klagomål.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35521-2024 FSC-klagomål mail.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 687-2026 FSC-klagomål mail.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35521-2024 tillsynsbegäran.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 687-2026 tillsynsbegäran.docx", "A 687-2026")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35521-2024 tillsynsbegäran mail.docx", "A 35521-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 687-2026 tillsynsbegäran mail.docx", "A 687-2026")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 28392-2024</t>
+          <t>A 35521-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45477.60362268519</v>
+        <v>45531.57493055556</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3789,7 +3788,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3823,45 +3822,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 28392-2024 artfynd.xlsx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 35521-2024 artfynd.xlsx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 28392-2024 karta.png", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 35521-2024 karta.png", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 28392-2024 FSC-klagomål.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 35521-2024 FSC-klagomål.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 28392-2024 FSC-klagomål mail.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 35521-2024 FSC-klagomål mail.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 28392-2024 tillsynsbegäran.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 35521-2024 tillsynsbegäran.docx", "A 35521-2024")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 28392-2024 tillsynsbegäran mail.docx", "A 28392-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 35521-2024 tillsynsbegäran mail.docx", "A 35521-2024")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 47459-2023</t>
+          <t>A 22096-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45202.83313657407</v>
+        <v>44323</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3873,21 +3872,26 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>1</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
@@ -3898,55 +3902,59 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47459-2023 artfynd.xlsx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 22096-2021 artfynd.xlsx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47459-2023 karta.png", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 22096-2021 karta.png", "A 22096-2021")</f>
+        <v/>
+      </c>
+      <c r="U38">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 22096-2021 karta knärot.png", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47459-2023 FSC-klagomål.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 22096-2021 FSC-klagomål.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47459-2023 FSC-klagomål mail.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 22096-2021 FSC-klagomål mail.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47459-2023 tillsynsbegäran.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 22096-2021 tillsynsbegäran.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47459-2023 tillsynsbegäran mail.docx", "A 47459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 22096-2021 tillsynsbegäran mail.docx", "A 22096-2021")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 22096-2021</t>
+          <t>A 21029-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44323</v>
+        <v>45439.6528125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3964,19 +3972,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -3991,56 +3999,56 @@
         <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 22096-2021 artfynd.xlsx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 21029-2024 artfynd.xlsx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 22096-2021 karta.png", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 21029-2024 karta.png", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="U39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 22096-2021 karta knärot.png", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 21029-2024 karta knärot.png", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 22096-2021 FSC-klagomål.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 21029-2024 FSC-klagomål.docx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 22096-2021 FSC-klagomål mail.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 21029-2024 FSC-klagomål mail.docx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 22096-2021 tillsynsbegäran.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 21029-2024 tillsynsbegäran.docx", "A 21029-2024")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 22096-2021 tillsynsbegäran mail.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 21029-2024 tillsynsbegäran mail.docx", "A 21029-2024")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 234-2023</t>
+          <t>A 47219-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44928.66260416667</v>
+        <v>45586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4058,19 +4066,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4085,56 +4093,52 @@
         <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 234-2023 artfynd.xlsx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 47219-2024 artfynd.xlsx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 234-2023 karta.png", "A 234-2023")</f>
-        <v/>
-      </c>
-      <c r="U40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 234-2023 karta knärot.png", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 47219-2024 karta.png", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 234-2023 FSC-klagomål.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 47219-2024 FSC-klagomål.docx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 234-2023 FSC-klagomål mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 47219-2024 FSC-klagomål mail.docx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 234-2023 tillsynsbegäran.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 47219-2024 tillsynsbegäran.docx", "A 47219-2024")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 234-2023 tillsynsbegäran mail.docx", "A 234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 47219-2024 tillsynsbegäran mail.docx", "A 47219-2024")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 21029-2024</t>
+          <t>A 27434-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45439.6528125</v>
+        <v>45813</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4152,16 +4156,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -4176,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -4186,35 +4190,31 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 21029-2024 artfynd.xlsx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/artfynd/A 27434-2025 artfynd.xlsx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 21029-2024 karta.png", "A 21029-2024")</f>
-        <v/>
-      </c>
-      <c r="U41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/knärot/A 21029-2024 karta knärot.png", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/kartor/A 27434-2025 karta.png", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 21029-2024 FSC-klagomål.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomål/A 27434-2025 FSC-klagomål.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 21029-2024 FSC-klagomål mail.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/klagomålsmail/A 27434-2025 FSC-klagomål mail.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 21029-2024 tillsynsbegäran.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsyn/A 27434-2025 tillsynsbegäran.docx", "A 27434-2025")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 21029-2024 tillsynsbegäran mail.docx", "A 21029-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2104/tillsynsmail/A 27434-2025 tillsynsbegäran mail.docx", "A 27434-2025")</f>
         <v/>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
         <v>44868.61302083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>44770</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>44314</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4402,14 +4402,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 61687-2021</t>
+          <t>A 3052-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44501.57883101852</v>
+        <v>44582.37412037037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4459,14 +4459,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 3052-2022</t>
+          <t>A 61687-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44582.37412037037</v>
+        <v>44501.57883101852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>44447.66321759259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>44504.60092592592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44512</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>44456</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>44295.6012962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>44649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>44873</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4915,14 +4915,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19292-2022</t>
+          <t>A 51202-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44692</v>
+        <v>44868.60868055555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4934,8 +4934,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>11.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4972,14 +4977,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 51202-2022</t>
+          <t>A 19292-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44868.60868055555</v>
+        <v>44692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4991,13 +4996,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>11.3</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5034,14 +5034,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 13473-2024</t>
+          <t>A 17179-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45387.5827662037</v>
+        <v>45755</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5053,8 +5053,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5091,14 +5096,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 4032-2025</t>
+          <t>A 35498-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45684</v>
+        <v>45531.51796296296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5108,6 +5113,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5148,14 +5158,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 22129-2023</t>
+          <t>A 24851-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45069</v>
+        <v>44340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5173,7 +5183,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5210,14 +5220,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 57400-2024</t>
+          <t>A 6929-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45629.71085648148</v>
+        <v>44967</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5230,7 +5240,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5267,14 +5277,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 28391-2024</t>
+          <t>A 33979-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45477.60254629629</v>
+        <v>45523.51896990741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5286,13 +5296,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5329,14 +5334,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 35505-2024</t>
+          <t>A 33978-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45531.53869212963</v>
+        <v>45523.51716435186</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5348,13 +5353,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5391,14 +5391,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 35514-2024</t>
+          <t>A 33984-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45531.56472222223</v>
+        <v>45523.52378472222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5410,13 +5410,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5453,14 +5448,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 38486-2025</t>
+          <t>A 58369-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45884.34282407408</v>
+        <v>45250</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5473,7 +5468,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5510,14 +5505,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 48232-2025</t>
+          <t>A 4032-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45933.53054398148</v>
+        <v>45684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5529,13 +5524,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5572,14 +5562,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 48612-2025</t>
+          <t>A 33296-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45935</v>
+        <v>45127.69603009259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,11 +5583,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5634,14 +5624,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 48231-2025</t>
+          <t>A 51337-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45933.52594907407</v>
+        <v>45219.59144675926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5653,13 +5643,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5696,14 +5681,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 27959-2025</t>
+          <t>A 54149-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45816</v>
+        <v>45232.4528125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5715,13 +5700,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>45.6</v>
+        <v>4.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5758,14 +5738,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 48242-2025</t>
+          <t>A 37743-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45933.53510416667</v>
+        <v>44810.58275462963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5777,13 +5757,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5820,14 +5795,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 20972-2025</t>
+          <t>A 58240-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45777.45725694444</v>
+        <v>44487.88978009259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5839,13 +5814,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5882,14 +5852,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 48609-2025</t>
+          <t>A 13471-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45935</v>
+        <v>45387.57859953704</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5901,13 +5871,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>5.1</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5944,14 +5909,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 48240-2025</t>
+          <t>A 43730-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45933.53292824074</v>
+        <v>45187</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5969,7 +5934,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6006,14 +5971,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 48241-2025</t>
+          <t>A 47524-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45933.53391203703</v>
+        <v>45587.63166666667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6025,13 +5990,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6068,14 +6028,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 48252-2025</t>
+          <t>A 28391-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45933.55329861111</v>
+        <v>45477.60254629629</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6087,8 +6047,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6125,14 +6090,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 23376-2024</t>
+          <t>A 27738-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45453</v>
+        <v>45475.45108796296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6146,11 +6111,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>10.8</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6187,14 +6152,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 38741-2025</t>
+          <t>A 11953-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45887.37405092592</v>
+        <v>45728.56366898148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6212,7 +6177,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.5</v>
+        <v>34.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6249,14 +6214,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 38746-2025</t>
+          <t>A 11813-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45887.37974537037</v>
+        <v>45376.30138888889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6268,13 +6233,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6311,14 +6271,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 21340-2025</t>
+          <t>A 37680-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45782.38909722222</v>
+        <v>44810</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6331,7 +6291,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6368,14 +6328,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 22226-2024</t>
+          <t>A 38746-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45446.4203587963</v>
+        <v>45887.37974537037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6387,8 +6347,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6425,14 +6390,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 38744-2025</t>
+          <t>A 38741-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45887.37774305556</v>
+        <v>45887.37405092592</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6450,7 +6415,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>8.199999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6487,14 +6452,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 37744-2022</t>
+          <t>A 59130-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44810.58422453704</v>
+        <v>45637</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6544,14 +6509,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 43887-2025</t>
+          <t>A 38486-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45912.69278935185</v>
+        <v>45884.34282407408</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6563,13 +6528,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6606,14 +6566,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1144-2024</t>
+          <t>A 38744-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45302.49138888889</v>
+        <v>45887.37774305556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6625,8 +6585,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6663,14 +6628,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 11813-2024</t>
+          <t>A 57632-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45376.30138888889</v>
+        <v>44484.39166666667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6683,7 +6648,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6720,14 +6685,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 47531-2021</t>
+          <t>A 58373-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44447</v>
+        <v>45250.65805555556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6740,7 +6705,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>7.6</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6777,14 +6742,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 24851-2021</t>
+          <t>A 41020-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44340</v>
+        <v>45173.59236111111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6802,7 +6767,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6839,14 +6804,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43885-2025</t>
+          <t>A 23545-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45912.69076388889</v>
+        <v>45792</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6858,13 +6823,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6901,14 +6861,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 5554-2024</t>
+          <t>A 26302-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45334</v>
+        <v>45805</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6921,7 +6881,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6958,14 +6918,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 10740-2025</t>
+          <t>A 44356-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45722.41008101852</v>
+        <v>45188.81979166667</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6978,7 +6938,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7015,14 +6975,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 40407-2025</t>
+          <t>A 23355-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45895.57083333333</v>
+        <v>45453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7040,7 +7000,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7077,14 +7037,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 22844-2025</t>
+          <t>A 40407-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45790.32160879629</v>
+        <v>45895.57083333333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7096,8 +7056,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7134,14 +7099,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 58240-2021</t>
+          <t>A 13744-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44487.88978009259</v>
+        <v>45007</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7153,8 +7118,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7191,14 +7161,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 30229-2024</t>
+          <t>A 10740-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45490.46946759259</v>
+        <v>45722.41008101852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7210,13 +7180,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7253,14 +7218,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25476-2024</t>
+          <t>A 41569-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45463.44922453703</v>
+        <v>45901.60810185185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7278,7 +7243,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7315,14 +7280,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41569-2025</t>
+          <t>A 8510-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45901.60810185185</v>
+        <v>44977.56144675926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7334,13 +7299,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7377,14 +7337,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 45965-2025</t>
+          <t>A 31471-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45924.35655092593</v>
+        <v>45833.56436342592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7396,13 +7356,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7446,7 +7401,7 @@
         <v>45901.70319444445</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7501,14 +7456,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21039-2024</t>
+          <t>A 25476-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45439</v>
+        <v>45463.44922453703</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7526,7 +7481,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7563,14 +7518,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 25465-2024</t>
+          <t>A 32299-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45463.43416666667</v>
+        <v>45835</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7584,11 +7539,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>12.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7625,14 +7580,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 62596-2023</t>
+          <t>A 22129-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45271</v>
+        <v>45069</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7644,8 +7599,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7682,14 +7642,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 23666-2025</t>
+          <t>A 25477-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45792.84364583333</v>
+        <v>45463.45015046297</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7701,8 +7661,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7739,14 +7704,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 51225-2025</t>
+          <t>A 43282-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45947.65599537037</v>
+        <v>44432.39119212963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7764,7 +7729,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7801,14 +7766,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 53517-2024</t>
+          <t>A 47495-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45614.60436342593</v>
+        <v>45587.59559027778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7820,8 +7785,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7858,14 +7828,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 59615-2023</t>
+          <t>A 30007-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45254</v>
+        <v>45488.60150462963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7883,7 +7853,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.4</v>
+        <v>11.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7920,14 +7890,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 24395-2025</t>
+          <t>A 30009-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45797.63881944444</v>
+        <v>45488.60546296297</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7939,8 +7909,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7977,14 +7952,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 33981-2024</t>
+          <t>A 44694-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45523.52111111111</v>
+        <v>45917.59674768519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7996,8 +7971,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>2.3</v>
+        <v>12.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8034,14 +8014,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41020-2023</t>
+          <t>A 44692-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45173.59236111111</v>
+        <v>45917.59540509259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8059,7 +8039,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8096,14 +8076,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 52693-2025</t>
+          <t>A 54578-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45956.58960648148</v>
+        <v>45617.65644675926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8116,7 +8096,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8153,14 +8133,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 54827-2025</t>
+          <t>A 49815-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45966.66925925926</v>
+        <v>45597.39709490741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8173,7 +8153,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8210,14 +8190,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 54874-2025</t>
+          <t>A 37763-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45967.30939814815</v>
+        <v>45156</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8230,7 +8210,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8267,14 +8247,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 54876-2025</t>
+          <t>A 35473-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45967.31611111111</v>
+        <v>45855.66804398148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8287,7 +8267,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8324,14 +8304,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 54877-2025</t>
+          <t>A 35475-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45967.31960648148</v>
+        <v>45855.67001157408</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8344,7 +8324,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8381,14 +8361,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 44694-2025</t>
+          <t>A 35505-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45917.59674768519</v>
+        <v>45531.53869212963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8406,7 +8386,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>12.1</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8443,14 +8423,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 55287-2025</t>
+          <t>A 35514-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45969.30730324074</v>
+        <v>45531.56472222223</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8462,8 +8442,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8500,14 +8485,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 55288-2025</t>
+          <t>A 30229-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45969.33444444444</v>
+        <v>45490.46946759259</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8519,8 +8504,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8557,14 +8547,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 30007-2024</t>
+          <t>A 36180-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45488.60150462963</v>
+        <v>45867.41327546296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8576,13 +8566,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8619,14 +8604,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 30009-2024</t>
+          <t>A 2612-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45488.60546296297</v>
+        <v>45674</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8638,13 +8623,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8681,14 +8661,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 44692-2025</t>
+          <t>A 36349-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45917.59540509259</v>
+        <v>45868.48269675926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8700,13 +8680,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>5.4</v>
+        <v>2.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8743,14 +8718,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 13471-2024</t>
+          <t>A 47091-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45387.57859953704</v>
+        <v>45929.65052083333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8763,7 +8738,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8800,14 +8775,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 58787-2021</t>
+          <t>A 47097-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44489.56234953704</v>
+        <v>45929.65541666667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8820,7 +8795,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8857,14 +8832,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 26753-2025</t>
+          <t>A 40393-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45810.55490740741</v>
+        <v>45895.55646990741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8876,8 +8851,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8914,14 +8894,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 13745-2023</t>
+          <t>A 23376-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45007</v>
+        <v>45453</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8935,11 +8915,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>10.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8976,14 +8956,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 6963-2024</t>
+          <t>A 47249-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45343.4562037037</v>
+        <v>45930.43439814815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8996,7 +8976,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9033,14 +9013,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 27438-2025</t>
+          <t>A 40401-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45813.3143287037</v>
+        <v>45895.56739583334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9058,7 +9038,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>12.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9095,14 +9075,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 40393-2025</t>
+          <t>A 58955-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45895.55646990741</v>
+        <v>45252</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9114,13 +9094,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9157,14 +9132,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 31645-2024</t>
+          <t>A 47469-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45506.60777777778</v>
+        <v>45930.67037037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9176,13 +9151,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>11.1</v>
+        <v>3.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9219,14 +9189,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 27432-2025</t>
+          <t>A 48232-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45813</v>
+        <v>45933.53054398148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9244,7 +9214,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9281,14 +9251,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 27441-2025</t>
+          <t>A 37444-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45813.31630787037</v>
+        <v>45877.54305555556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9306,7 +9276,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9343,14 +9313,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 27431-2025</t>
+          <t>A 48242-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45813</v>
+        <v>45933.53510416667</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9368,7 +9338,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9405,14 +9375,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 27436-2025</t>
+          <t>A 6963-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45813</v>
+        <v>45343.4562037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9424,13 +9394,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9467,14 +9432,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47249-2025</t>
+          <t>A 27959-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45930.43439814815</v>
+        <v>45816</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9486,8 +9451,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>45.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9524,14 +9494,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 47469-2025</t>
+          <t>A 48240-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45930.67037037037</v>
+        <v>45933.53292824074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9543,8 +9513,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9581,14 +9556,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 47091-2025</t>
+          <t>A 48241-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45929.65052083333</v>
+        <v>45933.53391203703</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9600,8 +9575,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9638,14 +9618,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 47097-2025</t>
+          <t>A 48252-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45929.65541666667</v>
+        <v>45933.55329861111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9658,7 +9638,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9695,14 +9675,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 40401-2025</t>
+          <t>A 48231-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45895.56739583334</v>
+        <v>45933.52594907407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9720,7 +9700,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>12.6</v>
+        <v>2.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9757,14 +9737,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 23545-2025</t>
+          <t>A 48612-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45792</v>
+        <v>45935</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9776,8 +9756,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9814,14 +9799,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 54149-2023</t>
+          <t>A 37988-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45232.4528125</v>
+        <v>45881.70454861111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9833,8 +9818,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9871,14 +9861,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 26302-2025</t>
+          <t>A 48609-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45805</v>
+        <v>45935</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9890,8 +9880,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9928,14 +9923,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 36283-2024</t>
+          <t>A 43885-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45534.58899305556</v>
+        <v>45912.69076388889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9953,7 +9948,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9990,14 +9985,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 48063-2024</t>
+          <t>A 43887-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45589.55237268518</v>
+        <v>45912.69278935185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10009,8 +10004,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10047,14 +10047,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 33979-2024</t>
+          <t>A 10587-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45523.51896990741</v>
+        <v>44624</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10104,14 +10104,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 57593-2025</t>
+          <t>A 45965-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45980.96055555555</v>
+        <v>45924.35655092593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10123,8 +10123,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10161,14 +10166,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 57595-2025</t>
+          <t>A 31123-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45980.97019675926</v>
+        <v>44368</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10181,7 +10186,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10218,14 +10223,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 57596-2025</t>
+          <t>A 36763-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45980.9716087963</v>
+        <v>45538.36181712963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10238,7 +10243,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10275,14 +10280,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 16371-2022</t>
+          <t>A 21027-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44671</v>
+        <v>45439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10294,8 +10299,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10332,14 +10342,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 31471-2025</t>
+          <t>A 21028-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45833.56436342592</v>
+        <v>45439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10349,6 +10359,11 @@
       <c r="E145" t="inlineStr">
         <is>
           <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -10389,14 +10404,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 57594-2025</t>
+          <t>A 16371-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45980.96221064815</v>
+        <v>44671</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10409,7 +10424,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10446,14 +10461,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 47359-2024</t>
+          <t>A 51225-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45587.43547453704</v>
+        <v>45947.65599537037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10465,8 +10480,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10503,14 +10523,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 58008-2025</t>
+          <t>A 57751-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45982.45744212963</v>
+        <v>45630.82424768519</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10523,7 +10543,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10560,14 +10580,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 23355-2024</t>
+          <t>A 52693-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45453</v>
+        <v>45956.58960648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10579,13 +10599,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10622,14 +10637,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 32299-2025</t>
+          <t>A 2915-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45835</v>
+        <v>45677.96424768519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10641,13 +10656,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>12.8</v>
+        <v>1.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10684,14 +10694,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58633-2025</t>
+          <t>A 32980-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45986.48885416667</v>
+        <v>45125.59980324074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10704,7 +10714,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10741,14 +10751,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 58324-2025</t>
+          <t>A 57400-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45985.47690972222</v>
+        <v>45629.71085648148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10761,7 +10771,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10798,14 +10808,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 43730-2023</t>
+          <t>A 62596-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45187</v>
+        <v>45271</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10817,13 +10827,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10860,14 +10865,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 58805-2025</t>
+          <t>A 25474-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45986.9652662037</v>
+        <v>45463.44631944445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10879,8 +10884,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10917,14 +10927,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 6929-2023</t>
+          <t>A 8448-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44967</v>
+        <v>45709</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10937,7 +10947,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10974,14 +10984,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 35475-2025</t>
+          <t>A 47493-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45855.67001157408</v>
+        <v>45587.59410879629</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10993,8 +11003,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -11031,14 +11046,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 35473-2025</t>
+          <t>A 54876-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45855.66804398148</v>
+        <v>45967.31611111111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11051,7 +11066,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11088,14 +11103,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 11607-2023</t>
+          <t>A 54877-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44994</v>
+        <v>45967.31960648148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11107,13 +11122,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11150,14 +11160,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 36180-2025</t>
+          <t>A 54874-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45867.41327546296</v>
+        <v>45967.30939814815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11170,7 +11180,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>11.7</v>
+        <v>5.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11207,14 +11217,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 36349-2025</t>
+          <t>A 54827-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45868.48269675926</v>
+        <v>45966.66925925926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11227,7 +11237,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11264,14 +11274,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 37444-2025</t>
+          <t>A 10161-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45877.54305555556</v>
+        <v>44986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11285,11 +11295,11 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11326,14 +11336,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 61186-2025</t>
+          <t>A 55288-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46000.58625</v>
+        <v>45969.33444444444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11346,7 +11356,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11383,14 +11393,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 37988-2025</t>
+          <t>A 55287-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45881.70454861111</v>
+        <v>45969.30730324074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11402,13 +11412,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11445,14 +11450,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 11953-2025</t>
+          <t>A 57596-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45728.56366898148</v>
+        <v>45980.9716087963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11464,13 +11469,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>34.8</v>
+        <v>1.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11507,14 +11507,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 37743-2022</t>
+          <t>A 57593-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44810.58275462963</v>
+        <v>45980.96055555555</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11564,14 +11564,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61642-2025</t>
+          <t>A 57595-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46002.43494212963</v>
+        <v>45980.97019675926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11621,14 +11621,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 3614-2026</t>
+          <t>A 57594-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46042.94263888889</v>
+        <v>45980.96221064815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11678,14 +11678,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 3870-2026</t>
+          <t>A 58324-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46043.64090277778</v>
+        <v>45985.47690972222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11697,13 +11697,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11740,14 +11735,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 51337-2023</t>
+          <t>A 58008-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45219.59144675926</v>
+        <v>45982.45744212963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11797,14 +11792,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 36278-2024</t>
+          <t>A 34232-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45534.58508101852</v>
+        <v>45127</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11818,11 +11813,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>8.699999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11859,14 +11854,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 3615-2026</t>
+          <t>A 58633-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46042.94633101852</v>
+        <v>45986.48885416667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11879,7 +11874,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11916,14 +11911,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 4101-2026</t>
+          <t>A 58805-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46044.57539351852</v>
+        <v>45986.9652662037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11936,7 +11931,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11973,14 +11968,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 4104-2026</t>
+          <t>A 22226-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46044.58568287037</v>
+        <v>45446.4203587963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11993,7 +11988,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -12030,14 +12025,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 4566-2026</t>
+          <t>A 37693-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46047.87172453704</v>
+        <v>45159.57056712963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12050,7 +12045,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12087,14 +12082,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 17185-2025</t>
+          <t>A 3614-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45755</v>
+        <v>46042.94263888889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12106,13 +12101,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>10.3</v>
+        <v>2.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12149,14 +12139,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 37680-2022</t>
+          <t>A 61186-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44810</v>
+        <v>46000.58625</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12169,7 +12159,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12206,14 +12196,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 4541-2026</t>
+          <t>A 3870-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46046.94703703704</v>
+        <v>46043.64090277778</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12225,8 +12215,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12263,14 +12258,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 5482-2026</t>
+          <t>A 3615-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46050.60585648148</v>
+        <v>46042.94633101852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12320,14 +12315,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 5549-2026</t>
+          <t>A 48063-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46050.71560185185</v>
+        <v>45589.55237268518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12340,7 +12335,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12377,14 +12372,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 5249-2026</t>
+          <t>A 61642-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46049.90417824074</v>
+        <v>46002.43494212963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12397,7 +12392,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12434,14 +12429,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 47639-2021</t>
+          <t>A 17762-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44448.3966087963</v>
+        <v>44680</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12454,7 +12449,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12491,14 +12486,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 28133-2024</t>
+          <t>A 4104-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45476.69053240741</v>
+        <v>46044.58568287037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12511,7 +12506,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12548,14 +12543,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 33978-2024</t>
+          <t>A 4101-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45523.51716435186</v>
+        <v>46044.57539351852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12568,7 +12563,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12605,14 +12600,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 33984-2024</t>
+          <t>A 4541-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45523.52378472222</v>
+        <v>46046.94703703704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12625,7 +12620,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12662,14 +12657,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 36763-2024</t>
+          <t>A 51277-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45538.36181712963</v>
+        <v>44868.7127662037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12682,7 +12677,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12719,14 +12714,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 7209-2026</t>
+          <t>A 4566-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46058.53673611111</v>
+        <v>46047.87172453704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12738,13 +12733,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12781,14 +12771,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 7207-2026</t>
+          <t>A 5482-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46058.53497685185</v>
+        <v>46050.60585648148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12800,13 +12790,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12843,14 +12828,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 7210-2026</t>
+          <t>A 5549-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46058.53807870371</v>
+        <v>46050.71560185185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12862,13 +12847,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12905,14 +12885,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 2546-2026</t>
+          <t>A 13745-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46037.46833333333</v>
+        <v>45007</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12924,8 +12904,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12962,14 +12947,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 14119-2025</t>
+          <t>A 5249-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45740.4659837963</v>
+        <v>46049.90417824074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12981,13 +12966,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -13024,14 +13004,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 3391-2026</t>
+          <t>A 14119-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46042</v>
+        <v>45740.4659837963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13043,8 +13023,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -13081,14 +13066,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 10161-2023</t>
+          <t>A 25465-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44986</v>
+        <v>45463.43416666667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13102,11 +13087,11 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13143,14 +13128,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 7580-2026</t>
+          <t>A 2546-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46061.63731481481</v>
+        <v>46037.46833333333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13163,7 +13148,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13200,14 +13185,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 7581-2026</t>
+          <t>A 7209-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46061.63856481481</v>
+        <v>46058.53673611111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13219,8 +13204,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13257,14 +13247,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 2220-2026</t>
+          <t>A 7210-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46036.50115740741</v>
+        <v>46058.53807870371</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13276,8 +13266,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13314,14 +13309,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 8202-2026</t>
+          <t>A 7207-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46064.44456018518</v>
+        <v>46058.53497685185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13333,8 +13328,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13371,14 +13371,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 8279-2026</t>
+          <t>A 64000-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46064.55806712963</v>
+        <v>46021.39847222222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13390,13 +13390,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13433,14 +13428,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 8321-2026</t>
+          <t>A 2220-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46064.60894675926</v>
+        <v>46036.50115740741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13453,7 +13448,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13490,14 +13485,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 8324-2026</t>
+          <t>A 7580-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46064.61172453704</v>
+        <v>46061.63731481481</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13510,7 +13505,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13547,14 +13542,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 12057-2021</t>
+          <t>A 35114-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44266</v>
+        <v>45145</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13567,7 +13562,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13604,14 +13599,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 64000-2025</t>
+          <t>A 35136-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46021.39847222222</v>
+        <v>45145.52915509259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13624,7 +13619,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13661,14 +13656,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 8239-2026</t>
+          <t>A 38251-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46064.48892361111</v>
+        <v>44812.4874537037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13681,7 +13676,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13718,14 +13713,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 8250-2026</t>
+          <t>A 7581-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46064.49732638889</v>
+        <v>46061.63856481481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13738,7 +13733,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13775,14 +13770,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 8275-2026</t>
+          <t>A 3391-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46064.55445601852</v>
+        <v>46042</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13794,13 +13789,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>13.6</v>
+        <v>0.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13844,7 +13834,7 @@
         <v>46064.60053240741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13894,14 +13884,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 8751-2026</t>
+          <t>A 8279-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46066.54503472222</v>
+        <v>46064.55806712963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13919,7 +13909,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13956,14 +13946,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 31611-2023</t>
+          <t>A 8321-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45117</v>
+        <v>46064.60894675926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13976,7 +13966,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -14013,14 +14003,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 8802-2026</t>
+          <t>A 8324-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46066.59980324074</v>
+        <v>46064.61172453704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14033,7 +14023,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -14070,14 +14060,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 8748-2026</t>
+          <t>A 8202-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46066.54123842593</v>
+        <v>46064.44456018518</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14089,13 +14079,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14132,14 +14117,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 8749-2026</t>
+          <t>A 8250-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46066.543125</v>
+        <v>46064.49732638889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14151,13 +14136,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14194,14 +14174,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 8812-2026</t>
+          <t>A 8275-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46066.61409722222</v>
+        <v>46064.55445601852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14219,7 +14199,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.9</v>
+        <v>13.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14256,14 +14236,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 129-2026</t>
+          <t>A 31607-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46024.59600694444</v>
+        <v>45117</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14276,7 +14256,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14313,14 +14293,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 5177-2026</t>
+          <t>A 31611-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46049</v>
+        <v>45117</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14333,7 +14313,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>6.7</v>
+        <v>4.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14370,14 +14350,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 341-2026</t>
+          <t>A 8239-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46027</v>
+        <v>46064.48892361111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14390,7 +14370,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14434,7 +14414,7 @@
         <v>46044</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14484,14 +14464,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 4419-2026</t>
+          <t>A 8748-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46045.60791666667</v>
+        <v>46066.54123842593</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14503,8 +14483,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14541,14 +14526,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 8510-2023</t>
+          <t>A 8802-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44977.56144675926</v>
+        <v>46066.59980324074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14561,7 +14546,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14598,14 +14583,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 27738-2024</t>
+          <t>A 129-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45475.45108796296</v>
+        <v>46024.59600694444</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14617,13 +14602,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14660,14 +14640,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 64036-2025</t>
+          <t>A 341-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46021</v>
+        <v>46027</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14680,7 +14660,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14717,14 +14697,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 9440-2026</t>
+          <t>A 8812-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46071.46555555556</v>
+        <v>46066.61409722222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14742,7 +14722,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>6.8</v>
+        <v>1.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14779,14 +14759,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 681-2026</t>
+          <t>A 8751-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46029</v>
+        <v>46066.54503472222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14798,8 +14778,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14836,14 +14821,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 31607-2023</t>
+          <t>A 8749-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45117</v>
+        <v>46066.543125</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14855,8 +14840,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14893,14 +14883,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 692-2026</t>
+          <t>A 36278-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46029</v>
+        <v>45534.58508101852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14912,8 +14902,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>0.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14950,14 +14945,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 683-2026</t>
+          <t>A 9440-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46029</v>
+        <v>46071.46555555556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14969,8 +14964,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>1.2</v>
+        <v>6.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -15007,14 +15007,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 13744-2023</t>
+          <t>A 659-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45007</v>
+        <v>46029.58206018519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15026,13 +15026,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -15069,14 +15064,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 688-2026</t>
+          <t>A 692-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
         <v>46029</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15089,7 +15084,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15126,14 +15121,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 892-2026</t>
+          <t>A 5177-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46030.45260416667</v>
+        <v>46049</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15146,7 +15141,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.6</v>
+        <v>6.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15183,14 +15178,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 24988-2023</t>
+          <t>A 4419-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45085.64087962963</v>
+        <v>46045.60791666667</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15202,13 +15197,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15245,14 +15235,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 5872-2026</t>
+          <t>A 681-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46052</v>
+        <v>46029</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15265,7 +15255,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15302,14 +15292,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 837-2026</t>
+          <t>A 683-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46030.3752662037</v>
+        <v>46029</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15322,7 +15312,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15359,14 +15349,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 802-2026</t>
+          <t>A 688-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46030</v>
+        <v>46029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15379,7 +15369,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15416,14 +15406,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 47524-2024</t>
+          <t>A 33495-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45587.63166666667</v>
+        <v>45118</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15435,8 +15425,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15473,14 +15468,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 659-2026</t>
+          <t>A 64036-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46029.58206018519</v>
+        <v>46021</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15493,7 +15488,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>9.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15530,14 +15525,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 35114-2023</t>
+          <t>A 43143-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45145</v>
+        <v>45567.62359953704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15550,7 +15545,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15587,14 +15582,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 35136-2023</t>
+          <t>A 802-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45145.52915509259</v>
+        <v>46030</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15607,7 +15602,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15644,14 +15639,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 37693-2023</t>
+          <t>A 5872-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45159.57056712963</v>
+        <v>46052</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15664,7 +15659,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15701,14 +15696,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 37763-2023</t>
+          <t>A 837-2026</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45156</v>
+        <v>46030.3752662037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15721,7 +15716,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15758,14 +15753,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 49815-2024</t>
+          <t>A 892-2026</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45597.39709490741</v>
+        <v>46030.45260416667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15778,7 +15773,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15815,14 +15810,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 54578-2024</t>
+          <t>A 47359-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45617.65644675926</v>
+        <v>45587.43547453704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15835,7 +15830,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15872,14 +15867,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 18347-2025</t>
+          <t>A 31645-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45762.52913194444</v>
+        <v>45506.60777777778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15891,8 +15886,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>3.8</v>
+        <v>11.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15929,14 +15929,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 10184-2022</t>
+          <t>A 64359-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44622</v>
+        <v>45280</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15986,14 +15986,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 10587-2022</t>
+          <t>A 58787-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44624</v>
+        <v>44489.56234953704</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -16043,14 +16043,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 59130-2024</t>
+          <t>A 24988-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45637</v>
+        <v>45085.64087962963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16062,8 +16062,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16100,14 +16105,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 35498-2024</t>
+          <t>A 13473-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45531.51796296296</v>
+        <v>45387.5827662037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16119,13 +16124,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16162,14 +16162,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 8448-2025</t>
+          <t>A 28133-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45709</v>
+        <v>45476.69053240741</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16219,14 +16219,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 17762-2022</t>
+          <t>A 12057-2021</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44680</v>
+        <v>44266</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16276,14 +16276,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 33296-2023</t>
+          <t>A 37744-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45127.69603009259</v>
+        <v>44810.58422453704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16295,13 +16295,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16338,14 +16333,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 58369-2023</t>
+          <t>A 10184-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45250</v>
+        <v>44622</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16358,7 +16353,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16395,14 +16390,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 25477-2024</t>
+          <t>A 10602-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45463.45015046297</v>
+        <v>44624</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16414,13 +16409,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16457,14 +16447,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 43726-2023</t>
+          <t>A 47531-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45187</v>
+        <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16476,13 +16466,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>3</v>
+        <v>7.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16519,14 +16504,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 17179-2025</t>
+          <t>A 33734-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45755</v>
+        <v>45520</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16540,11 +16525,11 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16581,14 +16566,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 58955-2023</t>
+          <t>A 11607-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45252</v>
+        <v>44994</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16600,8 +16585,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16638,14 +16628,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 64359-2023</t>
+          <t>A 43726-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45280</v>
+        <v>45187</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16657,8 +16647,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16695,14 +16690,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 58373-2023</t>
+          <t>A 35504-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45250.65805555556</v>
+        <v>45531.53686342593</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16714,8 +16709,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16752,14 +16752,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 38251-2022</t>
+          <t>A 68079-2021</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44812.4874537037</v>
+        <v>44526.31943287037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16809,14 +16809,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 43282-2021</t>
+          <t>A 6958-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44432.39119212963</v>
+        <v>45343</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16828,13 +16828,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16871,14 +16866,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 68079-2021</t>
+          <t>A 54826-2021</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44526.31943287037</v>
+        <v>44473</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16890,8 +16885,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16928,14 +16928,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 54826-2021</t>
+          <t>A 33710-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44473</v>
+        <v>45520</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16949,11 +16949,11 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16990,14 +16990,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 1149-2024</t>
+          <t>A 17185-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45302.49834490741</v>
+        <v>45755</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17009,8 +17009,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>10.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -17047,14 +17052,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 44356-2023</t>
+          <t>A 47639-2021</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45188.81979166667</v>
+        <v>44448.3966087963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17067,7 +17072,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -17104,14 +17109,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 47495-2024</t>
+          <t>A 32827-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45587.59559027778</v>
+        <v>45516.59273148148</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17129,7 +17134,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>5.2</v>
+        <v>8.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17166,14 +17171,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 10602-2022</t>
+          <t>A 1149-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44624</v>
+        <v>45302.49834490741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17186,7 +17191,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17223,14 +17228,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 33495-2023</t>
+          <t>A 18347-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45118</v>
+        <v>45762.52913194444</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17242,13 +17247,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17292,7 +17292,7 @@
         <v>45117</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17342,14 +17342,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 6958-2024</t>
+          <t>A 21039-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45343</v>
+        <v>45439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17361,8 +17361,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17399,14 +17404,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 57632-2021</t>
+          <t>A 36283-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44484.39166666667</v>
+        <v>45534.58899305556</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17418,8 +17423,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>4.1</v>
+        <v>6.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17456,14 +17466,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 33734-2024</t>
+          <t>A 20972-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45520</v>
+        <v>45777.45725694444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17481,7 +17491,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17518,14 +17528,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 51277-2022</t>
+          <t>A 1144-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44868.7127662037</v>
+        <v>45302.49138888889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17538,7 +17548,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17575,14 +17585,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 47493-2024</t>
+          <t>A 21340-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45587.59410879629</v>
+        <v>45782.38909722222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17594,13 +17604,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17637,14 +17642,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 34232-2023</t>
+          <t>A 5554-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45127</v>
+        <v>45334</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17656,13 +17661,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17699,14 +17699,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 25474-2024</t>
+          <t>A 22844-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45463.44631944445</v>
+        <v>45790.32160879629</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17718,13 +17718,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17761,14 +17756,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 21027-2024</t>
+          <t>A 23666-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45439</v>
+        <v>45792.84364583333</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17780,13 +17775,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17823,14 +17813,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 21028-2024</t>
+          <t>A 24395-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45439</v>
+        <v>45797.63881944444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17842,13 +17832,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G273" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17885,14 +17870,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 2612-2025</t>
+          <t>A 33981-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45674</v>
+        <v>45523.52111111111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17905,7 +17890,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17942,14 +17927,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 32980-2023</t>
+          <t>A 59615-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45125.59980324074</v>
+        <v>45254</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17961,8 +17946,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17999,14 +17989,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 33710-2024</t>
+          <t>A 53517-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45520</v>
+        <v>45614.60436342593</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18018,13 +18008,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -18061,14 +18046,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 43143-2024</t>
+          <t>A 26753-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45567.62359953704</v>
+        <v>45810.55490740741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18081,7 +18066,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -18118,14 +18103,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 31123-2021</t>
+          <t>A 27431-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44368</v>
+        <v>45813</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18137,8 +18122,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -18175,14 +18165,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 57751-2024</t>
+          <t>A 27436-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45630.82424768519</v>
+        <v>45813</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18194,8 +18184,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G279" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -18232,14 +18227,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 35504-2024</t>
+          <t>A 27438-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45531.53686342593</v>
+        <v>45813.3143287037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18257,7 +18252,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -18294,14 +18289,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 32827-2024</t>
+          <t>A 27432-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45516.59273148148</v>
+        <v>45813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18319,7 +18314,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -18356,14 +18351,14 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 2915-2025</t>
+          <t>A 27441-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45677.96424768519</v>
+        <v>45813.31630787037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18375,8 +18370,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G282" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45784</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44512</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45299</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>46064.46010416667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45163</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>44623</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>44816</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>45860.53805555555</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45929</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>45860</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46064.64020833333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44511</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44559.54373842593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>45477.60362268519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44928.66260416667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>45477.60549768519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>45901.70506944445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>45901.6075462963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45488.6040162037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>45348</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>45860.54238425926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45870.54482638889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>45874.7066550926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>45874.70511574074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45936.63020833334</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>45924</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>45912.68892361111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45936.62197916667</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45202.83313657407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>45127</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>46025.54315972222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>46029</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>45531.57493055556</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44323</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45439.6528125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>45586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45813</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44868.61302083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>44770</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>44314</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>44582.37412037037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>44501.57883101852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>44447.66321759259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>44504.60092592592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44512</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>44456</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>44295.6012962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>44649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>44873</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>44868.60868055555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>44692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45755</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>45531.51796296296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>44340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44967</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>45523.51896990741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>45523.51716435186</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>45523.52378472222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>45250</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>45684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>45127.69603009259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>45219.59144675926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>45232.4528125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44810.58275462963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44487.88978009259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>45387.57859953704</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>45187</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>45587.63166666667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>45477.60254629629</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45475.45108796296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>45728.56366898148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>45376.30138888889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>44810</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45887.37974537037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>45887.37405092592</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>45637</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>45884.34282407408</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>45887.37774305556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>44484.39166666667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>45250.658